--- a/data.xlsx
+++ b/data.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N150"/>
+  <dimension ref="A1:O150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,12 +429,12 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>A30815409</t>
+          <t>H82210140</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>adress1,1 17 - C  City1, (Province1) 88673</t>
+          <t>adress1,1 9 - H  City1, (Province1) 49080</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -448,12 +448,12 @@
         </is>
       </c>
       <c r="F1" t="n">
-        <v>992923984</v>
+        <v>962434435</v>
       </c>
       <c r="G1" t="inlineStr"/>
       <c r="H1" t="inlineStr">
         <is>
-          <t>S96.0 - Other personal service activities</t>
+          <t>C32.1 - Manufacture of jewellery, bijouterie and related articles</t>
         </is>
       </c>
       <c r="I1" t="n">
@@ -469,16 +469,19 @@
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>10 - 50</t>
+          <t xml:space="preserve"> &gt; 250</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>2024-03-09</t>
+          <t>2024-01-01 08:00:00</t>
         </is>
       </c>
       <c r="N1" t="n">
         <v>1</v>
+      </c>
+      <c r="O1" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="2">
@@ -489,12 +492,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>G58994282</t>
+          <t>V23783962</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>adress2,2 5 - S  City2, (Province2) 82653</t>
+          <t>adress2,2 17 - P  City2, (Province2) 71497</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -508,12 +511,12 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>990931751</v>
+        <v>900159135</v>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>H51.2.1 - Freight air transport</t>
+          <t>N81.2.1 - General cleaning of buildings</t>
         </is>
       </c>
       <c r="I2" t="n">
@@ -529,15 +532,18 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &gt; 250</t>
+          <t>50 - 250</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2024-03-09</t>
+          <t>2024-01-01 10:00:00</t>
         </is>
       </c>
       <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -549,12 +555,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>N08792862</t>
+          <t>P09480763</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>adress3,3 5 - F  City3, (Province3) 73586</t>
+          <t>adress3,3 18 - H  City3, (Province3) 45407</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -568,12 +574,12 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>977022667</v>
+        <v>979319921</v>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
-          <t>R93.1.3 - Fitness facilities</t>
+          <t>G46.9 - Non-specialised wholesale trade</t>
         </is>
       </c>
       <c r="I3" t="n">
@@ -584,21 +590,24 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Contact</t>
+          <t>Pool</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>10 - 50</t>
+          <t>50 - 250</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2024-03-02</t>
+          <t>2024-01-01 19:00:00</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -609,12 +618,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>S83465675</t>
+          <t>E29067738</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>adress4,4 2 - V  City4, (Province4) 82224</t>
+          <t>adress4,4 16 - V  City4, (Province4) 51983</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -628,12 +637,12 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>986871915</v>
+        <v>980591314</v>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
-          <t>M71.2.0 - Technical testing and analysis</t>
+          <t>C30.1.2 - Building of pleasure and sporting boats</t>
         </is>
       </c>
       <c r="I4" t="n">
@@ -649,15 +658,18 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &gt; 250</t>
+          <t xml:space="preserve"> &lt; 10</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2024-03-14</t>
+          <t>2024-01-02 04:00:00</t>
         </is>
       </c>
       <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -669,12 +681,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>S84051724</t>
+          <t>R27009196</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>adress5,5 1 - N  City5, (Province5) 07107</t>
+          <t>adress5,5 6 - C  City5, (Province5) 36027</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -688,12 +700,12 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>918882798</v>
+        <v>974987021</v>
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
-          <t>B5.2 - Mining of lignite</t>
+          <t>B8.9.9 - Other mining and quarrying n.e.c.</t>
         </is>
       </c>
       <c r="I5" t="n">
@@ -704,7 +716,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Contact</t>
+          <t>Pool</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -714,11 +726,14 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2024-03-30</t>
+          <t>2024-01-02 06:00:00</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -729,12 +744,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>W42449006</t>
+          <t>B33678289</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>adress6,6 8 - A  City6, (Province6) 04590</t>
+          <t>adress6,6 20 - Q  City6, (Province6) 99465</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -748,12 +763,12 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>956502444</v>
+        <v>912038928</v>
       </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
-          <t>C25.5 - Forging, pressing, stamping and roll-forming of metal; powder metallurgy</t>
+          <t>C27 - Manufacture of electrical equipment</t>
         </is>
       </c>
       <c r="I6" t="n">
@@ -774,11 +789,14 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>2024-02-01</t>
+          <t>2024-01-02 13:00:00</t>
         </is>
       </c>
       <c r="N6" t="n">
         <v>1</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -789,12 +807,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>H39634243</t>
+          <t>P67917317</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>adress7,7 14 - C  City7, (Province7) 45072</t>
+          <t>adress7,7 14 - R  City7, (Province7) 25500</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -808,12 +826,12 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>998317248</v>
+        <v>928246427</v>
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
         <is>
-          <t>G46.9 - Non-specialised wholesale trade</t>
+          <t>M70.2 - Management consultancy activities</t>
         </is>
       </c>
       <c r="I7" t="n">
@@ -824,20 +842,23 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Pool</t>
+          <t>Contact</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &gt; 250</t>
+          <t>10 - 50</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>2024-01-16</t>
+          <t>2024-01-02 20:00:00</t>
         </is>
       </c>
       <c r="N7" t="n">
+        <v>1</v>
+      </c>
+      <c r="O7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -849,12 +870,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>W44711153</t>
+          <t>J09127819</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>adress8,8 16 - J  City8, (Province8) 99470</t>
+          <t>adress8,8 8 - Q  City8, (Province8) 87622</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -868,12 +889,12 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>944852352</v>
+        <v>962327874</v>
       </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Q88.9.1 - Child day-care activities</t>
+          <t>Q86.2 - Medical and dental practice activities</t>
         </is>
       </c>
       <c r="I8" t="n">
@@ -884,20 +905,23 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Pool</t>
+          <t>Contact</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>10 - 50</t>
+          <t xml:space="preserve"> &lt; 10</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>2024-02-20</t>
+          <t>2024-01-03 02:00:00</t>
         </is>
       </c>
       <c r="N8" t="n">
+        <v>1</v>
+      </c>
+      <c r="O8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -909,12 +933,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>F90977874</t>
+          <t>C96118593</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>adress9,9 16 - F  City9, (Province9) 52504</t>
+          <t>adress9,9 6 - S  City9, (Province9) 03617</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -928,12 +952,12 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>932268686</v>
+        <v>965439663</v>
       </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
-          <t>G47.7 - Retail sale of other goods in specialised stores</t>
+          <t>C17 - Manufacture of paper and paper products</t>
         </is>
       </c>
       <c r="I9" t="n">
@@ -949,15 +973,18 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>50 - 250</t>
+          <t xml:space="preserve"> &gt; 250</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>2024-01-28</t>
+          <t>2024-01-03 11:00:00</t>
         </is>
       </c>
       <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -969,12 +996,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>S98836164</t>
+          <t>E35564512</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>adress10,10 16 - P  City10, (Province10) 67549</t>
+          <t>adress10,10 11 - S  City10, (Province10) 34803</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -988,12 +1015,12 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>925867627</v>
+        <v>985510387</v>
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
         <is>
-          <t>C30 - Manufacture of other transport equipment</t>
+          <t>R93.1 - Sports activities</t>
         </is>
       </c>
       <c r="I10" t="n">
@@ -1009,16 +1036,19 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>10 - 50</t>
+          <t>50 - 250</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>2024-01-21</t>
+          <t>2024-01-03 15:00:00</t>
         </is>
       </c>
       <c r="N10" t="n">
         <v>1</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1029,12 +1059,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>W14372568</t>
+          <t>N71656330</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>adress11,11 17 - S  City11, (Province11) 39414</t>
+          <t>adress11,11 1 - A  City11, (Province11) 05512</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1048,12 +1078,12 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>977820751</v>
+        <v>915657852</v>
       </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
         <is>
-          <t>A2.4 - Support services to forestry</t>
+          <t>C33.1.3 - Repair of electronic and optical equipment</t>
         </is>
       </c>
       <c r="I11" t="n">
@@ -1064,20 +1094,23 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Pool</t>
+          <t>Contact</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>10 - 50</t>
+          <t xml:space="preserve"> &gt; 250</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>2024-03-28</t>
+          <t>2024-01-03 18:00:00</t>
         </is>
       </c>
       <c r="N11" t="n">
+        <v>1</v>
+      </c>
+      <c r="O11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1089,12 +1122,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>R30494100</t>
+          <t>H52954836</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>adress12,12 7 - E  City12, (Province12) 09873</t>
+          <t>adress12,12 15 - P  City12, (Province12) 63296</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1108,12 +1141,12 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>966365707</v>
+        <v>947916792</v>
       </c>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
         <is>
-          <t>E37.0 - Sewerage</t>
+          <t>M71.2.0 - Technical testing and analysis</t>
         </is>
       </c>
       <c r="I12" t="n">
@@ -1124,20 +1157,23 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Pool</t>
+          <t>Contact</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &gt; 250</t>
+          <t xml:space="preserve"> &lt; 10</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2024-03-25</t>
+          <t>2024-01-03 22:00:00</t>
         </is>
       </c>
       <c r="N12" t="n">
+        <v>1</v>
+      </c>
+      <c r="O12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1149,12 +1185,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>V76929930</t>
+          <t>Q25567106</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>adress13,13 11 - S  City13, (Province13) 95555</t>
+          <t>adress13,13 11 - Q  City13, (Province13) 78029</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1168,12 +1204,12 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>986013610</v>
+        <v>928994951</v>
       </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr">
         <is>
-          <t>R90.0.4 - Operation of arts facilities</t>
+          <t>G46.2.3 - Wholesale of live animals</t>
         </is>
       </c>
       <c r="I13" t="n">
@@ -1184,21 +1220,24 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Contact</t>
+          <t>Pool</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>10 - 50</t>
+          <t xml:space="preserve"> &gt; 250</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>2024-02-24</t>
+          <t>2024-01-04 01:00:00</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1209,12 +1248,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>H45511224</t>
+          <t>Q98103166</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>adress14,14 11 - R  City14, (Province14) 52538</t>
+          <t>adress14,14 8 - J  City14, (Province14) 11354</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1228,12 +1267,12 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>954013140</v>
+        <v>943143419</v>
       </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr">
         <is>
-          <t>M73.2 - Market research and public opinion polling</t>
+          <t>B6.2 - Extraction of natural gas</t>
         </is>
       </c>
       <c r="I14" t="n">
@@ -1254,10 +1293,13 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>2024-03-15</t>
+          <t>2024-01-04 07:00:00</t>
         </is>
       </c>
       <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1269,12 +1311,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>S89522948</t>
+          <t>E88831840</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>adress15,15 19 - F  City15, (Province15) 54863</t>
+          <t>adress15,15 19 - F  City15, (Province15) 23347</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1288,12 +1330,12 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>922382360</v>
+        <v>936214976</v>
       </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr">
         <is>
-          <t>C30.2 - Manufacture of railway locomotives and rolling stock</t>
+          <t>C32.3.0 - Manufacture of sports goods</t>
         </is>
       </c>
       <c r="I15" t="n">
@@ -1309,15 +1351,18 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt; 10</t>
+          <t>50 - 250</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>2024-03-12</t>
+          <t>2024-01-04 14:00:00</t>
         </is>
       </c>
       <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1329,12 +1374,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>R80949571</t>
+          <t>W41753235</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>adress16,16 11 - C  City16, (Province16) 98854</t>
+          <t>adress16,16 19 - E  City16, (Province16) 10581</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1348,12 +1393,12 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>907578187</v>
+        <v>993938647</v>
       </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr">
         <is>
-          <t>I55.9.0 - Other accommodation</t>
+          <t>O84.1.3 - Regulation of and contribution to more efficient operation of businesses</t>
         </is>
       </c>
       <c r="I16" t="n">
@@ -1369,15 +1414,18 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &gt; 250</t>
+          <t>50 - 250</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>2024-01-11</t>
+          <t>2024-01-04 21:00:00</t>
         </is>
       </c>
       <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1389,12 +1437,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>E07070358</t>
+          <t>R83272888</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>adress17,17 6 - N  City17, (Province17) 41482</t>
+          <t>adress17,17 15 - E  City17, (Province17) 26254</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1408,12 +1456,12 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>924787241</v>
+        <v>968152563</v>
       </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
-          <t>C23.1 - Manufacture of glass and glass products</t>
+          <t>E38.2 - Waste treatment and disposal</t>
         </is>
       </c>
       <c r="I17" t="n">
@@ -1429,16 +1477,19 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>50 - 250</t>
+          <t>10 - 50</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>2024-03-13</t>
+          <t>2024-01-05 04:00:00</t>
         </is>
       </c>
       <c r="N17" t="n">
         <v>1</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1449,12 +1500,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>A60566640</t>
+          <t>Q24073929</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>adress18,18 4 - P  City18, (Province18) 10986</t>
+          <t>adress18,18 15 - U  City18, (Province18) 58275</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1468,12 +1519,12 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>948817193</v>
+        <v>995987066</v>
       </c>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
         <is>
-          <t>C14.1.3 - Manufacture of other outerwear</t>
+          <t>C19.1 - Manufacture of coke oven products</t>
         </is>
       </c>
       <c r="I18" t="n">
@@ -1484,20 +1535,23 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Pool</t>
+          <t>Contact</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>10 - 50</t>
+          <t xml:space="preserve"> &lt; 10</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>2024-03-08</t>
+          <t>2024-01-05 12:00:00</t>
         </is>
       </c>
       <c r="N18" t="n">
+        <v>1</v>
+      </c>
+      <c r="O18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1509,12 +1563,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>B32711682</t>
+          <t>U21627455</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>adress19,19 3 - Q  City19, (Province19) 07700</t>
+          <t>adress19,19 9 - G  City19, (Province19) 19820</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1528,12 +1582,12 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>972269191</v>
+        <v>915050955</v>
       </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr">
         <is>
-          <t>C26.7 - Manufacture of optical instruments and photographic equipment</t>
+          <t>R90.0 - Creative, arts and entertainment activities</t>
         </is>
       </c>
       <c r="I19" t="n">
@@ -1549,16 +1603,19 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>10 - 50</t>
+          <t xml:space="preserve"> &lt; 10</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>2024-01-26</t>
+          <t>2024-01-05 14:00:00</t>
         </is>
       </c>
       <c r="N19" t="n">
         <v>1</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1569,12 +1626,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Q52394245</t>
+          <t>V03621761</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>adress20,20 5 - S  City20, (Province20) 35119</t>
+          <t>adress20,20 17 - A  City20, (Province20) 78720</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1588,12 +1645,12 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>940124803</v>
+        <v>951809006</v>
       </c>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
-          <t>C13.9.4 - Manufacture of cordage, rope, twine and netting</t>
+          <t>C28.9.4 - Manufacture of machinery for textile, apparel and leather production</t>
         </is>
       </c>
       <c r="I20" t="n">
@@ -1614,11 +1671,14 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>2024-01-24</t>
+          <t>2024-01-05 15:00:00</t>
         </is>
       </c>
       <c r="N20" t="n">
         <v>1</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1629,12 +1689,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>E78617245</t>
+          <t>H57477491</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>adress21,21 12 - N  City21, (Province21) 79512</t>
+          <t>adress21,21 17 - W  City21, (Province21) 09409</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1648,12 +1708,12 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>998902873</v>
+        <v>956551660</v>
       </c>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Q86.9.0 - Other human health activities</t>
+          <t>G46.1.9 - Agents involved in the sale of a variety of goods</t>
         </is>
       </c>
       <c r="I21" t="n">
@@ -1669,15 +1729,18 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>10 - 50</t>
+          <t>50 - 250</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>2024-02-27</t>
+          <t>2024-01-05 17:00:00</t>
         </is>
       </c>
       <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1689,12 +1752,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>N81319985</t>
+          <t>V60612194</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>adress22,22 19 - S  City22, (Province22) 62057</t>
+          <t>adress22,22 8 - J  City22, (Province22) 45183</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1708,12 +1771,12 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>912195475</v>
+        <v>992789974</v>
       </c>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
-          <t>C23.1.9 - Manufacture and processing of other glass, including technical glassware</t>
+          <t>C29.1.0 - Manufacture of motor vehicles</t>
         </is>
       </c>
       <c r="I22" t="n">
@@ -1729,15 +1792,18 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>50 - 250</t>
+          <t>10 - 50</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>2024-03-29</t>
+          <t>2024-01-06 01:00:00</t>
         </is>
       </c>
       <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1749,12 +1815,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>E57226502</t>
+          <t>E28944883</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>adress23,23 20 - F  City23, (Province23) 60452</t>
+          <t>adress23,23 15 - A  City23, (Province23) 24304</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1768,12 +1834,12 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>982356911</v>
+        <v>954714570</v>
       </c>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
         <is>
-          <t>P85 - Education</t>
+          <t>C31.0 - Manufacture of furniture</t>
         </is>
       </c>
       <c r="I23" t="n">
@@ -1784,21 +1850,24 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Contact</t>
+          <t>Pool</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt; 10</t>
+          <t xml:space="preserve"> &gt; 250</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>2024-01-23</t>
+          <t>2024-01-06 02:00:00</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1809,12 +1878,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>B38934273</t>
+          <t>H22560604</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>adress24,24 11 - N  City24, (Province24) 45263</t>
+          <t>adress24,24 11 - A  City24, (Province24) 53941</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1828,12 +1897,12 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>975762966</v>
+        <v>975962287</v>
       </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
-          <t>C10.7.3 - Manufacture of macaroni, noodles, couscous and similar farinaceous products</t>
+          <t>G46.7.6 - Wholesale of other intermediate products</t>
         </is>
       </c>
       <c r="I24" t="n">
@@ -1844,7 +1913,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Pool</t>
+          <t>Contact</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -1854,10 +1923,13 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>2024-02-21</t>
+          <t>2024-01-06 14:00:00</t>
         </is>
       </c>
       <c r="N24" t="n">
+        <v>1</v>
+      </c>
+      <c r="O24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1869,12 +1941,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>H28532915</t>
+          <t>H49099418</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>adress25,25 7 - F  City25, (Province25) 62478</t>
+          <t>adress25,25 5 - A  City25, (Province25) 47636</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1888,12 +1960,12 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>957039260</v>
+        <v>979174794</v>
       </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
-          <t>F43.1.2 - Site preparation</t>
+          <t>C28.2.4 - Manufacture of power-driven hand tools</t>
         </is>
       </c>
       <c r="I25" t="n">
@@ -1904,20 +1976,23 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Pool</t>
+          <t>Contact</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>50 - 250</t>
+          <t>10 - 50</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>2024-03-03</t>
+          <t>2024-01-06 23:00:00</t>
         </is>
       </c>
       <c r="N25" t="n">
+        <v>1</v>
+      </c>
+      <c r="O25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1929,12 +2004,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>E85804117</t>
+          <t>G29151395</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>adress26,26 15 - H  City26, (Province26) 39316</t>
+          <t>adress26,26 16 - F  City26, (Province26) 77427</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1948,12 +2023,12 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>936665751</v>
+        <v>927703145</v>
       </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr">
         <is>
-          <t>C28.9.3 - Manufacture of machinery for food, beverage and tobacco processing</t>
+          <t>C17 - Manufacture of paper and paper products</t>
         </is>
       </c>
       <c r="I26" t="n">
@@ -1964,7 +2039,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Contact</t>
+          <t>Pool</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -1974,11 +2049,14 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>2024-02-04</t>
+          <t>2024-01-07 07:00:00</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1989,12 +2067,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>P25055335</t>
+          <t>V73126397</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>adress27,27 9 - S  City27, (Province27) 93452</t>
+          <t>adress27,27 19 - C  City27, (Province27) 75934</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -2008,12 +2086,12 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>906370248</v>
+        <v>929192850</v>
       </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
         <is>
-          <t>C25.7.2 - Manufacture of locks and hinges</t>
+          <t>J62.0 - Computer programming, consultancy and related activities</t>
         </is>
       </c>
       <c r="I27" t="n">
@@ -2029,16 +2107,19 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>10 - 50</t>
+          <t>50 - 250</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>2024-03-21</t>
+          <t>2024-01-07 16:00:00</t>
         </is>
       </c>
       <c r="N27" t="n">
         <v>1</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2049,12 +2130,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>B52347805</t>
+          <t>A65224837</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>adress28,28 19 - J  City28, (Province28) 65328</t>
+          <t>adress28,28 3 - C  City28, (Province28) 28291</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -2068,12 +2149,12 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>933791721</v>
+        <v>985761602</v>
       </c>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
         <is>
-          <t>N78.2.0 - Temporary employment agency activities</t>
+          <t>C29.1.0 - Manufacture of motor vehicles</t>
         </is>
       </c>
       <c r="I28" t="n">
@@ -2094,11 +2175,14 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>2024-01-26</t>
+          <t>2024-01-07 17:00:00</t>
         </is>
       </c>
       <c r="N28" t="n">
         <v>1</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2109,12 +2193,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>W77596442</t>
+          <t>B43916064</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>adress29,29 20 - B  City29, (Province29) 21629</t>
+          <t>adress29,29 18 - R  City29, (Province29) 82617</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -2128,12 +2212,12 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>990951777</v>
+        <v>999291189</v>
       </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr">
         <is>
-          <t>J59 - Motion picture, video and television programme production, sound recording and music publishing activities</t>
+          <t>C28.2.2 - Manufacture of lifting and handling equipment</t>
         </is>
       </c>
       <c r="I29" t="n">
@@ -2149,16 +2233,19 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>10 - 50</t>
+          <t xml:space="preserve"> &gt; 250</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>2024-01-25</t>
+          <t>2024-01-08 05:00:00</t>
         </is>
       </c>
       <c r="N29" t="n">
         <v>1</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2169,12 +2256,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>S07561200</t>
+          <t>N26764652</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>adress30,30 3 - S  City30, (Province30) 10510</t>
+          <t>adress30,30 9 - F  City30, (Province30) 55280</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -2188,12 +2275,12 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>902464986</v>
+        <v>936044539</v>
       </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr">
         <is>
-          <t>C27.9 - Manufacture of other electrical equipment</t>
+          <t>J61.2 - Wireless telecommunications activities</t>
         </is>
       </c>
       <c r="I30" t="n">
@@ -2209,16 +2296,19 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt; 10</t>
+          <t>10 - 50</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>2024-03-14</t>
+          <t>2024-01-08 14:00:00</t>
         </is>
       </c>
       <c r="N30" t="n">
         <v>1</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2229,12 +2319,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>S46689496</t>
+          <t>F87003783</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>adress31,31 8 - F  City31, (Province31) 12104</t>
+          <t>adress31,31 2 - J  City31, (Province31) 21856</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -2248,12 +2338,12 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>987150511</v>
+        <v>964939937</v>
       </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr">
         <is>
-          <t>F41.1 - Development of building projects</t>
+          <t>J58.1.2 - Publishing of directories and mailing lists</t>
         </is>
       </c>
       <c r="I31" t="n">
@@ -2269,15 +2359,18 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &gt; 250</t>
+          <t>50 - 250</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>2024-01-05</t>
+          <t>2024-01-08 17:00:00</t>
         </is>
       </c>
       <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2289,12 +2382,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Q09490954</t>
+          <t>S31245217</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>adress32,32 2 - A  City32, (Province32) 21358</t>
+          <t>adress32,32 13 - B  City32, (Province32) 21005</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -2308,12 +2401,12 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>980723613</v>
+        <v>908288288</v>
       </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr">
         <is>
-          <t>F43 - Specialised construction activities</t>
+          <t>M69.1.0 - Legal activities</t>
         </is>
       </c>
       <c r="I32" t="n">
@@ -2329,16 +2422,19 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>10 - 50</t>
+          <t xml:space="preserve"> &lt; 10</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>2024-03-24</t>
+          <t>2024-01-08 22:00:00</t>
         </is>
       </c>
       <c r="N32" t="n">
         <v>1</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -2349,12 +2445,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>V53937316</t>
+          <t>B85902081</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>adress33,33 3 - Q  City33, (Province33) 44553</t>
+          <t>adress33,33 16 - Q  City33, (Province33) 33521</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -2368,12 +2464,12 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>983768352</v>
+        <v>994931693</v>
       </c>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr">
         <is>
-          <t>S95 - Repair of computers and personal and household goods</t>
+          <t>C20.5.2 - Manufacture of glues</t>
         </is>
       </c>
       <c r="I33" t="n">
@@ -2389,16 +2485,19 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>50 - 250</t>
+          <t xml:space="preserve"> &lt; 10</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>2024-02-20</t>
+          <t>2024-01-09 00:00:00</t>
         </is>
       </c>
       <c r="N33" t="n">
         <v>1</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -2409,12 +2508,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>W99691603</t>
+          <t>V34165113</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>adress34,34 12 - F  City34, (Province34) 07680</t>
+          <t>adress34,34 2 - W  City34, (Province34) 75305</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -2428,12 +2527,12 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>944254088</v>
+        <v>913298472</v>
       </c>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr">
         <is>
-          <t>C28.1 - Manufacture of general-purpose machinery</t>
+          <t>G45.2 - Maintenance and repair of motor vehicles</t>
         </is>
       </c>
       <c r="I34" t="n">
@@ -2444,21 +2543,24 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Contact</t>
+          <t>Pool</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt; 10</t>
+          <t>50 - 250</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>2024-03-28</t>
+          <t>2024-01-09 02:00:00</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -2469,12 +2571,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>R12380069</t>
+          <t>U23968633</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>adress35,35 4 - S  City35, (Province35) 54863</t>
+          <t>adress35,35 10 - P  City35, (Province35) 99559</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2488,12 +2590,12 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>973524707</v>
+        <v>970945335</v>
       </c>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr">
         <is>
-          <t>J63.1.2 - Web portals</t>
+          <t>C10.8.9 - Manufacture of other food products n.e.c.</t>
         </is>
       </c>
       <c r="I35" t="n">
@@ -2504,7 +2606,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Contact</t>
+          <t>Pool</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -2514,11 +2616,14 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>2024-03-08</t>
+          <t>2024-01-09 03:00:00</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -2529,12 +2634,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>E33322419</t>
+          <t>P22262905</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>adress36,36 8 - R  City36, (Province36) 62601</t>
+          <t>adress36,36 4 - U  City36, (Province36) 63428</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2548,12 +2653,12 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>961781941</v>
+        <v>926290919</v>
       </c>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr">
         <is>
-          <t>G47.8.9 - Retail sale via stalls and markets of other goods</t>
+          <t>M74.9.0 - Other professional, scientific and technical activities n.e.c.</t>
         </is>
       </c>
       <c r="I36" t="n">
@@ -2564,7 +2669,7 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Pool</t>
+          <t>Contact</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -2574,10 +2679,13 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>2024-01-29</t>
+          <t>2024-01-09 13:00:00</t>
         </is>
       </c>
       <c r="N36" t="n">
+        <v>1</v>
+      </c>
+      <c r="O36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2589,12 +2697,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>N85429767</t>
+          <t>V18148625</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>adress37,37 11 - R  City37, (Province37) 36972</t>
+          <t>adress37,37 11 - F  City37, (Province37) 57831</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2608,12 +2716,12 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>970588281</v>
+        <v>945371982</v>
       </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr">
         <is>
-          <t>C12.0.0 - Manufacture of tobacco products</t>
+          <t>C10.8.2 - Manufacture of cocoa, chocolate and sugar confectionery</t>
         </is>
       </c>
       <c r="I37" t="n">
@@ -2629,15 +2737,18 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>10 - 50</t>
+          <t xml:space="preserve"> &gt; 250</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>2024-01-11</t>
+          <t>2024-01-09 16:00:00</t>
         </is>
       </c>
       <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2649,12 +2760,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>V83869976</t>
+          <t>R63414124</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>adress38,38 16 - S  City38, (Province38) 05799</t>
+          <t>adress38,38 1 - G  City38, (Province38) 59467</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2668,12 +2779,12 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>987059434</v>
+        <v>997195948</v>
       </c>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr">
         <is>
-          <t>C33.1.9 - Repair of other equipment</t>
+          <t>G47.2.1 - Retail sale of fruit and vegetables in specialised stores</t>
         </is>
       </c>
       <c r="I38" t="n">
@@ -2684,21 +2795,24 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Contact</t>
+          <t>Pool</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>10 - 50</t>
+          <t>50 - 250</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>2024-01-21</t>
+          <t>2024-01-09 18:00:00</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2709,12 +2823,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>C75361794</t>
+          <t>A10280534</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>adress39,39 7 - U  City39, (Province39) 62465</t>
+          <t>adress39,39 15 - R  City39, (Province39) 05854</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -2728,12 +2842,12 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>943369279</v>
+        <v>998787178</v>
       </c>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr">
         <is>
-          <t>K64.3 - Trusts, funds and similar financial entities</t>
+          <t>Q87.3 - Residential care activities for the elderly and disabled</t>
         </is>
       </c>
       <c r="I39" t="n">
@@ -2744,21 +2858,24 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Contact</t>
+          <t>Pool</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>50 - 250</t>
+          <t xml:space="preserve"> &lt; 10</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>2024-01-24</t>
+          <t>2024-01-09 23:00:00</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -2769,12 +2886,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>H48384610</t>
+          <t>P39668273</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>adress40,40 10 - G  City40, (Province40) 40591</t>
+          <t>adress40,40 8 - Q  City40, (Province40) 68761</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2788,12 +2905,12 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>906205840</v>
+        <v>921012760</v>
       </c>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr">
         <is>
-          <t>B9.1 - Support activities for petroleum and natural gas extraction</t>
+          <t>L68.2 - Renting and operating of own or leased real estate</t>
         </is>
       </c>
       <c r="I40" t="n">
@@ -2804,20 +2921,23 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Pool</t>
+          <t>Contact</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt; 10</t>
+          <t xml:space="preserve"> &gt; 250</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>2024-02-27</t>
+          <t>2024-01-10 06:00:00</t>
         </is>
       </c>
       <c r="N40" t="n">
+        <v>1</v>
+      </c>
+      <c r="O40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2829,12 +2949,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>J16707115</t>
+          <t>H30370627</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>adress41,41 12 - Q  City41, (Province41) 72507</t>
+          <t>adress41,41 3 - G  City41, (Province41) 84856</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2848,12 +2968,12 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>940355170</v>
+        <v>988412821</v>
       </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr">
         <is>
-          <t>D35.2 - Manufacture of gas; distribution of gaseous fuels through mains</t>
+          <t>F43.3.1 - Plastering</t>
         </is>
       </c>
       <c r="I41" t="n">
@@ -2869,15 +2989,18 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt; 10</t>
+          <t>10 - 50</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>2024-02-06</t>
+          <t>2024-01-10 15:00:00</t>
         </is>
       </c>
       <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2889,12 +3012,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Q11231432</t>
+          <t>C52921522</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>adress42,42 17 - S  City42, (Province42) 66007</t>
+          <t>adress42,42 20 - H  City42, (Province42) 99659</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2908,12 +3031,12 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>954449902</v>
+        <v>995949098</v>
       </c>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr">
         <is>
-          <t>B8.9 - Mining and quarrying n.e.c.</t>
+          <t>G46.4.9 - Wholesale of other household goods</t>
         </is>
       </c>
       <c r="I42" t="n">
@@ -2929,16 +3052,19 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt; 10</t>
+          <t>50 - 250</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>2024-01-15</t>
+          <t>2024-01-10 23:00:00</t>
         </is>
       </c>
       <c r="N42" t="n">
         <v>1</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -2949,12 +3075,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>J22910068</t>
+          <t>N78303148</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>adress43,43 12 - W  City43, (Province43) 64977</t>
+          <t>adress43,43 13 - H  City43, (Province43) 10840</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2968,12 +3094,12 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>964447759</v>
+        <v>914423025</v>
       </c>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr">
         <is>
-          <t>K66.2.2 - Activities of insurance agents and brokers</t>
+          <t>E37.0.0 - Sewerage</t>
         </is>
       </c>
       <c r="I43" t="n">
@@ -2984,21 +3110,24 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Contact</t>
+          <t>Pool</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt; 10</t>
+          <t>50 - 250</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>2024-01-16</t>
+          <t>2024-01-11 02:00:00</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3009,12 +3138,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>H15122028</t>
+          <t>H61837340</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>adress44,44 11 - A  City44, (Province44) 55946</t>
+          <t>adress44,44 8 - C  City44, (Province44) 89252</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -3028,12 +3157,12 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>946118951</v>
+        <v>907309224</v>
       </c>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr">
         <is>
-          <t>F43 - Specialised construction activities</t>
+          <t>H50.4 - Inland freight water transport</t>
         </is>
       </c>
       <c r="I44" t="n">
@@ -3044,21 +3173,24 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Contact</t>
+          <t>Pool</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &gt; 250</t>
+          <t>10 - 50</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>2024-01-03</t>
+          <t>2024-01-11 08:00:00</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -3069,12 +3201,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>G93480152</t>
+          <t>N50208546</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>adress45,45 11 - V  City45, (Province45) 32167</t>
+          <t>adress45,45 15 - C  City45, (Province45) 60478</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -3088,12 +3220,12 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>988178874</v>
+        <v>944740243</v>
       </c>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr">
         <is>
-          <t>C20.3.0 - Manufacture of paints, varnishes and similar coatings, printing ink and mastics</t>
+          <t>C30.9.2 - Manufacture of bicycles and invalid carriages</t>
         </is>
       </c>
       <c r="I45" t="n">
@@ -3104,7 +3236,7 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Pool</t>
+          <t>Contact</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -3114,10 +3246,13 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>2024-03-12</t>
+          <t>2024-01-11 17:00:00</t>
         </is>
       </c>
       <c r="N45" t="n">
+        <v>1</v>
+      </c>
+      <c r="O45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3129,12 +3264,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>P65098518</t>
+          <t>R70679933</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>adress46,46 15 - H  City46, (Province46) 21171</t>
+          <t>adress46,46 11 - W  City46, (Province46) 27347</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -3148,12 +3283,12 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>976552065</v>
+        <v>976545241</v>
       </c>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr">
         <is>
-          <t>C13.9.4 - Manufacture of cordage, rope, twine and netting</t>
+          <t>C24.3 - Manufacture of other products of first processing of steel</t>
         </is>
       </c>
       <c r="I46" t="n">
@@ -3164,21 +3299,24 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Contact</t>
+          <t>Pool</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &gt; 250</t>
+          <t>50 - 250</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>2024-03-03</t>
+          <t>2024-01-12 00:00:00</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -3189,12 +3327,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>G38293271</t>
+          <t>G11119963</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>adress47,47 18 - N  City47, (Province47) 63504</t>
+          <t>adress47,47 9 - P  City47, (Province47) 78016</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -3208,12 +3346,12 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>991162562</v>
+        <v>948609171</v>
       </c>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr">
         <is>
-          <t>O84.2.4 - Public order and safety activities</t>
+          <t>P85.6 - Educational support activities</t>
         </is>
       </c>
       <c r="I47" t="n">
@@ -3229,15 +3367,18 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>10 - 50</t>
+          <t xml:space="preserve"> &lt; 10</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>2024-03-17</t>
+          <t>2024-01-12 01:00:00</t>
         </is>
       </c>
       <c r="N47" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3249,12 +3390,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>R71394435</t>
+          <t>Q03505969</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>adress48,48 13 - A  City48, (Province48) 14719</t>
+          <t>adress48,48 1 - C  City48, (Province48) 85194</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -3268,12 +3409,12 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>995362469</v>
+        <v>995054616</v>
       </c>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr">
         <is>
-          <t>C25.9.1 - Manufacture of steel drums and similar containers</t>
+          <t>N77.3 - Renting and leasing of other machinery, equipment and tangible goods</t>
         </is>
       </c>
       <c r="I48" t="n">
@@ -3289,16 +3430,19 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>50 - 250</t>
+          <t>10 - 50</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>2024-03-10</t>
+          <t>2024-01-12 06:00:00</t>
         </is>
       </c>
       <c r="N48" t="n">
         <v>1</v>
+      </c>
+      <c r="O48" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -3309,12 +3453,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>P38229455</t>
+          <t>U75019576</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>adress49,49 11 - G  City49, (Province49) 01104</t>
+          <t>adress49,49 16 - G  City49, (Province49) 30913</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -3328,12 +3472,12 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>992860980</v>
+        <v>988374787</v>
       </c>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr">
         <is>
-          <t>N81.3 - Landscape service activities</t>
+          <t>H - Transporting and storage</t>
         </is>
       </c>
       <c r="I49" t="n">
@@ -3344,21 +3488,24 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Contact</t>
+          <t>Pool</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>10 - 50</t>
+          <t xml:space="preserve"> &gt; 250</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>2024-02-28</t>
+          <t>2024-01-12 10:00:00</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="O49" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -3369,12 +3516,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>N41240498</t>
+          <t>F55439588</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>adress50,50 15 - W  City50, (Province50) 75670</t>
+          <t>adress50,50 13 - F  City50, (Province50) 30942</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -3388,12 +3535,12 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>983790143</v>
+        <v>908838718</v>
       </c>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr">
         <is>
-          <t>C26.6.0 - Manufacture of irradiation, electromedical and electrotherapeutic equipment</t>
+          <t>C24.4.6 - Processing of nuclear fuel</t>
         </is>
       </c>
       <c r="I50" t="n">
@@ -3409,15 +3556,18 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>50 - 250</t>
+          <t xml:space="preserve"> &lt; 10</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>2024-03-29</t>
+          <t>2024-01-12 21:00:00</t>
         </is>
       </c>
       <c r="N50" t="n">
+        <v>0</v>
+      </c>
+      <c r="O50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3429,12 +3579,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>E96527992</t>
+          <t>B65133592</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>adress51,51 2 - S  City51, (Province51) 70058</t>
+          <t>adress51,51 6 - U  City51, (Province51) 65988</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -3448,12 +3598,12 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>915036899</v>
+        <v>980814494</v>
       </c>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr">
         <is>
-          <t>H49.3.2 - Taxi operation</t>
+          <t>S - Other services activities</t>
         </is>
       </c>
       <c r="I51" t="n">
@@ -3464,20 +3614,23 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Pool</t>
+          <t>Contact</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>10 - 50</t>
+          <t>50 - 250</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>2024-02-10</t>
+          <t>2024-01-13 09:00:00</t>
         </is>
       </c>
       <c r="N51" t="n">
+        <v>1</v>
+      </c>
+      <c r="O51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3489,12 +3642,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>N68800740</t>
+          <t>H21966408</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>adress52,52 18 - C  City52, (Province52) 52937</t>
+          <t>adress52,52 12 - A  City52, (Province52) 27565</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -3508,12 +3661,12 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>908470905</v>
+        <v>910501188</v>
       </c>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr">
         <is>
-          <t>G46.1.9 - Agents involved in the sale of a variety of goods</t>
+          <t>C18 - Printing and reproduction of recorded media</t>
         </is>
       </c>
       <c r="I52" t="n">
@@ -3534,11 +3687,14 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>2024-02-02</t>
+          <t>2024-01-13 11:00:00</t>
         </is>
       </c>
       <c r="N52" t="n">
         <v>1</v>
+      </c>
+      <c r="O52" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -3549,12 +3705,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>R03023976</t>
+          <t>F89030071</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>adress53,53 6 - P  City53, (Province53) 60168</t>
+          <t>adress53,53 8 - C  City53, (Province53) 82703</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -3568,12 +3724,12 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>961168114</v>
+        <v>901601509</v>
       </c>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr">
         <is>
-          <t>O84.2 - Provision of services to the community as a whole</t>
+          <t>C28.1.3 - Manufacture of other pumps and compressors</t>
         </is>
       </c>
       <c r="I53" t="n">
@@ -3584,21 +3740,24 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Contact</t>
+          <t>Pool</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt; 10</t>
+          <t>50 - 250</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>2024-02-15</t>
+          <t>2024-01-13 19:00:00</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="O53" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -3609,12 +3768,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>E99705200</t>
+          <t>V08637565</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>adress54,54 6 - E  City54, (Province54) 09327</t>
+          <t>adress54,54 4 - B  City54, (Province54) 53998</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -3628,12 +3787,12 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>906602793</v>
+        <v>929966911</v>
       </c>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr">
         <is>
-          <t>J58.2.1 - Publishing of computer games</t>
+          <t>G46.2 - Wholesale of agricultural raw materials and live animals</t>
         </is>
       </c>
       <c r="I54" t="n">
@@ -3644,21 +3803,24 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Contact</t>
+          <t>Pool</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>10 - 50</t>
+          <t xml:space="preserve"> &gt; 250</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>2024-02-06</t>
+          <t>2024-01-14 05:00:00</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="O54" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -3669,12 +3831,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>N90317692</t>
+          <t>S10186475</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>adress55,55 2 - F  City55, (Province55) 02609</t>
+          <t>adress55,55 2 - H  City55, (Province55) 69363</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -3688,12 +3850,12 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>984279686</v>
+        <v>982733180</v>
       </c>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr">
         <is>
-          <t>A1.2.4 - Growing of pome fruits and stone fruits</t>
+          <t>J61.3 - Satellite telecommunications activities</t>
         </is>
       </c>
       <c r="I55" t="n">
@@ -3704,7 +3866,7 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Contact</t>
+          <t>Pool</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
@@ -3714,11 +3876,14 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>2024-02-05</t>
+          <t>2024-01-14 15:00:00</t>
         </is>
       </c>
       <c r="N55" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="O55" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -3729,12 +3894,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>G70373893</t>
+          <t>P55252146</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>adress56,56 7 - V  City56, (Province56) 86310</t>
+          <t>adress56,56 9 - C  City56, (Province56) 89706</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -3748,12 +3913,12 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>975759318</v>
+        <v>908640201</v>
       </c>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr">
         <is>
-          <t>I55.1.0 - Hotels and similar accommodation</t>
+          <t>C25.4.0 - Manufacture of weapons and ammunition</t>
         </is>
       </c>
       <c r="I56" t="n">
@@ -3769,16 +3934,19 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt; 10</t>
+          <t>50 - 250</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>2024-01-01</t>
+          <t>2024-01-14 16:00:00</t>
         </is>
       </c>
       <c r="N56" t="n">
         <v>1</v>
+      </c>
+      <c r="O56" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -3789,12 +3957,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>F74670454</t>
+          <t>G05556013</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>adress57,57 6 - U  City57, (Province57) 36333</t>
+          <t>adress57,57 10 - U  City57, (Province57) 40046</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -3808,12 +3976,12 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>910157843</v>
+        <v>980711853</v>
       </c>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr">
         <is>
-          <t>B8.1.2 - Operation of gravel and sand pits; mining of clays and kaolin</t>
+          <t>C21.2 - Manufacture of pharmaceutical preparations</t>
         </is>
       </c>
       <c r="I57" t="n">
@@ -3824,21 +3992,24 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Contact</t>
+          <t>Pool</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>50 - 250</t>
+          <t xml:space="preserve"> &lt; 10</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>2024-01-21</t>
+          <t>2024-01-15 03:00:00</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="O57" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -3849,12 +4020,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>U62275075</t>
+          <t>J47118020</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>adress58,58 20 - U  City58, (Province58) 20379</t>
+          <t>adress58,58 6 - B  City58, (Province58) 55624</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -3868,12 +4039,12 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>951249777</v>
+        <v>993007027</v>
       </c>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr">
         <is>
-          <t>C18.1.4 - Binding and related services</t>
+          <t>C17.2 - Manufacture of articles of paper and paperboard</t>
         </is>
       </c>
       <c r="I58" t="n">
@@ -3889,16 +4060,19 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>50 - 250</t>
+          <t xml:space="preserve"> &lt; 10</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>2024-03-27</t>
+          <t>2024-01-15 15:00:00</t>
         </is>
       </c>
       <c r="N58" t="n">
         <v>1</v>
+      </c>
+      <c r="O58" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -3909,12 +4083,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>E38010668</t>
+          <t>U14126257</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>adress59,59 6 - C  City59, (Province59) 91712</t>
+          <t>adress59,59 4 - S  City59, (Province59) 29147</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -3928,12 +4102,12 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>974200666</v>
+        <v>916211503</v>
       </c>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr">
         <is>
-          <t>J62 - Computer programming, consultancy and related activities</t>
+          <t>D35.1.4 - Trade of electricity</t>
         </is>
       </c>
       <c r="I59" t="n">
@@ -3949,16 +4123,19 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &gt; 250</t>
+          <t>10 - 50</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>2024-02-18</t>
+          <t>2024-01-15 23:00:00</t>
         </is>
       </c>
       <c r="N59" t="n">
         <v>1</v>
+      </c>
+      <c r="O59" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -3969,12 +4146,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Q86511328</t>
+          <t>B11136489</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>adress60,60 11 - G  City60, (Province60) 55113</t>
+          <t>adress60,60 17 - N  City60, (Province60) 18382</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -3988,12 +4165,12 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>965433950</v>
+        <v>936843151</v>
       </c>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr">
         <is>
-          <t>C20.1.6 - Manufacture of plastics in primary forms</t>
+          <t>H49.4 - Freight transport by road and removal services</t>
         </is>
       </c>
       <c r="I60" t="n">
@@ -4014,10 +4191,13 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>2024-01-08</t>
+          <t>2024-01-16 03:00:00</t>
         </is>
       </c>
       <c r="N60" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4029,12 +4209,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>N73395056</t>
+          <t>A05524527</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>adress61,61 2 - P  City61, (Province61) 41767</t>
+          <t>adress61,61 20 - B  City61, (Province61) 80513</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -4048,12 +4228,12 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>994449302</v>
+        <v>911447470</v>
       </c>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr">
         <is>
-          <t>F42.2.1 - Construction of utility projects for fluids</t>
+          <t>C33.1.3 - Repair of electronic and optical equipment</t>
         </is>
       </c>
       <c r="I61" t="n">
@@ -4074,11 +4254,14 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>2024-01-12</t>
+          <t>2024-01-16 05:00:00</t>
         </is>
       </c>
       <c r="N61" t="n">
         <v>1</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -4089,12 +4272,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>G13832564</t>
+          <t>G11726116</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>adress62,62 12 - R  City62, (Province62) 65133</t>
+          <t>adress62,62 16 - F  City62, (Province62) 16798</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -4108,12 +4291,12 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>968237831</v>
+        <v>935995418</v>
       </c>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr">
         <is>
-          <t>C23.6.5 - Manufacture of fibre cement</t>
+          <t>C33.1.2 - Repair of machinery</t>
         </is>
       </c>
       <c r="I62" t="n">
@@ -4134,11 +4317,14 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>2024-02-26</t>
+          <t>2024-01-16 11:00:00</t>
         </is>
       </c>
       <c r="N62" t="n">
         <v>1</v>
+      </c>
+      <c r="O62" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -4149,12 +4335,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>A51648593</t>
+          <t>P35365678</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>adress63,63 13 - Q  City63, (Province63) 64125</t>
+          <t>adress63,63 6 - C  City63, (Province63) 45877</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -4168,12 +4354,12 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>906211100</v>
+        <v>915393437</v>
       </c>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr">
         <is>
-          <t>C10.8.4 - Manufacture of condiments and seasonings</t>
+          <t>R91 - Libraries, archives, museums and other cultural activities</t>
         </is>
       </c>
       <c r="I63" t="n">
@@ -4189,16 +4375,19 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &gt; 250</t>
+          <t>50 - 250</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>2024-03-05</t>
+          <t>2024-01-16 16:00:00</t>
         </is>
       </c>
       <c r="N63" t="n">
         <v>1</v>
+      </c>
+      <c r="O63" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -4209,12 +4398,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>A59018049</t>
+          <t>B08441854</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>adress64,64 12 - H  City64, (Province64) 39624</t>
+          <t>adress64,64 17 - E  City64, (Province64) 81458</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -4228,12 +4417,12 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>936991448</v>
+        <v>954385916</v>
       </c>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr">
         <is>
-          <t>G46.1.1 - Agents involved in the sale of agricultural raw materials, live animals, textile raw materials and semi-finished goods</t>
+          <t>R93.1.9 - Other sports activities</t>
         </is>
       </c>
       <c r="I64" t="n">
@@ -4244,21 +4433,24 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Contact</t>
+          <t>Pool</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &gt; 250</t>
+          <t xml:space="preserve"> &lt; 10</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>2024-01-21</t>
+          <t>2024-01-17 04:00:00</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="O64" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -4269,12 +4461,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>P60399761</t>
+          <t>E57386095</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>adress65,65 4 - S  City65, (Province65) 28850</t>
+          <t>adress65,65 13 - C  City65, (Province65) 34897</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -4288,12 +4480,12 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>946720235</v>
+        <v>993479760</v>
       </c>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr">
         <is>
-          <t>C16.2.9 - Manufacture of other products of wood; manufacture of articles of cork, straw and plaiting materials</t>
+          <t>C14.1.4 - Manufacture of underwear</t>
         </is>
       </c>
       <c r="I65" t="n">
@@ -4309,15 +4501,18 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>50 - 250</t>
+          <t xml:space="preserve"> &gt; 250</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>2024-01-02</t>
+          <t>2024-01-17 10:00:00</t>
         </is>
       </c>
       <c r="N65" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4329,12 +4524,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>N63809975</t>
+          <t>U50590699</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>adress66,66 13 - B  City66, (Province66) 57144</t>
+          <t>adress66,66 17 - W  City66, (Province66) 99924</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -4348,12 +4543,12 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>960667644</v>
+        <v>958718259</v>
       </c>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr">
         <is>
-          <t>C12.0.0 - Manufacture of tobacco products</t>
+          <t>C28.2 - Manufacture of other general-purpose machinery</t>
         </is>
       </c>
       <c r="I66" t="n">
@@ -4364,20 +4559,23 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Pool</t>
+          <t>Contact</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>50 - 250</t>
+          <t xml:space="preserve"> &lt; 10</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>2024-01-25</t>
+          <t>2024-01-17 13:00:00</t>
         </is>
       </c>
       <c r="N66" t="n">
+        <v>1</v>
+      </c>
+      <c r="O66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4389,12 +4587,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>J50070173</t>
+          <t>W38752346</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>adress67,67 20 - S  City67, (Province67) 92550</t>
+          <t>adress67,67 11 - V  City67, (Province67) 57579</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -4408,12 +4606,12 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>991326732</v>
+        <v>964852262</v>
       </c>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr">
         <is>
-          <t>N82.3 - Organisation of conventions and trade shows</t>
+          <t>C33.2.0 - Installation of industrial machinery and equipment</t>
         </is>
       </c>
       <c r="I67" t="n">
@@ -4429,15 +4627,18 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>10 - 50</t>
+          <t>50 - 250</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>2024-02-19</t>
+          <t>2024-01-17 14:00:00</t>
         </is>
       </c>
       <c r="N67" t="n">
+        <v>0</v>
+      </c>
+      <c r="O67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4449,12 +4650,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>B98221410</t>
+          <t>N94980805</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>adress68,68 15 - H  City68, (Province68) 28617</t>
+          <t>adress68,68 20 - F  City68, (Province68) 80787</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -4468,12 +4669,12 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>933244211</v>
+        <v>936379256</v>
       </c>
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr">
         <is>
-          <t>C22.2.1 - Manufacture of plastic plates, sheets, tubes and profiles</t>
+          <t>S - Other services activities</t>
         </is>
       </c>
       <c r="I68" t="n">
@@ -4484,20 +4685,23 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Pool</t>
+          <t>Contact</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &gt; 250</t>
+          <t xml:space="preserve"> &lt; 10</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>2024-02-22</t>
+          <t>2024-01-17 17:00:00</t>
         </is>
       </c>
       <c r="N68" t="n">
+        <v>1</v>
+      </c>
+      <c r="O68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4509,12 +4713,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>H18715949</t>
+          <t>C45852737</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>adress69,69 13 - C  City69, (Province69) 46623</t>
+          <t>adress69,69 1 - Q  City69, (Province69) 77059</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -4528,12 +4732,12 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>967132401</v>
+        <v>947442755</v>
       </c>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr">
         <is>
-          <t>E39.0.0 - Remediation activities and other waste management services</t>
+          <t>D - Electricity, gas, steam and air conditioning supply</t>
         </is>
       </c>
       <c r="I69" t="n">
@@ -4544,21 +4748,24 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Contact</t>
+          <t>Pool</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>10 - 50</t>
+          <t>50 - 250</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>2024-02-10</t>
+          <t>2024-01-17 18:00:00</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="O69" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -4569,12 +4776,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>R58459119</t>
+          <t>H71261028</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>adress70,70 15 - F  City70, (Province70) 78178</t>
+          <t>adress70,70 5 - H  City70, (Province70) 78184</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -4588,12 +4795,12 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>990104892</v>
+        <v>975232551</v>
       </c>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Q87.2 - Residential care activities for mental retardation, mental health and substance abuse</t>
+          <t>H51.1.0 - Passenger air transport</t>
         </is>
       </c>
       <c r="I70" t="n">
@@ -4604,20 +4811,23 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Pool</t>
+          <t>Contact</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &gt; 250</t>
+          <t>10 - 50</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>2024-03-14</t>
+          <t>2024-01-18 05:00:00</t>
         </is>
       </c>
       <c r="N70" t="n">
+        <v>1</v>
+      </c>
+      <c r="O70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4629,12 +4839,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>N98089245</t>
+          <t>Q48350570</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>adress71,71 19 - P  City71, (Province71) 00001</t>
+          <t>adress71,71 17 - F  City71, (Province71) 60701</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -4648,12 +4858,12 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>922995579</v>
+        <v>935541610</v>
       </c>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr">
         <is>
-          <t>M72.1.9 - Other research and experimental development on natural sciences and engineering</t>
+          <t>J63.1 - Data processing, hosting and related activities; web portals</t>
         </is>
       </c>
       <c r="I71" t="n">
@@ -4669,15 +4879,18 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>50 - 250</t>
+          <t xml:space="preserve"> &lt; 10</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>2024-01-02</t>
+          <t>2024-01-18 09:00:00</t>
         </is>
       </c>
       <c r="N71" t="n">
+        <v>0</v>
+      </c>
+      <c r="O71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4689,12 +4902,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>B74637050</t>
+          <t>J55382534</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>adress72,72 12 - W  City72, (Province72) 53471</t>
+          <t>adress72,72 14 - H  City72, (Province72) 84444</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -4708,12 +4921,12 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>935928042</v>
+        <v>988857805</v>
       </c>
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr">
         <is>
-          <t>K66 - Activities auxiliary to financial services and insurance activities</t>
+          <t>G46.4.1 - Wholesale of textiles</t>
         </is>
       </c>
       <c r="I72" t="n">
@@ -4724,21 +4937,24 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Contact</t>
+          <t>Pool</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>50 - 250</t>
+          <t xml:space="preserve"> &gt; 250</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>2024-03-05</t>
+          <t>2024-01-18 10:00:00</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="O72" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -4749,12 +4965,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>S88738568</t>
+          <t>V84473798</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>adress73,73 3 - G  City73, (Province73) 19601</t>
+          <t>adress73,73 15 - G  City73, (Province73) 83649</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -4768,12 +4984,12 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>927419227</v>
+        <v>935691326</v>
       </c>
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr">
         <is>
-          <t>K64 - Financial service activities, except insurance and pension funding</t>
+          <t>C26.4 - Manufacture of consumer electronics</t>
         </is>
       </c>
       <c r="I73" t="n">
@@ -4784,7 +5000,7 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Contact</t>
+          <t>Pool</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
@@ -4794,11 +5010,14 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>2024-01-18</t>
+          <t>2024-01-18 12:00:00</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="O73" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -4809,12 +5028,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>V57057268</t>
+          <t>Q29405020</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>adress74,74 1 - P  City74, (Province74) 14613</t>
+          <t>adress74,74 1 - W  City74, (Province74) 51598</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -4828,12 +5047,12 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>934824480</v>
+        <v>991416292</v>
       </c>
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr">
         <is>
-          <t>C14.1 - Manufacture of wearing apparel, except fur apparel</t>
+          <t>U99.0.0 - Activities of extraterritorial organisations and bodies</t>
         </is>
       </c>
       <c r="I74" t="n">
@@ -4849,16 +5068,19 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>50 - 250</t>
+          <t xml:space="preserve"> &lt; 10</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>2024-02-01</t>
+          <t>2024-01-18 22:00:00</t>
         </is>
       </c>
       <c r="N74" t="n">
         <v>1</v>
+      </c>
+      <c r="O74" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -4869,12 +5091,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>S05425353</t>
+          <t>C15186682</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>adress75,75 5 - B  City75, (Province75) 45081</t>
+          <t>adress75,75 4 - U  City75, (Province75) 61911</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -4888,12 +5110,12 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>976380604</v>
+        <v>993882994</v>
       </c>
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr">
         <is>
-          <t>C33.2.0 - Installation of industrial machinery and equipment</t>
+          <t>C20.5.2 - Manufacture of glues</t>
         </is>
       </c>
       <c r="I75" t="n">
@@ -4914,11 +5136,14 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>2024-02-23</t>
+          <t>2024-01-19 02:00:00</t>
         </is>
       </c>
       <c r="N75" t="n">
         <v>1</v>
+      </c>
+      <c r="O75" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -4929,12 +5154,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>S08512979</t>
+          <t>V58037216</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>adress76,76 8 - A  City76, (Province76) 33119</t>
+          <t>adress76,76 1 - C  City76, (Province76) 92754</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -4948,12 +5173,12 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>926128326</v>
+        <v>949646818</v>
       </c>
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr">
         <is>
-          <t>U99.0 - Activities of extraterritorial organisations and bodies</t>
+          <t>C24.5.1 - Casting of iron</t>
         </is>
       </c>
       <c r="I76" t="n">
@@ -4969,15 +5194,18 @@
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>50 - 250</t>
+          <t>10 - 50</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>2024-01-22</t>
+          <t>2024-01-19 10:00:00</t>
         </is>
       </c>
       <c r="N76" t="n">
+        <v>0</v>
+      </c>
+      <c r="O76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4989,12 +5217,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>W07510145</t>
+          <t>A51414534</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>adress77,77 12 - Q  City77, (Province77) 07535</t>
+          <t>adress77,77 20 - C  City77, (Province77) 78523</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -5008,12 +5236,12 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>931881111</v>
+        <v>999595303</v>
       </c>
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr">
         <is>
-          <t>J62.0 - Computer programming, consultancy and related activities</t>
+          <t>C11.0 - Manufacture of beverages</t>
         </is>
       </c>
       <c r="I77" t="n">
@@ -5034,11 +5262,14 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>2024-03-03</t>
+          <t>2024-01-19 19:00:00</t>
         </is>
       </c>
       <c r="N77" t="n">
         <v>1</v>
+      </c>
+      <c r="O77" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -5049,12 +5280,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>H46240725</t>
+          <t>R15038653</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>adress78,78 4 - S  City78, (Province78) 02253</t>
+          <t>adress78,78 19 - A  City78, (Province78) 45011</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -5068,12 +5299,12 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>945634646</v>
+        <v>908148349</v>
       </c>
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr">
         <is>
-          <t>J58.2 - Software publishing</t>
+          <t>R91 - Libraries, archives, museums and other cultural activities</t>
         </is>
       </c>
       <c r="I78" t="n">
@@ -5084,7 +5315,7 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Pool</t>
+          <t>Contact</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
@@ -5094,10 +5325,13 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>2024-03-22</t>
+          <t>2024-01-19 20:00:00</t>
         </is>
       </c>
       <c r="N78" t="n">
+        <v>1</v>
+      </c>
+      <c r="O78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5109,12 +5343,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>B16317066</t>
+          <t>C81333639</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>adress79,79 5 - H  City79, (Province79) 76392</t>
+          <t>adress79,79 18 - N  City79, (Province79) 84534</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -5128,12 +5362,12 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>960103743</v>
+        <v>946140690</v>
       </c>
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr">
         <is>
-          <t>G45.2 - Maintenance and repair of motor vehicles</t>
+          <t>J59.1.4 - Motion picture projection activities</t>
         </is>
       </c>
       <c r="I79" t="n">
@@ -5149,15 +5383,18 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>10 - 50</t>
+          <t xml:space="preserve"> &lt; 10</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>2024-02-27</t>
+          <t>2024-01-19 23:00:00</t>
         </is>
       </c>
       <c r="N79" t="n">
+        <v>0</v>
+      </c>
+      <c r="O79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5169,12 +5406,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>V34461020</t>
+          <t>J96933449</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>adress80,80 11 - E  City80, (Province80) 31135</t>
+          <t>adress80,80 18 - B  City80, (Province80) 32311</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -5188,12 +5425,12 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>918808017</v>
+        <v>954017511</v>
       </c>
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr">
         <is>
-          <t>C26.2.0 - Manufacture of computers and peripheral equipment</t>
+          <t>C33.1.5 - Repair and maintenance of ships and boats</t>
         </is>
       </c>
       <c r="I80" t="n">
@@ -5214,10 +5451,13 @@
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>2024-02-17</t>
+          <t>2024-01-20 08:00:00</t>
         </is>
       </c>
       <c r="N80" t="n">
+        <v>0</v>
+      </c>
+      <c r="O80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5229,12 +5469,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Q78957504</t>
+          <t>B78358972</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>adress81,81 8 - V  City81, (Province81) 74673</t>
+          <t>adress81,81 7 - B  City81, (Province81) 51118</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -5248,12 +5488,12 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>923899381</v>
+        <v>904134969</v>
       </c>
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr">
         <is>
-          <t>A1.2.1 - Growing of grapes</t>
+          <t>O84.2 - Provision of services to the community as a whole</t>
         </is>
       </c>
       <c r="I81" t="n">
@@ -5264,7 +5504,7 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Pool</t>
+          <t>Contact</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
@@ -5274,10 +5514,13 @@
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>2024-01-01</t>
+          <t>2024-01-20 11:00:00</t>
         </is>
       </c>
       <c r="N81" t="n">
+        <v>1</v>
+      </c>
+      <c r="O81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5289,12 +5532,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>W01971091</t>
+          <t>H78958455</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>adress82,82 16 - N  City82, (Province82) 44447</t>
+          <t>adress82,82 4 - F  City82, (Province82) 18108</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -5308,12 +5551,12 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>956821104</v>
+        <v>979212732</v>
       </c>
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr">
         <is>
-          <t>H49.3.2 - Taxi operation</t>
+          <t>C23.1.2 - Shaping and processing of flat glass</t>
         </is>
       </c>
       <c r="I82" t="n">
@@ -5329,15 +5572,18 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt; 10</t>
+          <t xml:space="preserve"> &gt; 250</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>2024-01-14</t>
+          <t>2024-01-20 13:00:00</t>
         </is>
       </c>
       <c r="N82" t="n">
+        <v>0</v>
+      </c>
+      <c r="O82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5349,12 +5595,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>F69555804</t>
+          <t>C29005430</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>adress83,83 16 - C  City83, (Province83) 15870</t>
+          <t>adress83,83 15 - R  City83, (Province83) 08104</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -5368,12 +5614,12 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>919180219</v>
+        <v>965764022</v>
       </c>
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr">
         <is>
-          <t>C26 - Manufacture of computer, electronic and optical products</t>
+          <t>C20.5.3 - Manufacture of essential oils</t>
         </is>
       </c>
       <c r="I83" t="n">
@@ -5384,20 +5630,23 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Pool</t>
+          <t>Contact</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &gt; 250</t>
+          <t>50 - 250</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>2024-01-02</t>
+          <t>2024-01-21 01:00:00</t>
         </is>
       </c>
       <c r="N83" t="n">
+        <v>1</v>
+      </c>
+      <c r="O83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5409,12 +5658,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>J34561455</t>
+          <t>R78342158</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>adress84,84 9 - U  City84, (Province84) 07715</t>
+          <t>adress84,84 19 - E  City84, (Province84) 28843</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -5428,12 +5677,12 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>900049833</v>
+        <v>976909742</v>
       </c>
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr">
         <is>
-          <t>M70 - Activities of head offices; management consultancy activities</t>
+          <t>C20.5.2 - Manufacture of glues</t>
         </is>
       </c>
       <c r="I84" t="n">
@@ -5449,16 +5698,19 @@
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &gt; 250</t>
+          <t>50 - 250</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>2024-03-17</t>
+          <t>2024-01-21 04:00:00</t>
         </is>
       </c>
       <c r="N84" t="n">
         <v>1</v>
+      </c>
+      <c r="O84" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -5469,12 +5721,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>E39087103</t>
+          <t>V67694622</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>adress85,85 7 - W  City85, (Province85) 43198</t>
+          <t>adress85,85 12 - B  City85, (Province85) 98919</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -5488,12 +5740,12 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>900720633</v>
+        <v>928769067</v>
       </c>
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr">
         <is>
-          <t>M72.1.1 - Research and experimental development on biotechnology</t>
+          <t>J59.1 - Motion picture, video and television programme activities</t>
         </is>
       </c>
       <c r="I85" t="n">
@@ -5509,15 +5761,18 @@
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>50 - 250</t>
+          <t xml:space="preserve"> &lt; 10</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>2024-03-19</t>
+          <t>2024-01-21 05:00:00</t>
         </is>
       </c>
       <c r="N85" t="n">
+        <v>0</v>
+      </c>
+      <c r="O85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5529,12 +5784,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Q91821166</t>
+          <t>P56524938</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>adress86,86 7 - W  City86, (Province86) 77585</t>
+          <t>adress86,86 15 - F  City86, (Province86) 29568</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -5548,12 +5803,12 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>960400380</v>
+        <v>947536487</v>
       </c>
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr">
         <is>
-          <t>P85.4.2 - Tertiary education</t>
+          <t>C22.1 - Manufacture of rubber products</t>
         </is>
       </c>
       <c r="I86" t="n">
@@ -5564,20 +5819,23 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Pool</t>
+          <t>Contact</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &gt; 250</t>
+          <t xml:space="preserve"> &lt; 10</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>2024-02-22</t>
+          <t>2024-01-21 13:00:00</t>
         </is>
       </c>
       <c r="N86" t="n">
+        <v>1</v>
+      </c>
+      <c r="O86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5589,12 +5847,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>U00052536</t>
+          <t>N66365975</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>adress87,87 9 - S  City87, (Province87) 62183</t>
+          <t>adress87,87 6 - C  City87, (Province87) 57038</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -5608,12 +5866,12 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>953448926</v>
+        <v>914438618</v>
       </c>
       <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr">
         <is>
-          <t>C20.6.0 - Manufacture of man-made fibres</t>
+          <t>J59.2.0 - Sound recording and music publishing activities</t>
         </is>
       </c>
       <c r="I87" t="n">
@@ -5629,15 +5887,18 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>10 - 50</t>
+          <t xml:space="preserve"> &gt; 250</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>2024-01-11</t>
+          <t>2024-01-22 00:00:00</t>
         </is>
       </c>
       <c r="N87" t="n">
+        <v>0</v>
+      </c>
+      <c r="O87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5649,12 +5910,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Q31626189</t>
+          <t>A14659385</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>adress88,88 6 - Q  City88, (Province88) 83415</t>
+          <t>adress88,88 13 - U  City88, (Province88) 36740</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -5668,12 +5929,12 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>907952207</v>
+        <v>916746103</v>
       </c>
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr">
         <is>
-          <t>C24.4 - Manufacture of basic precious and other non-ferrous metals</t>
+          <t>C33.2.0 - Installation of industrial machinery and equipment</t>
         </is>
       </c>
       <c r="I88" t="n">
@@ -5684,20 +5945,23 @@
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>Pool</t>
+          <t>Contact</t>
         </is>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>50 - 250</t>
+          <t>10 - 50</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>2024-01-27</t>
+          <t>2024-01-22 05:00:00</t>
         </is>
       </c>
       <c r="N88" t="n">
+        <v>1</v>
+      </c>
+      <c r="O88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5709,12 +5973,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>A60663923</t>
+          <t>V02261350</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>adress89,89 2 - W  City89, (Province89) 96103</t>
+          <t>adress89,89 5 - A  City89, (Province89) 45392</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -5728,12 +5992,12 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>937780607</v>
+        <v>957933447</v>
       </c>
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr">
         <is>
-          <t>C29.2 - Manufacture of bodies (coachwork) for motor vehicles; manufacture of trailers and semi-trailers</t>
+          <t>H53.1.0 - Postal activities under universal service obligation</t>
         </is>
       </c>
       <c r="I89" t="n">
@@ -5744,21 +6008,24 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>Contact</t>
+          <t>Pool</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>10 - 50</t>
+          <t>50 - 250</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>2024-03-09</t>
+          <t>2024-01-22 11:00:00</t>
         </is>
       </c>
       <c r="N89" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="O89" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -5769,12 +6036,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>U74582358</t>
+          <t>F37047531</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>adress90,90 9 - R  City90, (Province90) 92698</t>
+          <t>adress90,90 1 - B  City90, (Province90) 34377</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -5788,12 +6055,12 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>978936918</v>
+        <v>917685876</v>
       </c>
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr">
         <is>
-          <t>N80.3 - Investigation activities</t>
+          <t>K66 - Activities auxiliary to financial services and insurance activities</t>
         </is>
       </c>
       <c r="I90" t="n">
@@ -5809,16 +6076,19 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>50 - 250</t>
+          <t>10 - 50</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>2024-03-24</t>
+          <t>2024-01-22 14:00:00</t>
         </is>
       </c>
       <c r="N90" t="n">
         <v>1</v>
+      </c>
+      <c r="O90" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -5829,12 +6099,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>B07205016</t>
+          <t>H21217774</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>adress91,91 9 - P  City91, (Province91) 34025</t>
+          <t>adress91,91 20 - V  City91, (Province91) 14168</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -5848,12 +6118,12 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>941427690</v>
+        <v>962145433</v>
       </c>
       <c r="G91" t="inlineStr"/>
       <c r="H91" t="inlineStr">
         <is>
-          <t>B7 - Mining of metal ores</t>
+          <t>N77.3.5 - Renting and leasing of air transport equipment</t>
         </is>
       </c>
       <c r="I91" t="n">
@@ -5864,20 +6134,23 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>Pool</t>
+          <t>Contact</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt; 10</t>
+          <t xml:space="preserve"> &gt; 250</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>2024-02-04</t>
+          <t>2024-01-22 22:00:00</t>
         </is>
       </c>
       <c r="N91" t="n">
+        <v>1</v>
+      </c>
+      <c r="O91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5889,12 +6162,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Q84506368</t>
+          <t>S65483406</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>adress92,92 7 - G  City92, (Province92) 73950</t>
+          <t>adress92,92 3 - G  City92, (Province92) 85608</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -5908,12 +6181,12 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>914742389</v>
+        <v>986809442</v>
       </c>
       <c r="G92" t="inlineStr"/>
       <c r="H92" t="inlineStr">
         <is>
-          <t>C22.2.2 - Manufacture of plastic packing goods</t>
+          <t>M74.3.0 - Translation and interpretation activities</t>
         </is>
       </c>
       <c r="I92" t="n">
@@ -5929,16 +6202,19 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>10 - 50</t>
+          <t xml:space="preserve"> &gt; 250</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>2024-02-22</t>
+          <t>2024-01-23 02:00:00</t>
         </is>
       </c>
       <c r="N92" t="n">
         <v>1</v>
+      </c>
+      <c r="O92" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -5949,12 +6225,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>B54687002</t>
+          <t>U58210747</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>adress93,93 8 - G  City93, (Province93) 15083</t>
+          <t>adress93,93 8 - B  City93, (Province93) 26424</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -5968,12 +6244,12 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>908426305</v>
+        <v>903786175</v>
       </c>
       <c r="G93" t="inlineStr"/>
       <c r="H93" t="inlineStr">
         <is>
-          <t>J61.3 - Satellite telecommunications activities</t>
+          <t>G46.1.9 - Agents involved in the sale of a variety of goods</t>
         </is>
       </c>
       <c r="I93" t="n">
@@ -5984,7 +6260,7 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>Pool</t>
+          <t>Contact</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
@@ -5994,10 +6270,13 @@
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>2024-03-29</t>
+          <t>2024-01-23 10:00:00</t>
         </is>
       </c>
       <c r="N93" t="n">
+        <v>1</v>
+      </c>
+      <c r="O93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6009,12 +6288,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>H91422243</t>
+          <t>A85059596</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>adress94,94 18 - B  City94, (Province94) 93453</t>
+          <t>adress94,94 19 - J  City94, (Province94) 44365</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -6028,12 +6307,12 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>991272552</v>
+        <v>954832023</v>
       </c>
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr">
         <is>
-          <t>H - Transporting and storage</t>
+          <t>B7 - Mining of metal ores</t>
         </is>
       </c>
       <c r="I94" t="n">
@@ -6049,16 +6328,19 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>10 - 50</t>
+          <t>50 - 250</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>2024-02-13</t>
+          <t>2024-01-23 12:00:00</t>
         </is>
       </c>
       <c r="N94" t="n">
         <v>1</v>
+      </c>
+      <c r="O94" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -6069,12 +6351,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>C86181227</t>
+          <t>E55096077</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>adress95,95 20 - P  City95, (Province95) 10679</t>
+          <t>adress95,95 2 - W  City95, (Province95) 39308</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -6088,12 +6370,12 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>999171422</v>
+        <v>989278062</v>
       </c>
       <c r="G95" t="inlineStr"/>
       <c r="H95" t="inlineStr">
         <is>
-          <t>C27.2 - Manufacture of batteries and accumulators</t>
+          <t>F42.2.1 - Construction of utility projects for fluids</t>
         </is>
       </c>
       <c r="I95" t="n">
@@ -6114,10 +6396,13 @@
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>2024-02-04</t>
+          <t>2024-01-23 16:00:00</t>
         </is>
       </c>
       <c r="N95" t="n">
+        <v>0</v>
+      </c>
+      <c r="O95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6129,12 +6414,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>S12214205</t>
+          <t>J80128062</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>adress96,96 14 - H  City96, (Province96) 58340</t>
+          <t>adress96,96 13 - V  City96, (Province96) 44016</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -6148,12 +6433,12 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>949292049</v>
+        <v>921893358</v>
       </c>
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr">
         <is>
-          <t>A2.2 - Logging</t>
+          <t>C30.2.0 - Manufacture of railway locomotives and rolling stock</t>
         </is>
       </c>
       <c r="I96" t="n">
@@ -6169,16 +6454,19 @@
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt; 10</t>
+          <t xml:space="preserve"> &gt; 250</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>2024-01-05</t>
+          <t>2024-01-23 19:00:00</t>
         </is>
       </c>
       <c r="N96" t="n">
         <v>1</v>
+      </c>
+      <c r="O96" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -6189,12 +6477,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>N44779488</t>
+          <t>H28423386</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>adress97,97 15 - A  City97, (Province97) 47184</t>
+          <t>adress97,97 6 - F  City97, (Province97) 16449</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -6208,12 +6496,12 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>987033166</v>
+        <v>952835675</v>
       </c>
       <c r="G97" t="inlineStr"/>
       <c r="H97" t="inlineStr">
         <is>
-          <t>C27.3.2 - Manufacture of other electronic and electric wires and cables</t>
+          <t>N80.1 - Private security activities</t>
         </is>
       </c>
       <c r="I97" t="n">
@@ -6224,21 +6512,24 @@
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>Contact</t>
+          <t>Pool</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>50 - 250</t>
+          <t xml:space="preserve"> &lt; 10</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>2024-02-14</t>
+          <t>2024-01-24 00:00:00</t>
         </is>
       </c>
       <c r="N97" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="O97" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -6249,12 +6540,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>S91553294</t>
+          <t>E51088668</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>adress98,98 3 - V  City98, (Province98) 18107</t>
+          <t>adress98,98 14 - E  City98, (Province98) 24729</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -6268,12 +6559,12 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>992934735</v>
+        <v>927203886</v>
       </c>
       <c r="G98" t="inlineStr"/>
       <c r="H98" t="inlineStr">
         <is>
-          <t>H - Transporting and storage</t>
+          <t>R91 - Libraries, archives, museums and other cultural activities</t>
         </is>
       </c>
       <c r="I98" t="n">
@@ -6289,16 +6580,19 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &gt; 250</t>
+          <t xml:space="preserve"> &lt; 10</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>2024-01-01</t>
+          <t>2024-01-24 08:00:00</t>
         </is>
       </c>
       <c r="N98" t="n">
         <v>1</v>
+      </c>
+      <c r="O98" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -6309,12 +6603,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>S26712678</t>
+          <t>R89807303</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>adress99,99 4 - R  City99, (Province99) 36506</t>
+          <t>adress99,99 2 - C  City99, (Province99) 71999</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -6328,12 +6622,12 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>975442642</v>
+        <v>922305358</v>
       </c>
       <c r="G99" t="inlineStr"/>
       <c r="H99" t="inlineStr">
         <is>
-          <t>C23.7 - Cutting, shaping and finishing of stone</t>
+          <t>N77.1 - Renting and leasing of motor vehicles</t>
         </is>
       </c>
       <c r="I99" t="n">
@@ -6349,15 +6643,18 @@
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>10 - 50</t>
+          <t>50 - 250</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>2024-03-30</t>
+          <t>2024-01-24 15:00:00</t>
         </is>
       </c>
       <c r="N99" t="n">
+        <v>0</v>
+      </c>
+      <c r="O99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6369,12 +6666,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>H19480075</t>
+          <t>J87309862</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>adress100,100 6 - P  City100, (Province100) 70151</t>
+          <t>adress100,100 20 - A  City100, (Province100) 40668</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -6388,12 +6685,12 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>961382653</v>
+        <v>902742182</v>
       </c>
       <c r="G100" t="inlineStr"/>
       <c r="H100" t="inlineStr">
         <is>
-          <t>C23.6 - Manufacture of articles of concrete, cement and plaster</t>
+          <t>C27.5.2 - Manufacture of non-electric domestic appliances</t>
         </is>
       </c>
       <c r="I100" t="n">
@@ -6404,7 +6701,7 @@
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>Pool</t>
+          <t>Contact</t>
         </is>
       </c>
       <c r="L100" t="inlineStr">
@@ -6414,10 +6711,13 @@
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>2024-03-18</t>
+          <t>2024-01-25 01:00:00</t>
         </is>
       </c>
       <c r="N100" t="n">
+        <v>1</v>
+      </c>
+      <c r="O100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6429,12 +6729,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Q31589908</t>
+          <t>V85165153</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>adress101,101 6 - V  City101, (Province101) 05499</t>
+          <t>adress101,101 1 - A  City101, (Province101) 16496</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -6448,12 +6748,12 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>995075178</v>
+        <v>989087530</v>
       </c>
       <c r="G101" t="inlineStr"/>
       <c r="H101" t="inlineStr">
         <is>
-          <t>N82.2 - Activities of call centres</t>
+          <t>C27.3.3 - Manufacture of wiring devices</t>
         </is>
       </c>
       <c r="I101" t="n">
@@ -6469,15 +6769,18 @@
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt; 10</t>
+          <t xml:space="preserve"> &gt; 250</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>2024-03-24</t>
+          <t>2024-01-25 03:00:00</t>
         </is>
       </c>
       <c r="N101" t="n">
+        <v>0</v>
+      </c>
+      <c r="O101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6489,12 +6792,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>W49851250</t>
+          <t>Q39418205</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>adress102,102 18 - W  City102, (Province102) 19602</t>
+          <t>adress102,102 6 - S  City102, (Province102) 13651</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -6508,12 +6811,12 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>940503358</v>
+        <v>949353436</v>
       </c>
       <c r="G102" t="inlineStr"/>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Q87.2 - Residential care activities for mental retardation, mental health and substance abuse</t>
+          <t>G47.8 - Retail sale via stalls and markets</t>
         </is>
       </c>
       <c r="I102" t="n">
@@ -6524,20 +6827,23 @@
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>Pool</t>
+          <t>Contact</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t>10 - 50</t>
+          <t xml:space="preserve"> &gt; 250</t>
         </is>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>2024-03-16</t>
+          <t>2024-01-25 08:00:00</t>
         </is>
       </c>
       <c r="N102" t="n">
+        <v>1</v>
+      </c>
+      <c r="O102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6549,12 +6855,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>N08987231</t>
+          <t>R39603327</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>adress103,103 15 - N  City103, (Province103) 84230</t>
+          <t>adress103,103 19 - N  City103, (Province103) 55776</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -6568,12 +6874,12 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>936503101</v>
+        <v>917276320</v>
       </c>
       <c r="G103" t="inlineStr"/>
       <c r="H103" t="inlineStr">
         <is>
-          <t>T98 - Undifferentiated goods- and services-producing activities of private households for own use</t>
+          <t>J61.3.0 - Satellite telecommunications activities</t>
         </is>
       </c>
       <c r="I103" t="n">
@@ -6584,7 +6890,7 @@
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>Contact</t>
+          <t>Pool</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
@@ -6594,11 +6900,14 @@
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>2024-01-28</t>
+          <t>2024-01-25 10:00:00</t>
         </is>
       </c>
       <c r="N103" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="O103" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="104">
@@ -6609,12 +6918,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>G48609502</t>
+          <t>S37684390</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>adress104,104 17 - U  City104, (Province104) 32253</t>
+          <t>adress104,104 2 - W  City104, (Province104) 60110</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -6628,12 +6937,12 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>948866431</v>
+        <v>950915650</v>
       </c>
       <c r="G104" t="inlineStr"/>
       <c r="H104" t="inlineStr">
         <is>
-          <t>G47.3 - Retail sale of automotive fuel in specialised stores</t>
+          <t>K66.1.9 - Other activities auxiliary to financial services, except insurance and pension funding</t>
         </is>
       </c>
       <c r="I104" t="n">
@@ -6649,16 +6958,19 @@
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt; 10</t>
+          <t>10 - 50</t>
         </is>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>2024-02-11</t>
+          <t>2024-01-25 17:00:00</t>
         </is>
       </c>
       <c r="N104" t="n">
         <v>1</v>
+      </c>
+      <c r="O104" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -6669,12 +6981,12 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>A61389570</t>
+          <t>U15392088</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>adress105,105 19 - S  City105, (Province105) 14615</t>
+          <t>adress105,105 11 - J  City105, (Province105) 18256</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -6688,12 +7000,12 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>959080778</v>
+        <v>997169710</v>
       </c>
       <c r="G105" t="inlineStr"/>
       <c r="H105" t="inlineStr">
         <is>
-          <t>J61.2.0 - Wireless telecommunications activities</t>
+          <t>G46.1.9 - Agents involved in the sale of a variety of goods</t>
         </is>
       </c>
       <c r="I105" t="n">
@@ -6709,16 +7021,19 @@
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &gt; 250</t>
+          <t xml:space="preserve"> &lt; 10</t>
         </is>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>2024-02-16</t>
+          <t>2024-01-25 18:00:00</t>
         </is>
       </c>
       <c r="N105" t="n">
         <v>1</v>
+      </c>
+      <c r="O105" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="106">
@@ -6729,12 +7044,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>J81021575</t>
+          <t>E84943549</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>adress106,106 1 - V  City106, (Province106) 87204</t>
+          <t>adress106,106 1 - H  City106, (Province106) 37333</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -6748,12 +7063,12 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>976512195</v>
+        <v>914553492</v>
       </c>
       <c r="G106" t="inlineStr"/>
       <c r="H106" t="inlineStr">
         <is>
-          <t>K66.2 - Activities auxiliary to insurance and pension funding</t>
+          <t>C26.1 - Manufacture of electronic components and boards</t>
         </is>
       </c>
       <c r="I106" t="n">
@@ -6764,21 +7079,24 @@
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>Contact</t>
+          <t>Pool</t>
         </is>
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt; 10</t>
+          <t xml:space="preserve"> &gt; 250</t>
         </is>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>2024-03-01</t>
+          <t>2024-01-26 02:00:00</t>
         </is>
       </c>
       <c r="N106" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="O106" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="107">
@@ -6789,12 +7107,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>V33343367</t>
+          <t>E90909464</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>adress107,107 8 - C  City107, (Province107) 09906</t>
+          <t>adress107,107 7 - F  City107, (Province107) 25760</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -6808,12 +7126,12 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>941163183</v>
+        <v>938624811</v>
       </c>
       <c r="G107" t="inlineStr"/>
       <c r="H107" t="inlineStr">
         <is>
-          <t>C26.6.0 - Manufacture of irradiation, electromedical and electrotherapeutic equipment</t>
+          <t>R91.0.3 - Operation of historical sites and buildings and similar visitor attractions</t>
         </is>
       </c>
       <c r="I107" t="n">
@@ -6829,15 +7147,18 @@
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>10 - 50</t>
+          <t>50 - 250</t>
         </is>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>2024-03-17</t>
+          <t>2024-01-26 03:00:00</t>
         </is>
       </c>
       <c r="N107" t="n">
+        <v>0</v>
+      </c>
+      <c r="O107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6849,12 +7170,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>B17405910</t>
+          <t>B02801503</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>adress108,108 10 - E  City108, (Province108) 28667</t>
+          <t>adress108,108 5 - J  City108, (Province108) 28849</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -6868,12 +7189,12 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>974625882</v>
+        <v>911088800</v>
       </c>
       <c r="G108" t="inlineStr"/>
       <c r="H108" t="inlineStr">
         <is>
-          <t>K66.2.1 - Risk and damage evaluation</t>
+          <t>F - Construction</t>
         </is>
       </c>
       <c r="I108" t="n">
@@ -6894,10 +7215,13 @@
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>2024-01-12</t>
+          <t>2024-01-26 13:00:00</t>
         </is>
       </c>
       <c r="N108" t="n">
+        <v>0</v>
+      </c>
+      <c r="O108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6909,12 +7233,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>G61053237</t>
+          <t>G20708537</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>adress109,109 4 - G  City109, (Province109) 13116</t>
+          <t>adress109,109 5 - W  City109, (Province109) 33534</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -6928,12 +7252,12 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>968552860</v>
+        <v>967462609</v>
       </c>
       <c r="G109" t="inlineStr"/>
       <c r="H109" t="inlineStr">
         <is>
-          <t>C10.6.1 - Manufacture of grain mill products</t>
+          <t>B8.9.2 - Extraction of peat</t>
         </is>
       </c>
       <c r="I109" t="n">
@@ -6949,16 +7273,19 @@
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &gt; 250</t>
+          <t>10 - 50</t>
         </is>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>2024-03-01</t>
+          <t>2024-01-26 21:00:00</t>
         </is>
       </c>
       <c r="N109" t="n">
         <v>1</v>
+      </c>
+      <c r="O109" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="110">
@@ -6969,12 +7296,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>F13357742</t>
+          <t>F51735907</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>adress110,110 4 - Q  City110, (Province110) 55940</t>
+          <t>adress110,110 13 - U  City110, (Province110) 32223</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -6988,12 +7315,12 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>910836003</v>
+        <v>949737071</v>
       </c>
       <c r="G110" t="inlineStr"/>
       <c r="H110" t="inlineStr">
         <is>
-          <t>J58.1.9 - Other publishing activities</t>
+          <t>C23.6.2 - Manufacture of plaster products for construction purposes</t>
         </is>
       </c>
       <c r="I110" t="n">
@@ -7004,21 +7331,24 @@
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>Contact</t>
+          <t>Pool</t>
         </is>
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &gt; 250</t>
+          <t>10 - 50</t>
         </is>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>2024-01-05</t>
+          <t>2024-01-27 03:00:00</t>
         </is>
       </c>
       <c r="N110" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="O110" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="111">
@@ -7029,12 +7359,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>J73488932</t>
+          <t>E60540476</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>adress111,111 3 - B  City111, (Province111) 07772</t>
+          <t>adress111,111 15 - B  City111, (Province111) 01350</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -7048,12 +7378,12 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>949606216</v>
+        <v>907320385</v>
       </c>
       <c r="G111" t="inlineStr"/>
       <c r="H111" t="inlineStr">
         <is>
-          <t>C20.5.3 - Manufacture of essential oils</t>
+          <t>D35.1.3 - Distribution of electricity</t>
         </is>
       </c>
       <c r="I111" t="n">
@@ -7064,21 +7394,24 @@
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>Contact</t>
+          <t>Pool</t>
         </is>
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt; 10</t>
+          <t>50 - 250</t>
         </is>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>2024-02-17</t>
+          <t>2024-01-27 06:00:00</t>
         </is>
       </c>
       <c r="N111" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="O111" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="112">
@@ -7089,12 +7422,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>G47648881</t>
+          <t>Q03347328</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>adress112,112 8 - N  City112, (Province112) 57182</t>
+          <t>adress112,112 7 - J  City112, (Province112) 48187</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -7108,12 +7441,12 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>964499775</v>
+        <v>992188981</v>
       </c>
       <c r="G112" t="inlineStr"/>
       <c r="H112" t="inlineStr">
         <is>
-          <t>M73.2.0 - Market research and public opinion polling</t>
+          <t>Q87.9 - Other residential care activities</t>
         </is>
       </c>
       <c r="I112" t="n">
@@ -7129,15 +7462,18 @@
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>50 - 250</t>
+          <t>10 - 50</t>
         </is>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>2024-02-04</t>
+          <t>2024-01-27 10:00:00</t>
         </is>
       </c>
       <c r="N112" t="n">
+        <v>0</v>
+      </c>
+      <c r="O112" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7149,12 +7485,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>F16232752</t>
+          <t>N34180353</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>adress113,113 6 - H  City113, (Province113) 74635</t>
+          <t>adress113,113 14 - J  City113, (Province113) 19027</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -7168,12 +7504,12 @@
         </is>
       </c>
       <c r="F113" t="n">
-        <v>903453364</v>
+        <v>945643096</v>
       </c>
       <c r="G113" t="inlineStr"/>
       <c r="H113" t="inlineStr">
         <is>
-          <t>H50.4 - Inland freight water transport</t>
+          <t>G47.6 - Retail sale of cultural and recreation goods in specialised stores</t>
         </is>
       </c>
       <c r="I113" t="n">
@@ -7184,21 +7520,24 @@
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>Contact</t>
+          <t>Pool</t>
         </is>
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt; 10</t>
+          <t>50 - 250</t>
         </is>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>2024-03-26</t>
+          <t>2024-01-27 17:00:00</t>
         </is>
       </c>
       <c r="N113" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="O113" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="114">
@@ -7209,12 +7548,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>S43300655</t>
+          <t>R10442909</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>adress114,114 19 - H  City114, (Province114) 48011</t>
+          <t>adress114,114 6 - U  City114, (Province114) 43249</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -7228,12 +7567,12 @@
         </is>
       </c>
       <c r="F114" t="n">
-        <v>913594657</v>
+        <v>968746048</v>
       </c>
       <c r="G114" t="inlineStr"/>
       <c r="H114" t="inlineStr">
         <is>
-          <t>C30.3.0 - Manufacture of air and spacecraft and related machinery</t>
+          <t>G46.3.1 - Wholesale of fruit and vegetables</t>
         </is>
       </c>
       <c r="I114" t="n">
@@ -7249,15 +7588,18 @@
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &gt; 250</t>
+          <t xml:space="preserve"> &lt; 10</t>
         </is>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>2024-03-01</t>
+          <t>2024-01-27 20:00:00</t>
         </is>
       </c>
       <c r="N114" t="n">
+        <v>0</v>
+      </c>
+      <c r="O114" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7269,12 +7611,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>B79391870</t>
+          <t>S01481569</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>adress115,115 9 - B  City115, (Province115) 23971</t>
+          <t>adress115,115 13 - W  City115, (Province115) 00235</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -7288,12 +7630,12 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>983925274</v>
+        <v>925136235</v>
       </c>
       <c r="G115" t="inlineStr"/>
       <c r="H115" t="inlineStr">
         <is>
-          <t>A1.2.5 - Growing of other tree and bush fruits and nuts</t>
+          <t>A1.1.3 - Growing of vegetables and melons, roots and tubers</t>
         </is>
       </c>
       <c r="I115" t="n">
@@ -7304,7 +7646,7 @@
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>Contact</t>
+          <t>Pool</t>
         </is>
       </c>
       <c r="L115" t="inlineStr">
@@ -7314,11 +7656,14 @@
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>2024-03-20</t>
+          <t>2024-01-28 02:00:00</t>
         </is>
       </c>
       <c r="N115" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="O115" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="116">
@@ -7329,12 +7674,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>R34598154</t>
+          <t>A10024427</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>adress116,116 14 - B  City116, (Province116) 87139</t>
+          <t>adress116,116 19 - C  City116, (Province116) 76774</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -7348,12 +7693,12 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>935200138</v>
+        <v>951665970</v>
       </c>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr">
         <is>
-          <t>C30.1 - Building of ships and boats</t>
+          <t>N82 - Office administrative, office support and other business support activities</t>
         </is>
       </c>
       <c r="I116" t="n">
@@ -7369,16 +7714,19 @@
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &gt; 250</t>
+          <t>50 - 250</t>
         </is>
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>2024-01-16</t>
+          <t>2024-01-28 06:00:00</t>
         </is>
       </c>
       <c r="N116" t="n">
         <v>1</v>
+      </c>
+      <c r="O116" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="117">
@@ -7389,12 +7737,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>B29465171</t>
+          <t>Q46583914</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>adress117,117 1 - B  City117, (Province117) 15324</t>
+          <t>adress117,117 9 - C  City117, (Province117) 15856</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -7408,12 +7756,12 @@
         </is>
       </c>
       <c r="F117" t="n">
-        <v>963785761</v>
+        <v>960794894</v>
       </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr">
         <is>
-          <t>R - Arts, entertainment and recreation</t>
+          <t>A1.1.4 - Growing of sugar cane</t>
         </is>
       </c>
       <c r="I117" t="n">
@@ -7424,21 +7772,24 @@
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>Contact</t>
+          <t>Pool</t>
         </is>
       </c>
       <c r="L117" t="inlineStr">
         <is>
-          <t>10 - 50</t>
+          <t>50 - 250</t>
         </is>
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>2024-02-28</t>
+          <t>2024-01-28 13:00:00</t>
         </is>
       </c>
       <c r="N117" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="O117" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="118">
@@ -7449,12 +7800,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>A17694498</t>
+          <t>Q65943773</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>adress118,118 11 - H  City118, (Province118) 26735</t>
+          <t>adress118,118 1 - P  City118, (Province118) 43533</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -7468,12 +7819,12 @@
         </is>
       </c>
       <c r="F118" t="n">
-        <v>965356160</v>
+        <v>900591430</v>
       </c>
       <c r="G118" t="inlineStr"/>
       <c r="H118" t="inlineStr">
         <is>
-          <t>N77.1.2 - Renting and leasing of trucks</t>
+          <t>K65.3 - Pension funding</t>
         </is>
       </c>
       <c r="I118" t="n">
@@ -7484,21 +7835,24 @@
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>Contact</t>
+          <t>Pool</t>
         </is>
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>50 - 250</t>
+          <t>10 - 50</t>
         </is>
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>2024-01-15</t>
+          <t>2024-01-28 14:00:00</t>
         </is>
       </c>
       <c r="N118" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="O118" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="119">
@@ -7509,12 +7863,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>F51920828</t>
+          <t>V51590436</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>adress119,119 3 - A  City119, (Province119) 27774</t>
+          <t>adress119,119 8 - F  City119, (Province119) 24875</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -7528,12 +7882,12 @@
         </is>
       </c>
       <c r="F119" t="n">
-        <v>924466444</v>
+        <v>923502345</v>
       </c>
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>C20.5.1 - Manufacture of explosives</t>
+          <t>M74.3.0 - Translation and interpretation activities</t>
         </is>
       </c>
       <c r="I119" t="n">
@@ -7554,10 +7908,13 @@
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>2024-02-12</t>
+          <t>2024-01-29 00:00:00</t>
         </is>
       </c>
       <c r="N119" t="n">
+        <v>0</v>
+      </c>
+      <c r="O119" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7569,12 +7926,12 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>H11003379</t>
+          <t>V10185090</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>adress120,120 8 - U  City120, (Province120) 33099</t>
+          <t>adress120,120 16 - U  City120, (Province120) 52348</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -7588,12 +7945,12 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>908328192</v>
+        <v>910721933</v>
       </c>
       <c r="G120" t="inlineStr"/>
       <c r="H120" t="inlineStr">
         <is>
-          <t>G45.2.0 - Maintenance and repair of motor vehicles</t>
+          <t>N78.1.0 - Activities of employment placement agencies</t>
         </is>
       </c>
       <c r="I120" t="n">
@@ -7604,20 +7961,23 @@
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>Pool</t>
+          <t>Contact</t>
         </is>
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>10 - 50</t>
+          <t>50 - 250</t>
         </is>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>2024-01-15</t>
+          <t>2024-01-29 02:00:00</t>
         </is>
       </c>
       <c r="N120" t="n">
+        <v>1</v>
+      </c>
+      <c r="O120" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7629,12 +7989,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>R87698626</t>
+          <t>C38486349</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>adress121,121 18 - B  City121, (Province121) 72987</t>
+          <t>adress121,121 7 - U  City121, (Province121) 73544</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -7648,12 +8008,12 @@
         </is>
       </c>
       <c r="F121" t="n">
-        <v>953918102</v>
+        <v>973631224</v>
       </c>
       <c r="G121" t="inlineStr"/>
       <c r="H121" t="inlineStr">
         <is>
-          <t>C23.6.1 - Manufacture of concrete products for construction purposes</t>
+          <t>F42 - Civil engineering</t>
         </is>
       </c>
       <c r="I121" t="n">
@@ -7669,16 +8029,19 @@
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt; 10</t>
+          <t>10 - 50</t>
         </is>
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>2024-01-29</t>
+          <t>2024-01-29 12:00:00</t>
         </is>
       </c>
       <c r="N121" t="n">
         <v>1</v>
+      </c>
+      <c r="O121" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="122">
@@ -7689,12 +8052,12 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>B44739132</t>
+          <t>E92589723</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>adress122,122 16 - N  City122, (Province122) 94838</t>
+          <t>adress122,122 4 - S  City122, (Province122) 90244</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -7708,12 +8071,12 @@
         </is>
       </c>
       <c r="F122" t="n">
-        <v>936102645</v>
+        <v>924221559</v>
       </c>
       <c r="G122" t="inlineStr"/>
       <c r="H122" t="inlineStr">
         <is>
-          <t>A1.5.0 - Mixed farming</t>
+          <t>S95.2.3 - Repair of footwear and leather goods</t>
         </is>
       </c>
       <c r="I122" t="n">
@@ -7734,10 +8097,13 @@
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>2024-01-28</t>
+          <t>2024-01-29 21:00:00</t>
         </is>
       </c>
       <c r="N122" t="n">
+        <v>0</v>
+      </c>
+      <c r="O122" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7749,12 +8115,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>E44866382</t>
+          <t>C66907614</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>adress123,123 12 - E  City123, (Province123) 56899</t>
+          <t>adress123,123 9 - P  City123, (Province123) 65296</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -7768,12 +8134,12 @@
         </is>
       </c>
       <c r="F123" t="n">
-        <v>934799537</v>
+        <v>999068601</v>
       </c>
       <c r="G123" t="inlineStr"/>
       <c r="H123" t="inlineStr">
         <is>
-          <t>J61.1 - Wired telecommunications activities</t>
+          <t>C24.1.0 - Manufacture of basic iron and steel and of ferro-alloys</t>
         </is>
       </c>
       <c r="I123" t="n">
@@ -7784,20 +8150,23 @@
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>Pool</t>
+          <t>Contact</t>
         </is>
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &gt; 250</t>
+          <t xml:space="preserve"> &lt; 10</t>
         </is>
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>2024-02-02</t>
+          <t>2024-01-30 06:00:00</t>
         </is>
       </c>
       <c r="N123" t="n">
+        <v>1</v>
+      </c>
+      <c r="O123" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7809,12 +8178,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>N58256262</t>
+          <t>G75205626</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>adress124,124 6 - R  City124, (Province124) 06620</t>
+          <t>adress124,124 7 - V  City124, (Province124) 06989</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -7828,12 +8197,12 @@
         </is>
       </c>
       <c r="F124" t="n">
-        <v>963175111</v>
+        <v>992544641</v>
       </c>
       <c r="G124" t="inlineStr"/>
       <c r="H124" t="inlineStr">
         <is>
-          <t>K64 - Financial service activities, except insurance and pension funding</t>
+          <t>H49.1.0 - Passenger rail transport, interurban</t>
         </is>
       </c>
       <c r="I124" t="n">
@@ -7849,15 +8218,18 @@
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t>10 - 50</t>
+          <t xml:space="preserve"> &gt; 250</t>
         </is>
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>2024-02-08</t>
+          <t>2024-01-30 17:00:00</t>
         </is>
       </c>
       <c r="N124" t="n">
+        <v>0</v>
+      </c>
+      <c r="O124" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7869,12 +8241,12 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>V78948211</t>
+          <t>P41368953</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>adress125,125 7 - G  City125, (Province125) 49877</t>
+          <t>adress125,125 3 - H  City125, (Province125) 81723</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -7888,12 +8260,12 @@
         </is>
       </c>
       <c r="F125" t="n">
-        <v>924533114</v>
+        <v>905109926</v>
       </c>
       <c r="G125" t="inlineStr"/>
       <c r="H125" t="inlineStr">
         <is>
-          <t>A3.1 - Fishing</t>
+          <t>F43.9.9 - Other specialised construction activities n.e.c.</t>
         </is>
       </c>
       <c r="I125" t="n">
@@ -7914,11 +8286,14 @@
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>2024-01-16</t>
+          <t>2024-01-31 00:00:00</t>
         </is>
       </c>
       <c r="N125" t="n">
         <v>1</v>
+      </c>
+      <c r="O125" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="126">
@@ -7929,12 +8304,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>N15054622</t>
+          <t>U52912132</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>adress126,126 8 - G  City126, (Province126) 64456</t>
+          <t>adress126,126 10 - J  City126, (Province126) 22029</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -7948,12 +8323,12 @@
         </is>
       </c>
       <c r="F126" t="n">
-        <v>912493981</v>
+        <v>919171053</v>
       </c>
       <c r="G126" t="inlineStr"/>
       <c r="H126" t="inlineStr">
         <is>
-          <t>H50.1 - Sea and coastal passenger water transport</t>
+          <t>C28.2.3 - Manufacture of office machinery and equipment (except computers and peripheral equipment)</t>
         </is>
       </c>
       <c r="I126" t="n">
@@ -7964,7 +8339,7 @@
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>Pool</t>
+          <t>Contact</t>
         </is>
       </c>
       <c r="L126" t="inlineStr">
@@ -7974,10 +8349,13 @@
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>2024-03-17</t>
+          <t>2024-01-31 05:00:00</t>
         </is>
       </c>
       <c r="N126" t="n">
+        <v>1</v>
+      </c>
+      <c r="O126" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7989,12 +8367,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>P46149516</t>
+          <t>Q93958053</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>adress127,127 19 - B  City127, (Province127) 65077</t>
+          <t>adress127,127 9 - C  City127, (Province127) 88854</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -8008,12 +8386,12 @@
         </is>
       </c>
       <c r="F127" t="n">
-        <v>998451103</v>
+        <v>973847660</v>
       </c>
       <c r="G127" t="inlineStr"/>
       <c r="H127" t="inlineStr">
         <is>
-          <t>I55.9 - Other accommodation</t>
+          <t>H49.4.2 - Removal services</t>
         </is>
       </c>
       <c r="I127" t="n">
@@ -8024,7 +8402,7 @@
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>Contact</t>
+          <t>Pool</t>
         </is>
       </c>
       <c r="L127" t="inlineStr">
@@ -8034,11 +8412,14 @@
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>2024-01-01</t>
+          <t>2024-01-31 06:00:00</t>
         </is>
       </c>
       <c r="N127" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="O127" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="128">
@@ -8049,12 +8430,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>V09045624</t>
+          <t>E08114206</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>adress128,128 13 - B  City128, (Province128) 78305</t>
+          <t>adress128,128 10 - A  City128, (Province128) 31564</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -8068,12 +8449,12 @@
         </is>
       </c>
       <c r="F128" t="n">
-        <v>942050799</v>
+        <v>916589123</v>
       </c>
       <c r="G128" t="inlineStr"/>
       <c r="H128" t="inlineStr">
         <is>
-          <t>F41 - Construction of buildings</t>
+          <t>P85.5.9 - Other education n.e.c.</t>
         </is>
       </c>
       <c r="I128" t="n">
@@ -8084,20 +8465,23 @@
       </c>
       <c r="K128" t="inlineStr">
         <is>
-          <t>Pool</t>
+          <t>Contact</t>
         </is>
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt; 10</t>
+          <t xml:space="preserve"> &gt; 250</t>
         </is>
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>2024-01-08</t>
+          <t>2024-01-31 15:00:00</t>
         </is>
       </c>
       <c r="N128" t="n">
+        <v>1</v>
+      </c>
+      <c r="O128" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8109,12 +8493,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>C24810948</t>
+          <t>S38950886</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>adress129,129 9 - F  City129, (Province129) 36503</t>
+          <t>adress129,129 7 - S  City129, (Province129) 65401</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -8128,12 +8512,12 @@
         </is>
       </c>
       <c r="F129" t="n">
-        <v>973288189</v>
+        <v>947818196</v>
       </c>
       <c r="G129" t="inlineStr"/>
       <c r="H129" t="inlineStr">
         <is>
-          <t>C32.1.2 - Manufacture of jewellery and related articles</t>
+          <t>B6 - Extraction of crude petroleum and natural gas</t>
         </is>
       </c>
       <c r="I129" t="n">
@@ -8149,16 +8533,19 @@
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>10 - 50</t>
+          <t>50 - 250</t>
         </is>
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>2024-02-25</t>
+          <t>2024-01-31 16:00:00</t>
         </is>
       </c>
       <c r="N129" t="n">
         <v>1</v>
+      </c>
+      <c r="O129" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="130">
@@ -8169,12 +8556,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>B63925867</t>
+          <t>J57776744</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>adress130,130 18 - S  City130, (Province130) 95342</t>
+          <t>adress130,130 20 - E  City130, (Province130) 73208</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -8188,12 +8575,12 @@
         </is>
       </c>
       <c r="F130" t="n">
-        <v>927116879</v>
+        <v>915703360</v>
       </c>
       <c r="G130" t="inlineStr"/>
       <c r="H130" t="inlineStr">
         <is>
-          <t>G46.1.4 - Agents involved in the sale of machinery, industrial equipment, ships and aircraft</t>
+          <t>E39 - Remediation activities and other waste management services</t>
         </is>
       </c>
       <c r="I130" t="n">
@@ -8214,11 +8601,14 @@
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>2024-03-01</t>
+          <t>2024-01-31 22:00:00</t>
         </is>
       </c>
       <c r="N130" t="n">
         <v>1</v>
+      </c>
+      <c r="O130" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="131">
@@ -8229,12 +8619,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>F74226092</t>
+          <t>C77913068</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>adress131,131 6 - U  City131, (Province131) 97042</t>
+          <t>adress131,131 5 - U  City131, (Province131) 16264</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -8248,12 +8638,12 @@
         </is>
       </c>
       <c r="F131" t="n">
-        <v>905491324</v>
+        <v>914870336</v>
       </c>
       <c r="G131" t="inlineStr"/>
       <c r="H131" t="inlineStr">
         <is>
-          <t>C27.3 - Manufacture of wiring and wiring devices</t>
+          <t>M75.0 - Veterinary activities</t>
         </is>
       </c>
       <c r="I131" t="n">
@@ -8264,21 +8654,24 @@
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>Contact</t>
+          <t>Pool</t>
         </is>
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>10 - 50</t>
+          <t>50 - 250</t>
         </is>
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>2024-03-18</t>
+          <t>2024-02-01 07:00:00</t>
         </is>
       </c>
       <c r="N131" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="O131" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="132">
@@ -8289,12 +8682,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>S41519352</t>
+          <t>R59078277</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>adress132,132 13 - W  City132, (Province132) 94684</t>
+          <t>adress132,132 18 - F  City132, (Province132) 68755</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -8308,12 +8701,12 @@
         </is>
       </c>
       <c r="F132" t="n">
-        <v>976777325</v>
+        <v>915006737</v>
       </c>
       <c r="G132" t="inlineStr"/>
       <c r="H132" t="inlineStr">
         <is>
-          <t>J61.1 - Wired telecommunications activities</t>
+          <t>C10.1.1 - Processing and preserving of meat</t>
         </is>
       </c>
       <c r="I132" t="n">
@@ -8324,21 +8717,24 @@
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>Contact</t>
+          <t>Pool</t>
         </is>
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t>50 - 250</t>
+          <t xml:space="preserve"> &gt; 250</t>
         </is>
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>2024-01-18</t>
+          <t>2024-02-01 16:00:00</t>
         </is>
       </c>
       <c r="N132" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="O132" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="133">
@@ -8349,12 +8745,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>A84188935</t>
+          <t>C34799489</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>adress133,133 2 - V  City133, (Province133) 80509</t>
+          <t>adress133,133 10 - P  City133, (Province133) 57000</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -8368,12 +8764,12 @@
         </is>
       </c>
       <c r="F133" t="n">
-        <v>982523102</v>
+        <v>916377843</v>
       </c>
       <c r="G133" t="inlineStr"/>
       <c r="H133" t="inlineStr">
         <is>
-          <t>T98.2.0 - Undifferentiated service-producing activities of private households for own use</t>
+          <t>C13.9.4 - Manufacture of cordage, rope, twine and netting</t>
         </is>
       </c>
       <c r="I133" t="n">
@@ -8384,7 +8780,7 @@
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>Contact</t>
+          <t>Pool</t>
         </is>
       </c>
       <c r="L133" t="inlineStr">
@@ -8394,11 +8790,14 @@
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>2024-02-24</t>
+          <t>2024-02-02 04:00:00</t>
         </is>
       </c>
       <c r="N133" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="O133" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="134">
@@ -8409,12 +8808,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>V94063603</t>
+          <t>E43178461</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>adress134,134 19 - P  City134, (Province134) 62272</t>
+          <t>adress134,134 19 - S  City134, (Province134) 56414</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -8428,12 +8827,12 @@
         </is>
       </c>
       <c r="F134" t="n">
-        <v>959725010</v>
+        <v>944929222</v>
       </c>
       <c r="G134" t="inlineStr"/>
       <c r="H134" t="inlineStr">
         <is>
-          <t>C11.0.2 - Manufacture of wine from grape</t>
+          <t>C24.5.1 - Casting of iron</t>
         </is>
       </c>
       <c r="I134" t="n">
@@ -8444,7 +8843,7 @@
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>Contact</t>
+          <t>Pool</t>
         </is>
       </c>
       <c r="L134" t="inlineStr">
@@ -8454,11 +8853,14 @@
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>2024-01-03</t>
+          <t>2024-02-02 07:00:00</t>
         </is>
       </c>
       <c r="N134" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="O134" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="135">
@@ -8469,12 +8871,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>F16443998</t>
+          <t>A10199912</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>adress135,135 3 - J  City135, (Province135) 46096</t>
+          <t>adress135,135 14 - V  City135, (Province135) 28484</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -8488,12 +8890,12 @@
         </is>
       </c>
       <c r="F135" t="n">
-        <v>996140106</v>
+        <v>941257797</v>
       </c>
       <c r="G135" t="inlineStr"/>
       <c r="H135" t="inlineStr">
         <is>
-          <t>G46.2.4 - Wholesale of hides, skins and leather</t>
+          <t>C28.3 - Manufacture of agricultural and forestry machinery</t>
         </is>
       </c>
       <c r="I135" t="n">
@@ -8504,20 +8906,23 @@
       </c>
       <c r="K135" t="inlineStr">
         <is>
-          <t>Pool</t>
+          <t>Contact</t>
         </is>
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt; 10</t>
+          <t xml:space="preserve"> &gt; 250</t>
         </is>
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>2024-03-24</t>
+          <t>2024-02-02 12:00:00</t>
         </is>
       </c>
       <c r="N135" t="n">
+        <v>1</v>
+      </c>
+      <c r="O135" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8529,12 +8934,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>E45273457</t>
+          <t>F75291930</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>adress136,136 19 - G  City136, (Province136) 20257</t>
+          <t>adress136,136 13 - H  City136, (Province136) 18519</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -8548,12 +8953,12 @@
         </is>
       </c>
       <c r="F136" t="n">
-        <v>986198255</v>
+        <v>932054294</v>
       </c>
       <c r="G136" t="inlineStr"/>
       <c r="H136" t="inlineStr">
         <is>
-          <t>C17.2.2 - Manufacture of household and sanitary goods and of toilet requisites</t>
+          <t>M70.1 - Activities of head offices</t>
         </is>
       </c>
       <c r="I136" t="n">
@@ -8564,21 +8969,24 @@
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>Contact</t>
+          <t>Pool</t>
         </is>
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &gt; 250</t>
+          <t>10 - 50</t>
         </is>
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>2024-02-28</t>
+          <t>2024-02-02 22:00:00</t>
         </is>
       </c>
       <c r="N136" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="O136" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="137">
@@ -8589,12 +8997,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>U51228624</t>
+          <t>A54678362</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>adress137,137 15 - G  City137, (Province137) 99769</t>
+          <t>adress137,137 20 - B  City137, (Province137) 35115</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -8608,12 +9016,12 @@
         </is>
       </c>
       <c r="F137" t="n">
-        <v>928527435</v>
+        <v>937596757</v>
       </c>
       <c r="G137" t="inlineStr"/>
       <c r="H137" t="inlineStr">
         <is>
-          <t>C25.9.9 - Manufacture of other fabricated metal products n.e.c.</t>
+          <t>N82.9.9 - Other business support service activities n.e.c.</t>
         </is>
       </c>
       <c r="I137" t="n">
@@ -8634,11 +9042,14 @@
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>2024-01-29</t>
+          <t>2024-02-03 01:00:00</t>
         </is>
       </c>
       <c r="N137" t="n">
         <v>1</v>
+      </c>
+      <c r="O137" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="138">
@@ -8649,12 +9060,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Q11097038</t>
+          <t>H19121314</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>adress138,138 14 - U  City138, (Province138) 61539</t>
+          <t>adress138,138 7 - F  City138, (Province138) 58851</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -8668,12 +9079,12 @@
         </is>
       </c>
       <c r="F138" t="n">
-        <v>927634576</v>
+        <v>941369917</v>
       </c>
       <c r="G138" t="inlineStr"/>
       <c r="H138" t="inlineStr">
         <is>
-          <t>F42.2.2 - Construction of utility projects for electricity and telecommunications</t>
+          <t>J63.9 - Other information service activities</t>
         </is>
       </c>
       <c r="I138" t="n">
@@ -8684,20 +9095,23 @@
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>Pool</t>
+          <t>Contact</t>
         </is>
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &gt; 250</t>
+          <t>10 - 50</t>
         </is>
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>2024-03-09</t>
+          <t>2024-02-03 04:00:00</t>
         </is>
       </c>
       <c r="N138" t="n">
+        <v>1</v>
+      </c>
+      <c r="O138" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8709,12 +9123,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>W94522501</t>
+          <t>W12734396</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>adress139,139 3 - B  City139, (Province139) 66586</t>
+          <t>adress139,139 14 - V  City139, (Province139) 78579</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -8728,12 +9142,12 @@
         </is>
       </c>
       <c r="F139" t="n">
-        <v>993535517</v>
+        <v>985567267</v>
       </c>
       <c r="G139" t="inlineStr"/>
       <c r="H139" t="inlineStr">
         <is>
-          <t>J62.0.9 - Other information technology and computer service activities</t>
+          <t>C25.1 - Manufacture of structural metal products</t>
         </is>
       </c>
       <c r="I139" t="n">
@@ -8749,16 +9163,19 @@
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t>10 - 50</t>
+          <t xml:space="preserve"> &lt; 10</t>
         </is>
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>2024-03-20</t>
+          <t>2024-02-03 11:00:00</t>
         </is>
       </c>
       <c r="N139" t="n">
         <v>1</v>
+      </c>
+      <c r="O139" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="140">
@@ -8769,12 +9186,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>U86561854</t>
+          <t>Q11908942</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>adress140,140 6 - P  City140, (Province140) 37978</t>
+          <t>adress140,140 12 - E  City140, (Province140) 20169</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -8788,12 +9205,12 @@
         </is>
       </c>
       <c r="F140" t="n">
-        <v>991905136</v>
+        <v>944000761</v>
       </c>
       <c r="G140" t="inlineStr"/>
       <c r="H140" t="inlineStr">
         <is>
-          <t>G46.1.6 - Agents involved in the sale of textiles, clothing, fur, footwear and leather goods</t>
+          <t>M70.2.1 - Public relations and communication activities</t>
         </is>
       </c>
       <c r="I140" t="n">
@@ -8804,7 +9221,7 @@
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>Pool</t>
+          <t>Contact</t>
         </is>
       </c>
       <c r="L140" t="inlineStr">
@@ -8814,10 +9231,13 @@
       </c>
       <c r="M140" t="inlineStr">
         <is>
-          <t>2024-01-05</t>
+          <t>2024-02-03 15:00:00</t>
         </is>
       </c>
       <c r="N140" t="n">
+        <v>1</v>
+      </c>
+      <c r="O140" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8829,12 +9249,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>C86183823</t>
+          <t>Q50897134</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>adress141,141 7 - U  City141, (Province141) 27342</t>
+          <t>adress141,141 9 - J  City141, (Province141) 84864</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -8848,12 +9268,12 @@
         </is>
       </c>
       <c r="F141" t="n">
-        <v>966234460</v>
+        <v>913381901</v>
       </c>
       <c r="G141" t="inlineStr"/>
       <c r="H141" t="inlineStr">
         <is>
-          <t>A1.4.4 - Raising of camels and camelids</t>
+          <t>C28.2.3 - Manufacture of office machinery and equipment (except computers and peripheral equipment)</t>
         </is>
       </c>
       <c r="I141" t="n">
@@ -8864,21 +9284,24 @@
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>Contact</t>
+          <t>Pool</t>
         </is>
       </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t>10 - 50</t>
+          <t xml:space="preserve"> &gt; 250</t>
         </is>
       </c>
       <c r="M141" t="inlineStr">
         <is>
-          <t>2024-03-29</t>
+          <t>2024-02-04 02:00:00</t>
         </is>
       </c>
       <c r="N141" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="O141" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="142">
@@ -8889,12 +9312,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>F88964547</t>
+          <t>A45343665</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>adress142,142 13 - U  City142, (Province142) 53774</t>
+          <t>adress142,142 19 - P  City142, (Province142) 72604</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -8908,12 +9331,12 @@
         </is>
       </c>
       <c r="F142" t="n">
-        <v>925226007</v>
+        <v>946624680</v>
       </c>
       <c r="G142" t="inlineStr"/>
       <c r="H142" t="inlineStr">
         <is>
-          <t>C24.1 - Manufacture of basic iron and steel and of ferro-alloys</t>
+          <t>T97.0.0 - Activities of households as employers of domestic personnel</t>
         </is>
       </c>
       <c r="I142" t="n">
@@ -8924,7 +9347,7 @@
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>Pool</t>
+          <t>Contact</t>
         </is>
       </c>
       <c r="L142" t="inlineStr">
@@ -8934,10 +9357,13 @@
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>2024-02-02</t>
+          <t>2024-02-04 03:00:00</t>
         </is>
       </c>
       <c r="N142" t="n">
+        <v>1</v>
+      </c>
+      <c r="O142" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8949,12 +9375,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>A30663444</t>
+          <t>C97545352</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>adress143,143 13 - J  City143, (Province143) 05831</t>
+          <t>adress143,143 16 - W  City143, (Province143) 75982</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -8968,12 +9394,12 @@
         </is>
       </c>
       <c r="F143" t="n">
-        <v>917832505</v>
+        <v>911147360</v>
       </c>
       <c r="G143" t="inlineStr"/>
       <c r="H143" t="inlineStr">
         <is>
-          <t>C24.4 - Manufacture of basic precious and other non-ferrous metals</t>
+          <t>G46.6.1 - Wholesale of agricultural machinery, equipment and supplies</t>
         </is>
       </c>
       <c r="I143" t="n">
@@ -8989,15 +9415,18 @@
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t>50 - 250</t>
+          <t xml:space="preserve"> &lt; 10</t>
         </is>
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>2024-02-12</t>
+          <t>2024-02-04 07:00:00</t>
         </is>
       </c>
       <c r="N143" t="n">
+        <v>0</v>
+      </c>
+      <c r="O143" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9009,12 +9438,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>R52188911</t>
+          <t>V76086103</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>adress144,144 10 - H  City144, (Province144) 45968</t>
+          <t>adress144,144 12 - A  City144, (Province144) 69944</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -9028,12 +9457,12 @@
         </is>
       </c>
       <c r="F144" t="n">
-        <v>953988112</v>
+        <v>984490960</v>
       </c>
       <c r="G144" t="inlineStr"/>
       <c r="H144" t="inlineStr">
         <is>
-          <t>C18.2.0 - Reproduction of recorded media</t>
+          <t>Q88.1.0 - Social work activities without accommodation for the elderly and disabled</t>
         </is>
       </c>
       <c r="I144" t="n">
@@ -9044,20 +9473,23 @@
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>Pool</t>
+          <t>Contact</t>
         </is>
       </c>
       <c r="L144" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt; 10</t>
+          <t xml:space="preserve"> &gt; 250</t>
         </is>
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>2024-03-27</t>
+          <t>2024-02-04 17:00:00</t>
         </is>
       </c>
       <c r="N144" t="n">
+        <v>1</v>
+      </c>
+      <c r="O144" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9069,12 +9501,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>U66354584</t>
+          <t>E26237825</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>adress145,145 16 - U  City145, (Province145) 73167</t>
+          <t>adress145,145 15 - Q  City145, (Province145) 36262</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -9088,12 +9520,12 @@
         </is>
       </c>
       <c r="F145" t="n">
-        <v>915320638</v>
+        <v>977388585</v>
       </c>
       <c r="G145" t="inlineStr"/>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Q88 - Social work activities without accommodation</t>
+          <t>C30.3.0 - Manufacture of air and spacecraft and related machinery</t>
         </is>
       </c>
       <c r="I145" t="n">
@@ -9104,20 +9536,23 @@
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>Pool</t>
+          <t>Contact</t>
         </is>
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t>50 - 250</t>
+          <t xml:space="preserve"> &lt; 10</t>
         </is>
       </c>
       <c r="M145" t="inlineStr">
         <is>
-          <t>2024-02-24</t>
+          <t>2024-02-04 22:00:00</t>
         </is>
       </c>
       <c r="N145" t="n">
+        <v>1</v>
+      </c>
+      <c r="O145" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9129,12 +9564,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>G39489050</t>
+          <t>R62698310</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>adress146,146 20 - C  City146, (Province146) 99382</t>
+          <t>adress146,146 5 - V  City146, (Province146) 09822</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -9148,12 +9583,12 @@
         </is>
       </c>
       <c r="F146" t="n">
-        <v>907341383</v>
+        <v>939711804</v>
       </c>
       <c r="G146" t="inlineStr"/>
       <c r="H146" t="inlineStr">
         <is>
-          <t>E37 - Sewerage</t>
+          <t>S95.2.1 - Repair of consumer electronics</t>
         </is>
       </c>
       <c r="I146" t="n">
@@ -9164,21 +9599,24 @@
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>Contact</t>
+          <t>Pool</t>
         </is>
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt; 10</t>
+          <t>50 - 250</t>
         </is>
       </c>
       <c r="M146" t="inlineStr">
         <is>
-          <t>2024-02-17</t>
+          <t>2024-02-04 23:00:00</t>
         </is>
       </c>
       <c r="N146" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="O146" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="147">
@@ -9189,12 +9627,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>H39588382</t>
+          <t>C89661270</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>adress147,147 16 - P  City147, (Province147) 21043</t>
+          <t>adress147,147 8 - S  City147, (Province147) 96096</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -9208,12 +9646,12 @@
         </is>
       </c>
       <c r="F147" t="n">
-        <v>931217272</v>
+        <v>935760632</v>
       </c>
       <c r="G147" t="inlineStr"/>
       <c r="H147" t="inlineStr">
         <is>
-          <t>C24.5.2 - Casting of steel</t>
+          <t>G47.2.6 - Retail sale of tobacco products in specialised stores</t>
         </is>
       </c>
       <c r="I147" t="n">
@@ -9234,11 +9672,14 @@
       </c>
       <c r="M147" t="inlineStr">
         <is>
-          <t>2024-03-28</t>
+          <t>2024-02-05 05:00:00</t>
         </is>
       </c>
       <c r="N147" t="n">
         <v>1</v>
+      </c>
+      <c r="O147" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="148">
@@ -9249,12 +9690,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>J81217496</t>
+          <t>B66648121</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>adress148,148 5 - Q  City148, (Province148) 37321</t>
+          <t>adress148,148 9 - B  City148, (Province148) 74419</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -9268,12 +9709,12 @@
         </is>
       </c>
       <c r="F148" t="n">
-        <v>991973155</v>
+        <v>995851826</v>
       </c>
       <c r="G148" t="inlineStr"/>
       <c r="H148" t="inlineStr">
         <is>
-          <t>C10.8.2 - Manufacture of cocoa, chocolate and sugar confectionery</t>
+          <t>C10.8.4 - Manufacture of condiments and seasonings</t>
         </is>
       </c>
       <c r="I148" t="n">
@@ -9289,16 +9730,19 @@
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &gt; 250</t>
+          <t xml:space="preserve"> &lt; 10</t>
         </is>
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>2024-02-02</t>
+          <t>2024-02-05 17:00:00</t>
         </is>
       </c>
       <c r="N148" t="n">
         <v>1</v>
+      </c>
+      <c r="O148" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="149">
@@ -9309,12 +9753,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>B56949881</t>
+          <t>A40732892</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>adress149,149 2 - N  City149, (Province149) 08661</t>
+          <t>adress149,149 18 - S  City149, (Province149) 58337</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -9328,12 +9772,12 @@
         </is>
       </c>
       <c r="F149" t="n">
-        <v>921756354</v>
+        <v>993683181</v>
       </c>
       <c r="G149" t="inlineStr"/>
       <c r="H149" t="inlineStr">
         <is>
-          <t>G47 - Retail trade, except of motor vehicles and motorcycles</t>
+          <t>G47.4.3 - Retail sale of audio and video equipment in specialised stores</t>
         </is>
       </c>
       <c r="I149" t="n">
@@ -9344,21 +9788,24 @@
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>Contact</t>
+          <t>Pool</t>
         </is>
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &gt; 250</t>
+          <t xml:space="preserve"> &lt; 10</t>
         </is>
       </c>
       <c r="M149" t="inlineStr">
         <is>
-          <t>2024-01-01</t>
+          <t>2024-02-06 01:00:00</t>
         </is>
       </c>
       <c r="N149" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="O149" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="150">
@@ -9369,12 +9816,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>V67415916</t>
+          <t>Q51689404</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>adress150,150 1 - N  City150, (Province150) 25715</t>
+          <t>adress150,150 4 - W  City150, (Province150) 82507</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -9388,12 +9835,12 @@
         </is>
       </c>
       <c r="F150" t="n">
-        <v>970005415</v>
+        <v>931989378</v>
       </c>
       <c r="G150" t="inlineStr"/>
       <c r="H150" t="inlineStr">
         <is>
-          <t>C33.1.2 - Repair of machinery</t>
+          <t>C23.6 - Manufacture of articles of concrete, cement and plaster</t>
         </is>
       </c>
       <c r="I150" t="n">
@@ -9414,10 +9861,13 @@
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>2024-03-09</t>
+          <t>2024-02-06 02:00:00</t>
         </is>
       </c>
       <c r="N150" t="n">
+        <v>0</v>
+      </c>
+      <c r="O150" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -429,12 +429,12 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>H82210140</t>
+          <t>S81004139</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>adress1,1 9 - H  City1, (Province1) 49080</t>
+          <t>adress1,1 16 - S  City1, (Province1) 26408</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -448,12 +448,12 @@
         </is>
       </c>
       <c r="F1" t="n">
-        <v>962434435</v>
+        <v>975612545</v>
       </c>
       <c r="G1" t="inlineStr"/>
       <c r="H1" t="inlineStr">
         <is>
-          <t>C32.1 - Manufacture of jewellery, bijouterie and related articles</t>
+          <t>P85.1 - Pre-primary education</t>
         </is>
       </c>
       <c r="I1" t="n">
@@ -469,7 +469,7 @@
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &gt; 250</t>
+          <t>10 - 50</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
@@ -492,12 +492,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>V23783962</t>
+          <t>P55046290</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>adress2,2 17 - P  City2, (Province2) 71497</t>
+          <t>adress2,2 17 - U  City2, (Province2) 81610</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -511,12 +511,12 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>900159135</v>
+        <v>944569773</v>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>N81.2.1 - General cleaning of buildings</t>
+          <t>N77.2.1 - Renting and leasing of recreational and sports goods</t>
         </is>
       </c>
       <c r="I2" t="n">
@@ -532,12 +532,12 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>50 - 250</t>
+          <t xml:space="preserve"> &lt; 10</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2024-01-01 10:00:00</t>
+          <t>2024-01-01 09:00:00</t>
         </is>
       </c>
       <c r="N2" t="n">
@@ -555,12 +555,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>P09480763</t>
+          <t>F07303841</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>adress3,3 18 - H  City3, (Province3) 45407</t>
+          <t>adress3,3 6 - P  City3, (Province3) 41522</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -574,12 +574,12 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>979319921</v>
+        <v>989246737</v>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
-          <t>G46.9 - Non-specialised wholesale trade</t>
+          <t>Q87 - Residential care activities</t>
         </is>
       </c>
       <c r="I3" t="n">
@@ -590,7 +590,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Pool</t>
+          <t>Contact</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -600,11 +600,11 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2024-01-01 19:00:00</t>
+          <t>2024-01-01 18:00:00</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -618,12 +618,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>E29067738</t>
+          <t>R14058437</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>adress4,4 16 - V  City4, (Province4) 51983</t>
+          <t>adress4,4 2 - G  City4, (Province4) 75911</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -637,12 +637,12 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>980591314</v>
+        <v>961227939</v>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
-          <t>C30.1.2 - Building of pleasure and sporting boats</t>
+          <t>H49.1 - Passenger rail transport, interurban</t>
         </is>
       </c>
       <c r="I4" t="n">
@@ -658,12 +658,12 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt; 10</t>
+          <t>50 - 250</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2024-01-02 04:00:00</t>
+          <t>2024-01-02 06:00:00</t>
         </is>
       </c>
       <c r="N4" t="n">
@@ -681,12 +681,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>R27009196</t>
+          <t>V53351127</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>adress5,5 6 - C  City5, (Province5) 36027</t>
+          <t>adress5,5 15 - A  City5, (Province5) 32028</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -700,12 +700,12 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>974987021</v>
+        <v>930471771</v>
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
-          <t>B8.9.9 - Other mining and quarrying n.e.c.</t>
+          <t>N82.1.9 - Photocopying, document preparation and other specialised office support activities</t>
         </is>
       </c>
       <c r="I5" t="n">
@@ -721,12 +721,12 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>50 - 250</t>
+          <t xml:space="preserve"> &gt; 250</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2024-01-02 06:00:00</t>
+          <t>2024-01-02 08:00:00</t>
         </is>
       </c>
       <c r="N5" t="n">
@@ -744,12 +744,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>B33678289</t>
+          <t>R20539080</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>adress6,6 20 - Q  City6, (Province6) 99465</t>
+          <t>adress6,6 1 - P  City6, (Province6) 18995</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -763,12 +763,12 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>912038928</v>
+        <v>963814238</v>
       </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
-          <t>C27 - Manufacture of electrical equipment</t>
+          <t>C13.9 - Manufacture of other textiles</t>
         </is>
       </c>
       <c r="I6" t="n">
@@ -784,12 +784,12 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &gt; 250</t>
+          <t>10 - 50</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>2024-01-02 13:00:00</t>
+          <t>2024-01-02 11:00:00</t>
         </is>
       </c>
       <c r="N6" t="n">
@@ -807,12 +807,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>P67917317</t>
+          <t>V53211692</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>adress7,7 14 - R  City7, (Province7) 25500</t>
+          <t>adress7,7 16 - V  City7, (Province7) 87888</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -826,12 +826,12 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>928246427</v>
+        <v>995297047</v>
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
         <is>
-          <t>M70.2 - Management consultancy activities</t>
+          <t>G47.2.3 - Retail sale of fish, crustaceans and molluscs in specialised stores</t>
         </is>
       </c>
       <c r="I7" t="n">
@@ -842,12 +842,12 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Contact</t>
+          <t>Pool</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>10 - 50</t>
+          <t xml:space="preserve"> &lt; 10</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -856,7 +856,7 @@
         </is>
       </c>
       <c r="N7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -870,12 +870,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>J09127819</t>
+          <t>U18479065</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>adress8,8 8 - Q  City8, (Province8) 87622</t>
+          <t>adress8,8 20 - E  City8, (Province8) 78277</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -889,12 +889,12 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>962327874</v>
+        <v>925081301</v>
       </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Q86.2 - Medical and dental practice activities</t>
+          <t>J58.1.1 - Book publishing</t>
         </is>
       </c>
       <c r="I8" t="n">
@@ -910,12 +910,12 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt; 10</t>
+          <t>50 - 250</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>2024-01-03 02:00:00</t>
+          <t>2024-01-02 22:00:00</t>
         </is>
       </c>
       <c r="N8" t="n">
@@ -933,12 +933,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>C96118593</t>
+          <t>G60777653</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>adress9,9 6 - S  City9, (Province9) 03617</t>
+          <t>adress9,9 5 - N  City9, (Province9) 72418</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -952,12 +952,12 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>965439663</v>
+        <v>952898168</v>
       </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
-          <t>C17 - Manufacture of paper and paper products</t>
+          <t>P85.1.0 - Pre-primary education</t>
         </is>
       </c>
       <c r="I9" t="n">
@@ -973,12 +973,12 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &gt; 250</t>
+          <t xml:space="preserve"> &lt; 10</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>2024-01-03 11:00:00</t>
+          <t>2024-01-03 05:00:00</t>
         </is>
       </c>
       <c r="N9" t="n">
@@ -996,12 +996,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>E35564512</t>
+          <t>U92568514</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>adress10,10 11 - S  City10, (Province10) 34803</t>
+          <t>adress10,10 18 - R  City10, (Province10) 26622</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1015,12 +1015,12 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>985510387</v>
+        <v>949731165</v>
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
         <is>
-          <t>R93.1 - Sports activities</t>
+          <t>F42.9.1 - Construction of water projects</t>
         </is>
       </c>
       <c r="I10" t="n">
@@ -1031,21 +1031,21 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Contact</t>
+          <t>Pool</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>50 - 250</t>
+          <t>10 - 50</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>2024-01-03 15:00:00</t>
+          <t>2024-01-03 13:00:00</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -1059,12 +1059,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>N71656330</t>
+          <t>B05504573</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>adress11,11 1 - A  City11, (Province11) 05512</t>
+          <t>adress11,11 11 - B  City11, (Province11) 93624</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1078,12 +1078,12 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>915657852</v>
+        <v>911556453</v>
       </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
         <is>
-          <t>C33.1.3 - Repair of electronic and optical equipment</t>
+          <t>C17.2.9 - Manufacture of other articles of paper and paperboard</t>
         </is>
       </c>
       <c r="I11" t="n">
@@ -1094,12 +1094,12 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Contact</t>
+          <t>Pool</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &gt; 250</t>
+          <t xml:space="preserve"> &lt; 10</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
@@ -1108,7 +1108,7 @@
         </is>
       </c>
       <c r="N11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -1122,12 +1122,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>H52954836</t>
+          <t>Q86306070</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>adress12,12 15 - P  City12, (Province12) 63296</t>
+          <t>adress12,12 13 - U  City12, (Province12) 57477</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1141,12 +1141,12 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>947916792</v>
+        <v>960261762</v>
       </c>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
         <is>
-          <t>M71.2.0 - Technical testing and analysis</t>
+          <t>G46.9 - Non-specialised wholesale trade</t>
         </is>
       </c>
       <c r="I12" t="n">
@@ -1157,12 +1157,12 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Contact</t>
+          <t>Pool</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt; 10</t>
+          <t>50 - 250</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="N12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -1185,12 +1185,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Q25567106</t>
+          <t>A90513381</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>adress13,13 11 - Q  City13, (Province13) 78029</t>
+          <t>adress13,13 20 - H  City13, (Province13) 60619</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1204,12 +1204,12 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>928994951</v>
+        <v>925946411</v>
       </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr">
         <is>
-          <t>G46.2.3 - Wholesale of live animals</t>
+          <t>C26.5.2 - Manufacture of watches and clocks</t>
         </is>
       </c>
       <c r="I13" t="n">
@@ -1220,7 +1220,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Pool</t>
+          <t>Contact</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1230,11 +1230,11 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>2024-01-04 01:00:00</t>
+          <t>2024-01-04 04:00:00</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -1248,12 +1248,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Q98103166</t>
+          <t>E08479478</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>adress14,14 8 - J  City14, (Province14) 11354</t>
+          <t>adress14,14 2 - U  City14, (Province14) 17573</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1267,12 +1267,12 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>943143419</v>
+        <v>993975284</v>
       </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr">
         <is>
-          <t>B6.2 - Extraction of natural gas</t>
+          <t>C15.2.0 - Manufacture of footwear</t>
         </is>
       </c>
       <c r="I14" t="n">
@@ -1283,21 +1283,21 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Pool</t>
+          <t>Contact</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt; 10</t>
+          <t>10 - 50</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>2024-01-04 07:00:00</t>
+          <t>2024-01-04 10:00:00</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -1311,12 +1311,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>E88831840</t>
+          <t>P96928663</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>adress15,15 19 - F  City15, (Province15) 23347</t>
+          <t>adress15,15 7 - W  City15, (Province15) 76296</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1330,12 +1330,12 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>936214976</v>
+        <v>958804584</v>
       </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr">
         <is>
-          <t>C32.3.0 - Manufacture of sports goods</t>
+          <t>N82.1.9 - Photocopying, document preparation and other specialised office support activities</t>
         </is>
       </c>
       <c r="I15" t="n">
@@ -1346,21 +1346,21 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Pool</t>
+          <t>Contact</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>50 - 250</t>
+          <t xml:space="preserve"> &lt; 10</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>2024-01-04 14:00:00</t>
+          <t>2024-01-04 18:00:00</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -1374,12 +1374,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>W41753235</t>
+          <t>R03172859</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>adress16,16 19 - E  City16, (Province16) 10581</t>
+          <t>adress16,16 5 - H  City16, (Province16) 09124</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1393,12 +1393,12 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>993938647</v>
+        <v>975026908</v>
       </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr">
         <is>
-          <t>O84.1.3 - Regulation of and contribution to more efficient operation of businesses</t>
+          <t>N81.2.1 - General cleaning of buildings</t>
         </is>
       </c>
       <c r="I16" t="n">
@@ -1414,12 +1414,12 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>50 - 250</t>
+          <t xml:space="preserve"> &lt; 10</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>2024-01-04 21:00:00</t>
+          <t>2024-01-05 06:00:00</t>
         </is>
       </c>
       <c r="N16" t="n">
@@ -1437,12 +1437,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>R83272888</t>
+          <t>U27487181</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>adress17,17 15 - E  City17, (Province17) 26254</t>
+          <t>adress17,17 3 - A  City17, (Province17) 25149</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1456,12 +1456,12 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>968152563</v>
+        <v>996545744</v>
       </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
-          <t>E38.2 - Waste treatment and disposal</t>
+          <t>J60.1.0 - Radio broadcasting</t>
         </is>
       </c>
       <c r="I17" t="n">
@@ -1477,12 +1477,12 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>10 - 50</t>
+          <t xml:space="preserve"> &lt; 10</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>2024-01-05 04:00:00</t>
+          <t>2024-01-05 17:00:00</t>
         </is>
       </c>
       <c r="N17" t="n">
@@ -1500,12 +1500,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Q24073929</t>
+          <t>C13003349</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>adress18,18 15 - U  City18, (Province18) 58275</t>
+          <t>adress18,18 13 - V  City18, (Province18) 81833</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1519,12 +1519,12 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>995987066</v>
+        <v>938260046</v>
       </c>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
         <is>
-          <t>C19.1 - Manufacture of coke oven products</t>
+          <t>Q86.2 - Medical and dental practice activities</t>
         </is>
       </c>
       <c r="I18" t="n">
@@ -1535,7 +1535,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Contact</t>
+          <t>Pool</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1545,11 +1545,11 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>2024-01-05 12:00:00</t>
+          <t>2024-01-05 22:00:00</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -1563,12 +1563,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>U21627455</t>
+          <t>N46220235</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>adress19,19 9 - G  City19, (Province19) 19820</t>
+          <t>adress19,19 3 - N  City19, (Province19) 04633</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1582,12 +1582,12 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>915050955</v>
+        <v>941728678</v>
       </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr">
         <is>
-          <t>R90.0 - Creative, arts and entertainment activities</t>
+          <t>M74.3 - Translation and interpretation activities</t>
         </is>
       </c>
       <c r="I19" t="n">
@@ -1598,21 +1598,21 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Contact</t>
+          <t>Pool</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt; 10</t>
+          <t>10 - 50</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>2024-01-05 14:00:00</t>
+          <t>2024-01-06 07:00:00</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -1626,12 +1626,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>V03621761</t>
+          <t>B36254632</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>adress20,20 17 - A  City20, (Province20) 78720</t>
+          <t>adress20,20 5 - E  City20, (Province20) 25359</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1645,12 +1645,12 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>951809006</v>
+        <v>910830740</v>
       </c>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
-          <t>C28.9.4 - Manufacture of machinery for textile, apparel and leather production</t>
+          <t>C28.2.3 - Manufacture of office machinery and equipment (except computers and peripheral equipment)</t>
         </is>
       </c>
       <c r="I20" t="n">
@@ -1661,21 +1661,21 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Contact</t>
+          <t>Pool</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>10 - 50</t>
+          <t xml:space="preserve"> &lt; 10</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>2024-01-05 15:00:00</t>
+          <t>2024-01-06 16:00:00</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -1689,12 +1689,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>H57477491</t>
+          <t>G35902376</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>adress21,21 17 - W  City21, (Province21) 09409</t>
+          <t>adress21,21 7 - U  City21, (Province21) 22748</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1708,12 +1708,12 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>956551660</v>
+        <v>940261821</v>
       </c>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
         <is>
-          <t>G46.1.9 - Agents involved in the sale of a variety of goods</t>
+          <t>C23.2 - Manufacture of refractory products</t>
         </is>
       </c>
       <c r="I21" t="n">
@@ -1729,12 +1729,12 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>50 - 250</t>
+          <t>10 - 50</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>2024-01-05 17:00:00</t>
+          <t>2024-01-06 17:00:00</t>
         </is>
       </c>
       <c r="N21" t="n">
@@ -1752,12 +1752,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>V60612194</t>
+          <t>Q13765943</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>adress22,22 8 - J  City22, (Province22) 45183</t>
+          <t>adress22,22 4 - F  City22, (Province22) 07317</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1771,12 +1771,12 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>992789974</v>
+        <v>933028452</v>
       </c>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
-          <t>C29.1.0 - Manufacture of motor vehicles</t>
+          <t>G46.4.6 - Wholesale of pharmaceutical goods</t>
         </is>
       </c>
       <c r="I22" t="n">
@@ -1792,12 +1792,12 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>10 - 50</t>
+          <t xml:space="preserve"> &lt; 10</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>2024-01-06 01:00:00</t>
+          <t>2024-01-07 04:00:00</t>
         </is>
       </c>
       <c r="N22" t="n">
@@ -1815,12 +1815,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>E28944883</t>
+          <t>P40439849</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>adress23,23 15 - A  City23, (Province23) 24304</t>
+          <t>adress23,23 13 - W  City23, (Province23) 27252</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1834,12 +1834,12 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>954714570</v>
+        <v>981229468</v>
       </c>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
         <is>
-          <t>C31.0 - Manufacture of furniture</t>
+          <t>C33.1 - Repair of fabricated metal products, machinery and equipment</t>
         </is>
       </c>
       <c r="I23" t="n">
@@ -1850,7 +1850,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Pool</t>
+          <t>Contact</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -1860,11 +1860,11 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>2024-01-06 02:00:00</t>
+          <t>2024-01-07 08:00:00</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -1878,12 +1878,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>H22560604</t>
+          <t>N38026563</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>adress24,24 11 - A  City24, (Province24) 53941</t>
+          <t>adress24,24 4 - P  City24, (Province24) 49830</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1897,12 +1897,12 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>975962287</v>
+        <v>979759017</v>
       </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
-          <t>G46.7.6 - Wholesale of other intermediate products</t>
+          <t>C32.9 - Manufacturing n.e.c.</t>
         </is>
       </c>
       <c r="I24" t="n">
@@ -1923,7 +1923,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>2024-01-06 14:00:00</t>
+          <t>2024-01-07 16:00:00</t>
         </is>
       </c>
       <c r="N24" t="n">
@@ -1941,12 +1941,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>H49099418</t>
+          <t>E33475889</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>adress25,25 5 - A  City25, (Province25) 47636</t>
+          <t>adress25,25 18 - E  City25, (Province25) 53882</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1960,12 +1960,12 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>979174794</v>
+        <v>947731751</v>
       </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
-          <t>C28.2.4 - Manufacture of power-driven hand tools</t>
+          <t>J62.0.3 - Computer facilities management activities</t>
         </is>
       </c>
       <c r="I25" t="n">
@@ -1981,12 +1981,12 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>10 - 50</t>
+          <t xml:space="preserve"> &gt; 250</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>2024-01-06 23:00:00</t>
+          <t>2024-01-08 03:00:00</t>
         </is>
       </c>
       <c r="N25" t="n">
@@ -2004,12 +2004,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>G29151395</t>
+          <t>W54648429</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>adress26,26 16 - F  City26, (Province26) 77427</t>
+          <t>adress26,26 12 - E  City26, (Province26) 35383</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -2023,12 +2023,12 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>927703145</v>
+        <v>920992341</v>
       </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr">
         <is>
-          <t>C17 - Manufacture of paper and paper products</t>
+          <t>T97.0.0 - Activities of households as employers of domestic personnel</t>
         </is>
       </c>
       <c r="I26" t="n">
@@ -2039,21 +2039,21 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Pool</t>
+          <t>Contact</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt; 10</t>
+          <t>50 - 250</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>2024-01-07 07:00:00</t>
+          <t>2024-01-08 15:00:00</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -2067,12 +2067,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>V73126397</t>
+          <t>U16967639</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>adress27,27 19 - C  City27, (Province27) 75934</t>
+          <t>adress27,27 19 - V  City27, (Province27) 20309</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -2086,12 +2086,12 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>929192850</v>
+        <v>909937052</v>
       </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
         <is>
-          <t>J62.0 - Computer programming, consultancy and related activities</t>
+          <t>K66.1.9 - Other activities auxiliary to financial services, except insurance and pension funding</t>
         </is>
       </c>
       <c r="I27" t="n">
@@ -2112,7 +2112,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>2024-01-07 16:00:00</t>
+          <t>2024-01-08 18:00:00</t>
         </is>
       </c>
       <c r="N27" t="n">
@@ -2130,12 +2130,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>A65224837</t>
+          <t>A61544277</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>adress28,28 3 - C  City28, (Province28) 28291</t>
+          <t>adress28,28 17 - J  City28, (Province28) 13211</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -2149,12 +2149,12 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>985761602</v>
+        <v>994501355</v>
       </c>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
         <is>
-          <t>C29.1.0 - Manufacture of motor vehicles</t>
+          <t>G47.8.2 - Retail sale via stalls and markets of textiles, clothing and footwear</t>
         </is>
       </c>
       <c r="I28" t="n">
@@ -2165,21 +2165,21 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Contact</t>
+          <t>Pool</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>10 - 50</t>
+          <t>50 - 250</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>2024-01-07 17:00:00</t>
+          <t>2024-01-08 22:00:00</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -2193,12 +2193,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>B43916064</t>
+          <t>H29914814</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>adress29,29 18 - R  City29, (Province29) 82617</t>
+          <t>adress29,29 6 - A  City29, (Province29) 41128</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -2212,12 +2212,12 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>999291189</v>
+        <v>986979264</v>
       </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr">
         <is>
-          <t>C28.2.2 - Manufacture of lifting and handling equipment</t>
+          <t>R91.0 - Libraries, archives, museums and other cultural activities</t>
         </is>
       </c>
       <c r="I29" t="n">
@@ -2228,21 +2228,21 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Contact</t>
+          <t>Pool</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &gt; 250</t>
+          <t>10 - 50</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>2024-01-08 05:00:00</t>
+          <t>2024-01-09 01:00:00</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -2256,12 +2256,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>N26764652</t>
+          <t>W12239119</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>adress30,30 9 - F  City30, (Province30) 55280</t>
+          <t>adress30,30 6 - Q  City30, (Province30) 80048</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -2275,12 +2275,12 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>936044539</v>
+        <v>906867152</v>
       </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr">
         <is>
-          <t>J61.2 - Wireless telecommunications activities</t>
+          <t>C26.4.0 - Manufacture of consumer electronics</t>
         </is>
       </c>
       <c r="I30" t="n">
@@ -2291,21 +2291,21 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Contact</t>
+          <t>Pool</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>10 - 50</t>
+          <t>50 - 250</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>2024-01-08 14:00:00</t>
+          <t>2024-01-09 03:00:00</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -2319,12 +2319,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>F87003783</t>
+          <t>B36907623</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>adress31,31 2 - J  City31, (Province31) 21856</t>
+          <t>adress31,31 11 - W  City31, (Province31) 99415</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -2338,12 +2338,12 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>964939937</v>
+        <v>975495406</v>
       </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr">
         <is>
-          <t>J58.1.2 - Publishing of directories and mailing lists</t>
+          <t>C16.2.2 - Manufacture of assembled parquet floors</t>
         </is>
       </c>
       <c r="I31" t="n">
@@ -2354,7 +2354,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Pool</t>
+          <t>Contact</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -2364,11 +2364,11 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>2024-01-08 17:00:00</t>
+          <t>2024-01-09 09:00:00</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -2382,12 +2382,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>S31245217</t>
+          <t>H86298040</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>adress32,32 13 - B  City32, (Province32) 21005</t>
+          <t>adress32,32 13 - C  City32, (Province32) 97260</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -2401,12 +2401,12 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>908288288</v>
+        <v>946062699</v>
       </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr">
         <is>
-          <t>M69.1.0 - Legal activities</t>
+          <t>C25.4 - Manufacture of weapons and ammunition</t>
         </is>
       </c>
       <c r="I32" t="n">
@@ -2422,12 +2422,12 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt; 10</t>
+          <t xml:space="preserve"> &gt; 250</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>2024-01-08 22:00:00</t>
+          <t>2024-01-09 15:00:00</t>
         </is>
       </c>
       <c r="N32" t="n">
@@ -2445,12 +2445,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>B85902081</t>
+          <t>A60275802</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>adress33,33 16 - Q  City33, (Province33) 33521</t>
+          <t>adress33,33 11 - U  City33, (Province33) 94864</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -2464,12 +2464,12 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>994931693</v>
+        <v>980529978</v>
       </c>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr">
         <is>
-          <t>C20.5.2 - Manufacture of glues</t>
+          <t>A1.4 - Animal production</t>
         </is>
       </c>
       <c r="I33" t="n">
@@ -2485,12 +2485,12 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt; 10</t>
+          <t>10 - 50</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>2024-01-09 00:00:00</t>
+          <t>2024-01-10 03:00:00</t>
         </is>
       </c>
       <c r="N33" t="n">
@@ -2508,12 +2508,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>V34165113</t>
+          <t>P15975217</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>adress34,34 2 - W  City34, (Province34) 75305</t>
+          <t>adress34,34 6 - N  City34, (Province34) 90013</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -2527,12 +2527,12 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>913298472</v>
+        <v>944450585</v>
       </c>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr">
         <is>
-          <t>G45.2 - Maintenance and repair of motor vehicles</t>
+          <t>M71.1.2 - Engineering activities and related technical consultancy</t>
         </is>
       </c>
       <c r="I34" t="n">
@@ -2543,7 +2543,7 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Pool</t>
+          <t>Contact</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
@@ -2553,11 +2553,11 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>2024-01-09 02:00:00</t>
+          <t>2024-01-10 15:00:00</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -2571,12 +2571,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>U23968633</t>
+          <t>C86778529</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>adress35,35 10 - P  City35, (Province35) 99559</t>
+          <t>adress35,35 10 - W  City35, (Province35) 60052</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2590,12 +2590,12 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>970945335</v>
+        <v>966343267</v>
       </c>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr">
         <is>
-          <t>C10.8.9 - Manufacture of other food products n.e.c.</t>
+          <t>E36.0.0 - Water collection, treatment and supply</t>
         </is>
       </c>
       <c r="I35" t="n">
@@ -2616,7 +2616,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>2024-01-09 03:00:00</t>
+          <t>2024-01-11 01:00:00</t>
         </is>
       </c>
       <c r="N35" t="n">
@@ -2634,12 +2634,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>P22262905</t>
+          <t>F07103430</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>adress36,36 4 - U  City36, (Province36) 63428</t>
+          <t>adress36,36 13 - E  City36, (Province36) 89826</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2653,12 +2653,12 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>926290919</v>
+        <v>943401404</v>
       </c>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr">
         <is>
-          <t>M74.9.0 - Other professional, scientific and technical activities n.e.c.</t>
+          <t>M71.1 - Architectural and engineering activities and related technical consultancy</t>
         </is>
       </c>
       <c r="I36" t="n">
@@ -2669,21 +2669,21 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Contact</t>
+          <t>Pool</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt; 10</t>
+          <t>50 - 250</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>2024-01-09 13:00:00</t>
+          <t>2024-01-11 03:00:00</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -2697,12 +2697,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>V18148625</t>
+          <t>J51731125</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>adress37,37 11 - F  City37, (Province37) 57831</t>
+          <t>adress37,37 10 - C  City37, (Province37) 57022</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2716,12 +2716,12 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>945371982</v>
+        <v>939350846</v>
       </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr">
         <is>
-          <t>C10.8.2 - Manufacture of cocoa, chocolate and sugar confectionery</t>
+          <t>A1.5.0 - Mixed farming</t>
         </is>
       </c>
       <c r="I37" t="n">
@@ -2732,7 +2732,7 @@
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Pool</t>
+          <t>Contact</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -2742,11 +2742,11 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>2024-01-09 16:00:00</t>
+          <t>2024-01-11 08:00:00</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -2760,12 +2760,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>R63414124</t>
+          <t>G20437014</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>adress38,38 1 - G  City38, (Province38) 59467</t>
+          <t>adress38,38 6 - F  City38, (Province38) 08641</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2779,12 +2779,12 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>997195948</v>
+        <v>957678694</v>
       </c>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr">
         <is>
-          <t>G47.2.1 - Retail sale of fruit and vegetables in specialised stores</t>
+          <t>H52.2.2 - Service activities incidental to water transportation</t>
         </is>
       </c>
       <c r="I38" t="n">
@@ -2795,7 +2795,7 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Pool</t>
+          <t>Contact</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -2805,11 +2805,11 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>2024-01-09 18:00:00</t>
+          <t>2024-01-11 19:00:00</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -2823,12 +2823,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>A10280534</t>
+          <t>H53524578</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>adress39,39 15 - R  City39, (Province39) 05854</t>
+          <t>adress39,39 14 - S  City39, (Province39) 83185</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -2842,12 +2842,12 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>998787178</v>
+        <v>996708001</v>
       </c>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Q87.3 - Residential care activities for the elderly and disabled</t>
+          <t>B8.9.1 - Mining of chemical and fertiliser minerals</t>
         </is>
       </c>
       <c r="I39" t="n">
@@ -2858,21 +2858,21 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Pool</t>
+          <t>Contact</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt; 10</t>
+          <t>10 - 50</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>2024-01-09 23:00:00</t>
+          <t>2024-01-11 22:00:00</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -2886,12 +2886,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>P39668273</t>
+          <t>G56283506</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>adress40,40 8 - Q  City40, (Province40) 68761</t>
+          <t>adress40,40 17 - B  City40, (Province40) 94681</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2905,12 +2905,12 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>921012760</v>
+        <v>960942573</v>
       </c>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr">
         <is>
-          <t>L68.2 - Renting and operating of own or leased real estate</t>
+          <t>E38 - Waste collection, treatment and disposal activities; materials recovery</t>
         </is>
       </c>
       <c r="I40" t="n">
@@ -2926,12 +2926,12 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &gt; 250</t>
+          <t>10 - 50</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>2024-01-10 06:00:00</t>
+          <t>2024-01-12 09:00:00</t>
         </is>
       </c>
       <c r="N40" t="n">
@@ -2949,12 +2949,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>H30370627</t>
+          <t>E34433001</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>adress41,41 3 - G  City41, (Province41) 84856</t>
+          <t>adress41,41 8 - B  City41, (Province41) 22880</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2968,12 +2968,12 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>988412821</v>
+        <v>949403297</v>
       </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr">
         <is>
-          <t>F43.3.1 - Plastering</t>
+          <t>C12.0.0 - Manufacture of tobacco products</t>
         </is>
       </c>
       <c r="I41" t="n">
@@ -2989,12 +2989,12 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>10 - 50</t>
+          <t xml:space="preserve"> &lt; 10</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>2024-01-10 15:00:00</t>
+          <t>2024-01-12 16:00:00</t>
         </is>
       </c>
       <c r="N41" t="n">
@@ -3012,12 +3012,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>C52921522</t>
+          <t>H37029799</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>adress42,42 20 - H  City42, (Province42) 99659</t>
+          <t>adress42,42 7 - B  City42, (Province42) 49726</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -3031,12 +3031,12 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>995949098</v>
+        <v>972504713</v>
       </c>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr">
         <is>
-          <t>G46.4.9 - Wholesale of other household goods</t>
+          <t>M74.9.0 - Other professional, scientific and technical activities n.e.c.</t>
         </is>
       </c>
       <c r="I42" t="n">
@@ -3047,21 +3047,21 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Contact</t>
+          <t>Pool</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>50 - 250</t>
+          <t>10 - 50</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>2024-01-10 23:00:00</t>
+          <t>2024-01-12 20:00:00</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -3075,12 +3075,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>N78303148</t>
+          <t>W23556069</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>adress43,43 13 - H  City43, (Province43) 10840</t>
+          <t>adress43,43 7 - Q  City43, (Province43) 65028</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -3094,12 +3094,12 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>914423025</v>
+        <v>942780698</v>
       </c>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr">
         <is>
-          <t>E37.0.0 - Sewerage</t>
+          <t>N77.2.1 - Renting and leasing of recreational and sports goods</t>
         </is>
       </c>
       <c r="I43" t="n">
@@ -3110,21 +3110,21 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Pool</t>
+          <t>Contact</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>50 - 250</t>
+          <t xml:space="preserve"> &lt; 10</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>2024-01-11 02:00:00</t>
+          <t>2024-01-13 00:00:00</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -3138,12 +3138,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>H61837340</t>
+          <t>C25466473</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>adress44,44 8 - C  City44, (Province44) 89252</t>
+          <t>adress44,44 4 - W  City44, (Province44) 80986</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -3157,12 +3157,12 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>907309224</v>
+        <v>918473373</v>
       </c>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr">
         <is>
-          <t>H50.4 - Inland freight water transport</t>
+          <t>C25.2.1 - Manufacture of central heating radiators and boilers</t>
         </is>
       </c>
       <c r="I44" t="n">
@@ -3173,21 +3173,21 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Pool</t>
+          <t>Contact</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>10 - 50</t>
+          <t xml:space="preserve"> &gt; 250</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>2024-01-11 08:00:00</t>
+          <t>2024-01-13 10:00:00</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -3201,12 +3201,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>N50208546</t>
+          <t>W19486398</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>adress45,45 15 - C  City45, (Province45) 60478</t>
+          <t>adress45,45 17 - U  City45, (Province45) 42739</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -3220,12 +3220,12 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>944740243</v>
+        <v>903683397</v>
       </c>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr">
         <is>
-          <t>C30.9.2 - Manufacture of bicycles and invalid carriages</t>
+          <t>T97.0.0 - Activities of households as employers of domestic personnel</t>
         </is>
       </c>
       <c r="I45" t="n">
@@ -3236,21 +3236,21 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Contact</t>
+          <t>Pool</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &gt; 250</t>
+          <t xml:space="preserve"> &lt; 10</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>2024-01-11 17:00:00</t>
+          <t>2024-01-13 21:00:00</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -3264,12 +3264,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>R70679933</t>
+          <t>N79298302</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>adress46,46 11 - W  City46, (Province46) 27347</t>
+          <t>adress46,46 10 - G  City46, (Province46) 26770</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -3283,12 +3283,12 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>976545241</v>
+        <v>930459723</v>
       </c>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr">
         <is>
-          <t>C24.3 - Manufacture of other products of first processing of steel</t>
+          <t>F41.2 - Construction of residential and non-residential buildings</t>
         </is>
       </c>
       <c r="I46" t="n">
@@ -3304,12 +3304,12 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>50 - 250</t>
+          <t>10 - 50</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>2024-01-12 00:00:00</t>
+          <t>2024-01-13 23:00:00</t>
         </is>
       </c>
       <c r="N46" t="n">
@@ -3327,12 +3327,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>G11119963</t>
+          <t>J78162858</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>adress47,47 9 - P  City47, (Province47) 78016</t>
+          <t>adress47,47 15 - B  City47, (Province47) 51054</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -3346,12 +3346,12 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>948609171</v>
+        <v>912753768</v>
       </c>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr">
         <is>
-          <t>P85.6 - Educational support activities</t>
+          <t>Q88.9.1 - Child day-care activities</t>
         </is>
       </c>
       <c r="I47" t="n">
@@ -3362,21 +3362,21 @@
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Pool</t>
+          <t>Contact</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt; 10</t>
+          <t xml:space="preserve"> &gt; 250</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>2024-01-12 01:00:00</t>
+          <t>2024-01-14 05:00:00</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O47" t="n">
         <v>0</v>
@@ -3390,12 +3390,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Q03505969</t>
+          <t>R83214221</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>adress48,48 1 - C  City48, (Province48) 85194</t>
+          <t>adress48,48 20 - V  City48, (Province48) 05266</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -3409,12 +3409,12 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>995054616</v>
+        <v>967420048</v>
       </c>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr">
         <is>
-          <t>N77.3 - Renting and leasing of other machinery, equipment and tangible goods</t>
+          <t>Q88.9.1 - Child day-care activities</t>
         </is>
       </c>
       <c r="I48" t="n">
@@ -3425,21 +3425,21 @@
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Contact</t>
+          <t>Pool</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>10 - 50</t>
+          <t xml:space="preserve"> &gt; 250</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>2024-01-12 06:00:00</t>
+          <t>2024-01-14 08:00:00</t>
         </is>
       </c>
       <c r="N48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O48" t="n">
         <v>0</v>
@@ -3453,12 +3453,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>U75019576</t>
+          <t>W59663420</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>adress49,49 16 - G  City49, (Province49) 30913</t>
+          <t>adress49,49 18 - E  City49, (Province49) 81166</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -3472,12 +3472,12 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>988374787</v>
+        <v>915417760</v>
       </c>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr">
         <is>
-          <t>H - Transporting and storage</t>
+          <t>C17.1 - Manufacture of pulp, paper and paperboard</t>
         </is>
       </c>
       <c r="I49" t="n">
@@ -3488,21 +3488,21 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Pool</t>
+          <t>Contact</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &gt; 250</t>
+          <t xml:space="preserve"> &lt; 10</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>2024-01-12 10:00:00</t>
+          <t>2024-01-14 17:00:00</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O49" t="n">
         <v>0</v>
@@ -3516,12 +3516,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>F55439588</t>
+          <t>V16732730</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>adress50,50 13 - F  City50, (Province50) 30942</t>
+          <t>adress50,50 13 - P  City50, (Province50) 51093</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -3535,12 +3535,12 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>908838718</v>
+        <v>906826944</v>
       </c>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr">
         <is>
-          <t>C24.4.6 - Processing of nuclear fuel</t>
+          <t>C10.3.9 - Other processing and preserving of fruit and vegetables</t>
         </is>
       </c>
       <c r="I50" t="n">
@@ -3551,7 +3551,7 @@
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Pool</t>
+          <t>Contact</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
@@ -3561,11 +3561,11 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>2024-01-12 21:00:00</t>
+          <t>2024-01-14 23:00:00</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O50" t="n">
         <v>0</v>
@@ -3579,12 +3579,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>B65133592</t>
+          <t>S74212042</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>adress51,51 6 - U  City51, (Province51) 65988</t>
+          <t>adress51,51 14 - P  City51, (Province51) 21989</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -3598,12 +3598,12 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>980814494</v>
+        <v>930651282</v>
       </c>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr">
         <is>
-          <t>S - Other services activities</t>
+          <t>J63.9.9 - Other information service activities n.e.c.</t>
         </is>
       </c>
       <c r="I51" t="n">
@@ -3614,21 +3614,21 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Contact</t>
+          <t>Pool</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>50 - 250</t>
+          <t xml:space="preserve"> &lt; 10</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>2024-01-13 09:00:00</t>
+          <t>2024-01-15 08:00:00</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O51" t="n">
         <v>0</v>
@@ -3642,12 +3642,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>H21966408</t>
+          <t>B22055548</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>adress52,52 12 - A  City52, (Province52) 27565</t>
+          <t>adress52,52 6 - U  City52, (Province52) 71193</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -3661,12 +3661,12 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>910501188</v>
+        <v>963347151</v>
       </c>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr">
         <is>
-          <t>C18 - Printing and reproduction of recorded media</t>
+          <t>A1.1.6 - Growing of fibre crops</t>
         </is>
       </c>
       <c r="I52" t="n">
@@ -3677,7 +3677,7 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Contact</t>
+          <t>Pool</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
@@ -3687,11 +3687,11 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>2024-01-13 11:00:00</t>
+          <t>2024-01-15 10:00:00</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O52" t="n">
         <v>0</v>
@@ -3705,12 +3705,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>F89030071</t>
+          <t>P53348330</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>adress53,53 8 - C  City53, (Province53) 82703</t>
+          <t>adress53,53 18 - F  City53, (Province53) 88874</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -3724,12 +3724,12 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>901601509</v>
+        <v>932988114</v>
       </c>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr">
         <is>
-          <t>C28.1.3 - Manufacture of other pumps and compressors</t>
+          <t>C14.1.4 - Manufacture of underwear</t>
         </is>
       </c>
       <c r="I53" t="n">
@@ -3750,7 +3750,7 @@
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>2024-01-13 19:00:00</t>
+          <t>2024-01-15 14:00:00</t>
         </is>
       </c>
       <c r="N53" t="n">
@@ -3768,12 +3768,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>V08637565</t>
+          <t>A22223142</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>adress54,54 4 - B  City54, (Province54) 53998</t>
+          <t>adress54,54 16 - R  City54, (Province54) 45047</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -3787,12 +3787,12 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>929966911</v>
+        <v>930156244</v>
       </c>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr">
         <is>
-          <t>G46.2 - Wholesale of agricultural raw materials and live animals</t>
+          <t>A1.5.0 - Mixed farming</t>
         </is>
       </c>
       <c r="I54" t="n">
@@ -3808,12 +3808,12 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &gt; 250</t>
+          <t xml:space="preserve"> &lt; 10</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>2024-01-14 05:00:00</t>
+          <t>2024-01-15 17:00:00</t>
         </is>
       </c>
       <c r="N54" t="n">
@@ -3831,12 +3831,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>S10186475</t>
+          <t>V71893053</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>adress55,55 2 - H  City55, (Province55) 69363</t>
+          <t>adress55,55 12 - F  City55, (Province55) 72488</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -3850,12 +3850,12 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>982733180</v>
+        <v>997710167</v>
       </c>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr">
         <is>
-          <t>J61.3 - Satellite telecommunications activities</t>
+          <t>J59.2.0 - Sound recording and music publishing activities</t>
         </is>
       </c>
       <c r="I55" t="n">
@@ -3871,12 +3871,12 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &gt; 250</t>
+          <t>50 - 250</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>2024-01-14 15:00:00</t>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
       <c r="N55" t="n">
@@ -3894,12 +3894,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>P55252146</t>
+          <t>C25542330</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>adress56,56 9 - C  City56, (Province56) 89706</t>
+          <t>adress56,56 13 - R  City56, (Province56) 03823</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -3913,12 +3913,12 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>908640201</v>
+        <v>955010973</v>
       </c>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr">
         <is>
-          <t>C25.4.0 - Manufacture of weapons and ammunition</t>
+          <t>M75 - Veterinary activities</t>
         </is>
       </c>
       <c r="I56" t="n">
@@ -3934,12 +3934,12 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>50 - 250</t>
+          <t xml:space="preserve"> &lt; 10</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>2024-01-14 16:00:00</t>
+          <t>2024-01-16 01:00:00</t>
         </is>
       </c>
       <c r="N56" t="n">
@@ -3957,12 +3957,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>G05556013</t>
+          <t>W83537802</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>adress57,57 10 - U  City57, (Province57) 40046</t>
+          <t>adress57,57 20 - S  City57, (Province57) 27930</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -3976,12 +3976,12 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>980711853</v>
+        <v>993672805</v>
       </c>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr">
         <is>
-          <t>C21.2 - Manufacture of pharmaceutical preparations</t>
+          <t>C27.3 - Manufacture of wiring and wiring devices</t>
         </is>
       </c>
       <c r="I57" t="n">
@@ -3992,7 +3992,7 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Pool</t>
+          <t>Contact</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
@@ -4002,11 +4002,11 @@
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>2024-01-15 03:00:00</t>
+          <t>2024-01-16 10:00:00</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O57" t="n">
         <v>0</v>
@@ -4020,12 +4020,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>J47118020</t>
+          <t>U19229861</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>adress58,58 6 - B  City58, (Province58) 55624</t>
+          <t>adress58,58 1 - E  City58, (Province58) 96278</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -4039,12 +4039,12 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>993007027</v>
+        <v>938758513</v>
       </c>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr">
         <is>
-          <t>C17.2 - Manufacture of articles of paper and paperboard</t>
+          <t>M74 - Other professional, scientific and technical activities</t>
         </is>
       </c>
       <c r="I58" t="n">
@@ -4060,12 +4060,12 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt; 10</t>
+          <t>50 - 250</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>2024-01-15 15:00:00</t>
+          <t>2024-01-16 16:00:00</t>
         </is>
       </c>
       <c r="N58" t="n">
@@ -4083,12 +4083,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>U14126257</t>
+          <t>J40019890</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>adress59,59 4 - S  City59, (Province59) 29147</t>
+          <t>adress59,59 17 - B  City59, (Province59) 43602</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -4102,12 +4102,12 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>916211503</v>
+        <v>950012858</v>
       </c>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr">
         <is>
-          <t>D35.1.4 - Trade of electricity</t>
+          <t>G47.6 - Retail sale of cultural and recreation goods in specialised stores</t>
         </is>
       </c>
       <c r="I59" t="n">
@@ -4123,12 +4123,12 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>10 - 50</t>
+          <t xml:space="preserve"> &gt; 250</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>2024-01-15 23:00:00</t>
+          <t>2024-01-16 19:00:00</t>
         </is>
       </c>
       <c r="N59" t="n">
@@ -4146,12 +4146,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>B11136489</t>
+          <t>E23552334</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>adress60,60 17 - N  City60, (Province60) 18382</t>
+          <t>adress60,60 1 - H  City60, (Province60) 12127</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -4165,12 +4165,12 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>936843151</v>
+        <v>903613654</v>
       </c>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr">
         <is>
-          <t>H49.4 - Freight transport by road and removal services</t>
+          <t>F43.9.1 - Roofing activities</t>
         </is>
       </c>
       <c r="I60" t="n">
@@ -4186,12 +4186,12 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &gt; 250</t>
+          <t>10 - 50</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>2024-01-16 03:00:00</t>
+          <t>2024-01-17 03:00:00</t>
         </is>
       </c>
       <c r="N60" t="n">
@@ -4209,12 +4209,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>A05524527</t>
+          <t>W78337924</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>adress61,61 20 - B  City61, (Province61) 80513</t>
+          <t>adress61,61 3 - H  City61, (Province61) 69278</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -4228,12 +4228,12 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>911447470</v>
+        <v>912427952</v>
       </c>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr">
         <is>
-          <t>C33.1.3 - Repair of electronic and optical equipment</t>
+          <t>R91 - Libraries, archives, museums and other cultural activities</t>
         </is>
       </c>
       <c r="I61" t="n">
@@ -4254,7 +4254,7 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>2024-01-16 05:00:00</t>
+          <t>2024-01-17 13:00:00</t>
         </is>
       </c>
       <c r="N61" t="n">
@@ -4272,12 +4272,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>G11726116</t>
+          <t>J10648654</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>adress62,62 16 - F  City62, (Province62) 16798</t>
+          <t>adress62,62 15 - P  City62, (Province62) 57548</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -4291,12 +4291,12 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>935995418</v>
+        <v>904272879</v>
       </c>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr">
         <is>
-          <t>C33.1.2 - Repair of machinery</t>
+          <t>K66.2 - Activities auxiliary to insurance and pension funding</t>
         </is>
       </c>
       <c r="I62" t="n">
@@ -4307,21 +4307,21 @@
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Contact</t>
+          <t>Pool</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>50 - 250</t>
+          <t xml:space="preserve"> &gt; 250</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>2024-01-16 11:00:00</t>
+          <t>2024-01-17 23:00:00</t>
         </is>
       </c>
       <c r="N62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O62" t="n">
         <v>0</v>
@@ -4335,12 +4335,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>P35365678</t>
+          <t>C17186014</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>adress63,63 6 - C  City63, (Province63) 45877</t>
+          <t>adress63,63 7 - P  City63, (Province63) 48860</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -4354,12 +4354,12 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>915393437</v>
+        <v>906215932</v>
       </c>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr">
         <is>
-          <t>R91 - Libraries, archives, museums and other cultural activities</t>
+          <t>G45.3 - Sale of motor vehicle parts and accessories</t>
         </is>
       </c>
       <c r="I63" t="n">
@@ -4380,7 +4380,7 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>2024-01-16 16:00:00</t>
+          <t>2024-01-18 07:00:00</t>
         </is>
       </c>
       <c r="N63" t="n">
@@ -4398,12 +4398,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>B08441854</t>
+          <t>N26189819</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>adress64,64 17 - E  City64, (Province64) 81458</t>
+          <t>adress64,64 20 - G  City64, (Province64) 25569</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -4417,12 +4417,12 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>954385916</v>
+        <v>985618814</v>
       </c>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr">
         <is>
-          <t>R93.1.9 - Other sports activities</t>
+          <t>A2.2 - Logging</t>
         </is>
       </c>
       <c r="I64" t="n">
@@ -4433,7 +4433,7 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Pool</t>
+          <t>Contact</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
@@ -4443,11 +4443,11 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>2024-01-17 04:00:00</t>
+          <t>2024-01-18 16:00:00</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O64" t="n">
         <v>0</v>
@@ -4461,12 +4461,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>E57386095</t>
+          <t>R23125132</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>adress65,65 13 - C  City65, (Province65) 34897</t>
+          <t>adress65,65 6 - C  City65, (Province65) 71659</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -4480,12 +4480,12 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>993479760</v>
+        <v>989655082</v>
       </c>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr">
         <is>
-          <t>C14.1.4 - Manufacture of underwear</t>
+          <t>E39.0 - Remediation activities and other waste management services</t>
         </is>
       </c>
       <c r="I65" t="n">
@@ -4506,7 +4506,7 @@
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>2024-01-17 10:00:00</t>
+          <t>2024-01-18 21:00:00</t>
         </is>
       </c>
       <c r="N65" t="n">
@@ -4524,12 +4524,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>U50590699</t>
+          <t>V19925640</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>adress66,66 17 - W  City66, (Province66) 99924</t>
+          <t>adress66,66 17 - B  City66, (Province66) 52783</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -4543,12 +4543,12 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>958718259</v>
+        <v>951812616</v>
       </c>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr">
         <is>
-          <t>C28.2 - Manufacture of other general-purpose machinery</t>
+          <t>C16.2.3 - Manufacture of other builders' carpentry and joinery</t>
         </is>
       </c>
       <c r="I66" t="n">
@@ -4559,21 +4559,21 @@
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Contact</t>
+          <t>Pool</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt; 10</t>
+          <t xml:space="preserve"> &gt; 250</t>
         </is>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>2024-01-17 13:00:00</t>
+          <t>2024-01-19 00:00:00</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O66" t="n">
         <v>0</v>
@@ -4587,12 +4587,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>W38752346</t>
+          <t>J26121030</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>adress67,67 11 - V  City67, (Province67) 57579</t>
+          <t>adress67,67 12 - A  City67, (Province67) 70379</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -4606,12 +4606,12 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>964852262</v>
+        <v>981904996</v>
       </c>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr">
         <is>
-          <t>C33.2.0 - Installation of industrial machinery and equipment</t>
+          <t>C13.9.2 - Manufacture of made-up textile articles, except apparel</t>
         </is>
       </c>
       <c r="I67" t="n">
@@ -4632,7 +4632,7 @@
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>2024-01-17 14:00:00</t>
+          <t>2024-01-19 02:00:00</t>
         </is>
       </c>
       <c r="N67" t="n">
@@ -4650,12 +4650,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>N94980805</t>
+          <t>B57128873</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>adress68,68 20 - F  City68, (Province68) 80787</t>
+          <t>adress68,68 14 - V  City68, (Province68) 98947</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -4669,12 +4669,12 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>936379256</v>
+        <v>954617315</v>
       </c>
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr">
         <is>
-          <t>S - Other services activities</t>
+          <t>C13.9.6 - Manufacture of other technical and industrial textiles</t>
         </is>
       </c>
       <c r="I68" t="n">
@@ -4685,21 +4685,21 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Contact</t>
+          <t>Pool</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt; 10</t>
+          <t>10 - 50</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>2024-01-17 17:00:00</t>
+          <t>2024-01-19 05:00:00</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O68" t="n">
         <v>0</v>
@@ -4713,12 +4713,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>C45852737</t>
+          <t>V20598697</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>adress69,69 1 - Q  City69, (Province69) 77059</t>
+          <t>adress69,69 14 - H  City69, (Province69) 16744</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -4732,12 +4732,12 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>947442755</v>
+        <v>940105747</v>
       </c>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr">
         <is>
-          <t>D - Electricity, gas, steam and air conditioning supply</t>
+          <t>C24.3.2 - Cold rolling of narrow strip</t>
         </is>
       </c>
       <c r="I69" t="n">
@@ -4748,7 +4748,7 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Pool</t>
+          <t>Contact</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
@@ -4758,11 +4758,11 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>2024-01-17 18:00:00</t>
+          <t>2024-01-19 15:00:00</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O69" t="n">
         <v>0</v>
@@ -4776,12 +4776,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>H71261028</t>
+          <t>C70769604</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>adress70,70 5 - H  City70, (Province70) 78184</t>
+          <t>adress70,70 14 - E  City70, (Province70) 44838</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -4795,12 +4795,12 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>975232551</v>
+        <v>998147760</v>
       </c>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr">
         <is>
-          <t>H51.1.0 - Passenger air transport</t>
+          <t>C24.3.2 - Cold rolling of narrow strip</t>
         </is>
       </c>
       <c r="I70" t="n">
@@ -4811,21 +4811,21 @@
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Contact</t>
+          <t>Pool</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>10 - 50</t>
+          <t>50 - 250</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>2024-01-18 05:00:00</t>
+          <t>2024-01-20 03:00:00</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O70" t="n">
         <v>0</v>
@@ -4839,12 +4839,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Q48350570</t>
+          <t>Q25849927</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>adress71,71 17 - F  City71, (Province71) 60701</t>
+          <t>adress71,71 1 - Q  City71, (Province71) 31889</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -4858,12 +4858,12 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>935541610</v>
+        <v>973553623</v>
       </c>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr">
         <is>
-          <t>J63.1 - Data processing, hosting and related activities; web portals</t>
+          <t>C13.2.0 - Weaving of textiles</t>
         </is>
       </c>
       <c r="I71" t="n">
@@ -4884,7 +4884,7 @@
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>2024-01-18 09:00:00</t>
+          <t>2024-01-20 13:00:00</t>
         </is>
       </c>
       <c r="N71" t="n">
@@ -4902,12 +4902,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>J55382534</t>
+          <t>W75961573</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>adress72,72 14 - H  City72, (Province72) 84444</t>
+          <t>adress72,72 16 - C  City72, (Province72) 60625</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -4921,12 +4921,12 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>988857805</v>
+        <v>938314070</v>
       </c>
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr">
         <is>
-          <t>G46.4.1 - Wholesale of textiles</t>
+          <t>I55.3.0 - Camping grounds, recreational vehicle parks and trailer parks</t>
         </is>
       </c>
       <c r="I72" t="n">
@@ -4942,12 +4942,12 @@
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &gt; 250</t>
+          <t>10 - 50</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>2024-01-18 10:00:00</t>
+          <t>2024-01-20 18:00:00</t>
         </is>
       </c>
       <c r="N72" t="n">
@@ -4965,12 +4965,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>V84473798</t>
+          <t>E94002417</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>adress73,73 15 - G  City73, (Province73) 83649</t>
+          <t>adress73,73 3 - V  City73, (Province73) 62294</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -4984,12 +4984,12 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>935691326</v>
+        <v>979454571</v>
       </c>
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr">
         <is>
-          <t>C26.4 - Manufacture of consumer electronics</t>
+          <t>C27.3.1 - Manufacture of fibre optic cables</t>
         </is>
       </c>
       <c r="I73" t="n">
@@ -5000,21 +5000,21 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Pool</t>
+          <t>Contact</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>10 - 50</t>
+          <t xml:space="preserve"> &lt; 10</t>
         </is>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>2024-01-18 12:00:00</t>
+          <t>2024-01-21 05:00:00</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O73" t="n">
         <v>0</v>
@@ -5028,12 +5028,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Q29405020</t>
+          <t>W04057852</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>adress74,74 1 - W  City74, (Province74) 51598</t>
+          <t>adress74,74 9 - J  City74, (Province74) 11808</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -5047,12 +5047,12 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>991416292</v>
+        <v>943310450</v>
       </c>
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr">
         <is>
-          <t>U99.0.0 - Activities of extraterritorial organisations and bodies</t>
+          <t>C15 - Manufacture of leather and related products</t>
         </is>
       </c>
       <c r="I74" t="n">
@@ -5068,12 +5068,12 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt; 10</t>
+          <t>10 - 50</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>2024-01-18 22:00:00</t>
+          <t>2024-01-21 08:00:00</t>
         </is>
       </c>
       <c r="N74" t="n">
@@ -5091,12 +5091,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>C15186682</t>
+          <t>B26253377</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>adress75,75 4 - U  City75, (Province75) 61911</t>
+          <t>adress75,75 5 - B  City75, (Province75) 57044</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -5110,12 +5110,12 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>993882994</v>
+        <v>989810793</v>
       </c>
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr">
         <is>
-          <t>C20.5.2 - Manufacture of glues</t>
+          <t>G46.3.2 - Wholesale of meat and meat products</t>
         </is>
       </c>
       <c r="I75" t="n">
@@ -5136,7 +5136,7 @@
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>2024-01-19 02:00:00</t>
+          <t>2024-01-21 18:00:00</t>
         </is>
       </c>
       <c r="N75" t="n">
@@ -5154,12 +5154,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>V58037216</t>
+          <t>P11098639</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>adress76,76 1 - C  City76, (Province76) 92754</t>
+          <t>adress76,76 20 - H  City76, (Province76) 45856</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -5173,12 +5173,12 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>949646818</v>
+        <v>902264157</v>
       </c>
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr">
         <is>
-          <t>C24.5.1 - Casting of iron</t>
+          <t>C11.0 - Manufacture of beverages</t>
         </is>
       </c>
       <c r="I76" t="n">
@@ -5189,21 +5189,21 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>Pool</t>
+          <t>Contact</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>10 - 50</t>
+          <t xml:space="preserve"> &gt; 250</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>2024-01-19 10:00:00</t>
+          <t>2024-01-22 02:00:00</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O76" t="n">
         <v>0</v>
@@ -5217,12 +5217,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>A51414534</t>
+          <t>H31326012</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>adress77,77 20 - C  City77, (Province77) 78523</t>
+          <t>adress77,77 4 - N  City77, (Province77) 29426</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -5236,12 +5236,12 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>999595303</v>
+        <v>927819446</v>
       </c>
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr">
         <is>
-          <t>C11.0 - Manufacture of beverages</t>
+          <t>G46.1 - Wholesale on a fee or contract basis</t>
         </is>
       </c>
       <c r="I77" t="n">
@@ -5252,21 +5252,21 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Contact</t>
+          <t>Pool</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>10 - 50</t>
+          <t>50 - 250</t>
         </is>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>2024-01-19 19:00:00</t>
+          <t>2024-01-22 13:00:00</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O77" t="n">
         <v>0</v>
@@ -5280,12 +5280,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>R15038653</t>
+          <t>Q15731154</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>adress78,78 19 - A  City78, (Province78) 45011</t>
+          <t>adress78,78 14 - R  City78, (Province78) 91977</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -5299,12 +5299,12 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>908148349</v>
+        <v>937194094</v>
       </c>
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr">
         <is>
-          <t>R91 - Libraries, archives, museums and other cultural activities</t>
+          <t>C33.1.6 - Repair and maintenance of aircraft and spacecraft</t>
         </is>
       </c>
       <c r="I78" t="n">
@@ -5315,7 +5315,7 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Contact</t>
+          <t>Pool</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
@@ -5325,11 +5325,11 @@
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>2024-01-19 20:00:00</t>
+          <t>2024-01-23 00:00:00</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O78" t="n">
         <v>0</v>
@@ -5343,12 +5343,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>C81333639</t>
+          <t>C49041254</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>adress79,79 18 - N  City79, (Province79) 84534</t>
+          <t>adress79,79 19 - V  City79, (Province79) 47276</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -5362,12 +5362,12 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>946140690</v>
+        <v>989646923</v>
       </c>
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr">
         <is>
-          <t>J59.1.4 - Motion picture projection activities</t>
+          <t>O84.2.1 - Foreign affairs</t>
         </is>
       </c>
       <c r="I79" t="n">
@@ -5378,21 +5378,21 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Pool</t>
+          <t>Contact</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt; 10</t>
+          <t xml:space="preserve"> &gt; 250</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>2024-01-19 23:00:00</t>
+          <t>2024-01-23 10:00:00</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O79" t="n">
         <v>0</v>
@@ -5406,12 +5406,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>J96933449</t>
+          <t>C71651345</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>adress80,80 18 - B  City80, (Province80) 32311</t>
+          <t>adress80,80 20 - P  City80, (Province80) 16441</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -5425,12 +5425,12 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>954017511</v>
+        <v>949379890</v>
       </c>
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr">
         <is>
-          <t>C33.1.5 - Repair and maintenance of ships and boats</t>
+          <t>J63.1.2 - Web portals</t>
         </is>
       </c>
       <c r="I80" t="n">
@@ -5446,12 +5446,12 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>10 - 50</t>
+          <t>50 - 250</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>2024-01-20 08:00:00</t>
+          <t>2024-01-23 13:00:00</t>
         </is>
       </c>
       <c r="N80" t="n">
@@ -5469,12 +5469,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>B78358972</t>
+          <t>H75350599</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>adress81,81 7 - B  City81, (Province81) 51118</t>
+          <t>adress81,81 2 - Q  City81, (Province81) 97939</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -5488,12 +5488,12 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>904134969</v>
+        <v>909652885</v>
       </c>
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr">
         <is>
-          <t>O84.2 - Provision of services to the community as a whole</t>
+          <t>C18.1.4 - Binding and related services</t>
         </is>
       </c>
       <c r="I81" t="n">
@@ -5509,12 +5509,12 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>50 - 250</t>
+          <t xml:space="preserve"> &gt; 250</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>2024-01-20 11:00:00</t>
+          <t>2024-01-23 22:00:00</t>
         </is>
       </c>
       <c r="N81" t="n">
@@ -5532,12 +5532,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>H78958455</t>
+          <t>V03722512</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>adress82,82 4 - F  City82, (Province82) 18108</t>
+          <t>adress82,82 19 - F  City82, (Province82) 87393</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -5551,12 +5551,12 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>979212732</v>
+        <v>933822176</v>
       </c>
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr">
         <is>
-          <t>C23.1.2 - Shaping and processing of flat glass</t>
+          <t>B9 - Mining support service activities</t>
         </is>
       </c>
       <c r="I82" t="n">
@@ -5567,21 +5567,21 @@
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Pool</t>
+          <t>Contact</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &gt; 250</t>
+          <t xml:space="preserve"> &lt; 10</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>2024-01-20 13:00:00</t>
+          <t>2024-01-24 10:00:00</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O82" t="n">
         <v>0</v>
@@ -5595,12 +5595,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>C29005430</t>
+          <t>S27560718</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>adress83,83 15 - R  City83, (Province83) 08104</t>
+          <t>adress83,83 7 - V  City83, (Province83) 26287</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -5614,12 +5614,12 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>965764022</v>
+        <v>902110274</v>
       </c>
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr">
         <is>
-          <t>C20.5.3 - Manufacture of essential oils</t>
+          <t>K65.3.0 - Pension funding</t>
         </is>
       </c>
       <c r="I83" t="n">
@@ -5630,21 +5630,21 @@
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Contact</t>
+          <t>Pool</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>50 - 250</t>
+          <t xml:space="preserve"> &lt; 10</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>2024-01-21 01:00:00</t>
+          <t>2024-01-24 18:00:00</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O83" t="n">
         <v>0</v>
@@ -5658,12 +5658,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>R78342158</t>
+          <t>R11151340</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>adress84,84 19 - E  City84, (Province84) 28843</t>
+          <t>adress84,84 16 - S  City84, (Province84) 48436</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -5677,12 +5677,12 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>976909742</v>
+        <v>901350980</v>
       </c>
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr">
         <is>
-          <t>C20.5.2 - Manufacture of glues</t>
+          <t>F43.1.1 - Demolition</t>
         </is>
       </c>
       <c r="I84" t="n">
@@ -5693,21 +5693,21 @@
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Contact</t>
+          <t>Pool</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>50 - 250</t>
+          <t xml:space="preserve"> &lt; 10</t>
         </is>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>2024-01-21 04:00:00</t>
+          <t>2024-01-24 19:00:00</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O84" t="n">
         <v>0</v>
@@ -5721,12 +5721,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>V67694622</t>
+          <t>V69503126</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>adress85,85 12 - B  City85, (Province85) 98919</t>
+          <t>adress85,85 15 - F  City85, (Province85) 27764</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -5740,12 +5740,12 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>928769067</v>
+        <v>925215646</v>
       </c>
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr">
         <is>
-          <t>J59.1 - Motion picture, video and television programme activities</t>
+          <t>B8.1.1 - Quarrying of ornamental and building stone, limestone, gypsum, chalk and slate</t>
         </is>
       </c>
       <c r="I85" t="n">
@@ -5756,21 +5756,21 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>Pool</t>
+          <t>Contact</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt; 10</t>
+          <t xml:space="preserve"> &gt; 250</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>2024-01-21 05:00:00</t>
+          <t>2024-01-25 00:00:00</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O85" t="n">
         <v>0</v>
@@ -5784,12 +5784,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>P56524938</t>
+          <t>U18951409</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>adress86,86 15 - F  City86, (Province86) 29568</t>
+          <t>adress86,86 4 - S  City86, (Province86) 96127</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -5803,12 +5803,12 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>947536487</v>
+        <v>954891488</v>
       </c>
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr">
         <is>
-          <t>C22.1 - Manufacture of rubber products</t>
+          <t>A1.2.6 - Growing of oleaginous fruits</t>
         </is>
       </c>
       <c r="I86" t="n">
@@ -5819,21 +5819,21 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Contact</t>
+          <t>Pool</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt; 10</t>
+          <t>50 - 250</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>2024-01-21 13:00:00</t>
+          <t>2024-01-25 11:00:00</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O86" t="n">
         <v>0</v>
@@ -5847,12 +5847,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>N66365975</t>
+          <t>U10471103</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>adress87,87 6 - C  City87, (Province87) 57038</t>
+          <t>adress87,87 14 - A  City87, (Province87) 89447</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -5866,12 +5866,12 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>914438618</v>
+        <v>936332603</v>
       </c>
       <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr">
         <is>
-          <t>J59.2.0 - Sound recording and music publishing activities</t>
+          <t>C24.3.2 - Cold rolling of narrow strip</t>
         </is>
       </c>
       <c r="I87" t="n">
@@ -5882,21 +5882,21 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Pool</t>
+          <t>Contact</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &gt; 250</t>
+          <t xml:space="preserve"> &lt; 10</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>2024-01-22 00:00:00</t>
+          <t>2024-01-25 12:00:00</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O87" t="n">
         <v>0</v>
@@ -5910,12 +5910,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>A14659385</t>
+          <t>S00785262</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>adress88,88 13 - U  City88, (Province88) 36740</t>
+          <t>adress88,88 2 - B  City88, (Province88) 85406</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -5929,12 +5929,12 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>916746103</v>
+        <v>910125834</v>
       </c>
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr">
         <is>
-          <t>C33.2.0 - Installation of industrial machinery and equipment</t>
+          <t>F42.9.9 - Construction of other civil engineering projects n.e.c.</t>
         </is>
       </c>
       <c r="I88" t="n">
@@ -5950,12 +5950,12 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>10 - 50</t>
+          <t>50 - 250</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>2024-01-22 05:00:00</t>
+          <t>2024-01-25 13:00:00</t>
         </is>
       </c>
       <c r="N88" t="n">
@@ -5973,12 +5973,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>V02261350</t>
+          <t>U90278768</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>adress89,89 5 - A  City89, (Province89) 45392</t>
+          <t>adress89,89 14 - P  City89, (Province89) 77903</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -5992,12 +5992,12 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>957933447</v>
+        <v>909336263</v>
       </c>
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr">
         <is>
-          <t>H53.1.0 - Postal activities under universal service obligation</t>
+          <t>C14.3.9 - Manufacture of other knitted and crocheted apparel</t>
         </is>
       </c>
       <c r="I89" t="n">
@@ -6013,12 +6013,12 @@
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>50 - 250</t>
+          <t>10 - 50</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>2024-01-22 11:00:00</t>
+          <t>2024-01-25 22:00:00</t>
         </is>
       </c>
       <c r="N89" t="n">
@@ -6036,12 +6036,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>F37047531</t>
+          <t>N48584527</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>adress90,90 1 - B  City90, (Province90) 34377</t>
+          <t>adress90,90 13 - C  City90, (Province90) 33167</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -6055,12 +6055,12 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>917685876</v>
+        <v>913210769</v>
       </c>
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr">
         <is>
-          <t>K66 - Activities auxiliary to financial services and insurance activities</t>
+          <t>C10.8 - Manufacture of other food products</t>
         </is>
       </c>
       <c r="I90" t="n">
@@ -6081,7 +6081,7 @@
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>2024-01-22 14:00:00</t>
+          <t>2024-01-26 05:00:00</t>
         </is>
       </c>
       <c r="N90" t="n">
@@ -6099,12 +6099,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>H21217774</t>
+          <t>W12322036</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>adress91,91 20 - V  City91, (Province91) 14168</t>
+          <t>adress91,91 3 - V  City91, (Province91) 01874</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -6118,12 +6118,12 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>962145433</v>
+        <v>918436172</v>
       </c>
       <c r="G91" t="inlineStr"/>
       <c r="H91" t="inlineStr">
         <is>
-          <t>N77.3.5 - Renting and leasing of air transport equipment</t>
+          <t>C28.1.1 - Manufacture of engines and turbines, except aircraft, vehicle and cycle engines</t>
         </is>
       </c>
       <c r="I91" t="n">
@@ -6134,21 +6134,21 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>Contact</t>
+          <t>Pool</t>
         </is>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &gt; 250</t>
+          <t xml:space="preserve"> &lt; 10</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>2024-01-22 22:00:00</t>
+          <t>2024-01-26 14:00:00</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O91" t="n">
         <v>0</v>
@@ -6162,12 +6162,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>S65483406</t>
+          <t>F02566683</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>adress92,92 3 - G  City92, (Province92) 85608</t>
+          <t>adress92,92 18 - Q  City92, (Province92) 38594</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -6181,12 +6181,12 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>986809442</v>
+        <v>913244221</v>
       </c>
       <c r="G92" t="inlineStr"/>
       <c r="H92" t="inlineStr">
         <is>
-          <t>M74.3.0 - Translation and interpretation activities</t>
+          <t>G46.2.1 - Wholesale of grain, unmanufactured tobacco, seeds and animal feeds</t>
         </is>
       </c>
       <c r="I92" t="n">
@@ -6197,21 +6197,21 @@
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>Contact</t>
+          <t>Pool</t>
         </is>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &gt; 250</t>
+          <t>10 - 50</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>2024-01-23 02:00:00</t>
+          <t>2024-01-26 20:00:00</t>
         </is>
       </c>
       <c r="N92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O92" t="n">
         <v>0</v>
@@ -6225,12 +6225,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>U58210747</t>
+          <t>C66403230</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>adress93,93 8 - B  City93, (Province93) 26424</t>
+          <t>adress93,93 12 - F  City93, (Province93) 55857</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -6244,12 +6244,12 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>903786175</v>
+        <v>938114107</v>
       </c>
       <c r="G93" t="inlineStr"/>
       <c r="H93" t="inlineStr">
         <is>
-          <t>G46.1.9 - Agents involved in the sale of a variety of goods</t>
+          <t>C13 - Manufacture of textiles</t>
         </is>
       </c>
       <c r="I93" t="n">
@@ -6260,21 +6260,21 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>Contact</t>
+          <t>Pool</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>10 - 50</t>
+          <t xml:space="preserve"> &lt; 10</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>2024-01-23 10:00:00</t>
+          <t>2024-01-27 05:00:00</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O93" t="n">
         <v>0</v>
@@ -6288,12 +6288,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>A85059596</t>
+          <t>H97252755</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>adress94,94 19 - J  City94, (Province94) 44365</t>
+          <t>adress94,94 14 - N  City94, (Province94) 18938</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -6307,12 +6307,12 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>954832023</v>
+        <v>992525481</v>
       </c>
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr">
         <is>
-          <t>B7 - Mining of metal ores</t>
+          <t>C28.2.2 - Manufacture of lifting and handling equipment</t>
         </is>
       </c>
       <c r="I94" t="n">
@@ -6323,21 +6323,21 @@
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>Contact</t>
+          <t>Pool</t>
         </is>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>50 - 250</t>
+          <t xml:space="preserve"> &lt; 10</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>2024-01-23 12:00:00</t>
+          <t>2024-01-27 15:00:00</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O94" t="n">
         <v>0</v>
@@ -6351,12 +6351,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>E55096077</t>
+          <t>N88831391</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>adress95,95 2 - W  City95, (Province95) 39308</t>
+          <t>adress95,95 9 - P  City95, (Province95) 12187</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -6370,12 +6370,12 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>989278062</v>
+        <v>987698860</v>
       </c>
       <c r="G95" t="inlineStr"/>
       <c r="H95" t="inlineStr">
         <is>
-          <t>F42.2.1 - Construction of utility projects for fluids</t>
+          <t>J61.2 - Wireless telecommunications activities</t>
         </is>
       </c>
       <c r="I95" t="n">
@@ -6386,21 +6386,21 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>Pool</t>
+          <t>Contact</t>
         </is>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>10 - 50</t>
+          <t>50 - 250</t>
         </is>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>2024-01-23 16:00:00</t>
+          <t>2024-01-28 02:00:00</t>
         </is>
       </c>
       <c r="N95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O95" t="n">
         <v>0</v>
@@ -6414,12 +6414,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>J80128062</t>
+          <t>W14246833</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>adress96,96 13 - V  City96, (Province96) 44016</t>
+          <t>adress96,96 11 - C  City96, (Province96) 03656</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -6433,12 +6433,12 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>921893358</v>
+        <v>968741804</v>
       </c>
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr">
         <is>
-          <t>C30.2.0 - Manufacture of railway locomotives and rolling stock</t>
+          <t>C32.5 - Manufacture of medical and dental instruments and supplies</t>
         </is>
       </c>
       <c r="I96" t="n">
@@ -6459,7 +6459,7 @@
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>2024-01-23 19:00:00</t>
+          <t>2024-01-28 07:00:00</t>
         </is>
       </c>
       <c r="N96" t="n">
@@ -6477,12 +6477,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>H28423386</t>
+          <t>B06835384</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>adress97,97 6 - F  City97, (Province97) 16449</t>
+          <t>adress97,97 16 - G  City97, (Province97) 46054</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -6496,12 +6496,12 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>952835675</v>
+        <v>939755386</v>
       </c>
       <c r="G97" t="inlineStr"/>
       <c r="H97" t="inlineStr">
         <is>
-          <t>N80.1 - Private security activities</t>
+          <t>K66.2.9 - Other activities auxiliary to insurance and pension funding</t>
         </is>
       </c>
       <c r="I97" t="n">
@@ -6512,21 +6512,21 @@
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>Pool</t>
+          <t>Contact</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt; 10</t>
+          <t>50 - 250</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>2024-01-24 00:00:00</t>
+          <t>2024-01-28 13:00:00</t>
         </is>
       </c>
       <c r="N97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O97" t="n">
         <v>0</v>
@@ -6540,12 +6540,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>E51088668</t>
+          <t>A32078295</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>adress98,98 14 - E  City98, (Province98) 24729</t>
+          <t>adress98,98 11 - A  City98, (Province98) 57825</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -6559,12 +6559,12 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>927203886</v>
+        <v>986774578</v>
       </c>
       <c r="G98" t="inlineStr"/>
       <c r="H98" t="inlineStr">
         <is>
-          <t>R91 - Libraries, archives, museums and other cultural activities</t>
+          <t>S95.2.2 - Repair of household appliances and home and garden equipment</t>
         </is>
       </c>
       <c r="I98" t="n">
@@ -6580,12 +6580,12 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt; 10</t>
+          <t xml:space="preserve"> &gt; 250</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>2024-01-24 08:00:00</t>
+          <t>2024-01-29 01:00:00</t>
         </is>
       </c>
       <c r="N98" t="n">
@@ -6603,12 +6603,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>R89807303</t>
+          <t>H33892523</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>adress99,99 2 - C  City99, (Province99) 71999</t>
+          <t>adress99,99 5 - R  City99, (Province99) 05889</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -6622,12 +6622,12 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>922305358</v>
+        <v>990676477</v>
       </c>
       <c r="G99" t="inlineStr"/>
       <c r="H99" t="inlineStr">
         <is>
-          <t>N77.1 - Renting and leasing of motor vehicles</t>
+          <t>G47.5.4 - Retail sale of electrical household appliances in specialised stores</t>
         </is>
       </c>
       <c r="I99" t="n">
@@ -6648,7 +6648,7 @@
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>2024-01-24 15:00:00</t>
+          <t>2024-01-29 03:00:00</t>
         </is>
       </c>
       <c r="N99" t="n">
@@ -6666,12 +6666,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>J87309862</t>
+          <t>N80208199</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>adress100,100 20 - A  City100, (Province100) 40668</t>
+          <t>adress100,100 16 - P  City100, (Province100) 07780</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -6685,12 +6685,12 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>902742182</v>
+        <v>991056914</v>
       </c>
       <c r="G100" t="inlineStr"/>
       <c r="H100" t="inlineStr">
         <is>
-          <t>C27.5.2 - Manufacture of non-electric domestic appliances</t>
+          <t>C16.1 - Sawmilling and planing of wood</t>
         </is>
       </c>
       <c r="I100" t="n">
@@ -6706,12 +6706,12 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>10 - 50</t>
+          <t xml:space="preserve"> &lt; 10</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>2024-01-25 01:00:00</t>
+          <t>2024-01-29 12:00:00</t>
         </is>
       </c>
       <c r="N100" t="n">
@@ -6729,12 +6729,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>V85165153</t>
+          <t>F91565518</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>adress101,101 1 - A  City101, (Province101) 16496</t>
+          <t>adress101,101 12 - E  City101, (Province101) 14961</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -6748,12 +6748,12 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>989087530</v>
+        <v>932730658</v>
       </c>
       <c r="G101" t="inlineStr"/>
       <c r="H101" t="inlineStr">
         <is>
-          <t>C27.3.3 - Manufacture of wiring devices</t>
+          <t>G46.1.1 - Agents involved in the sale of agricultural raw materials, live animals, textile raw materials and semi-finished goods</t>
         </is>
       </c>
       <c r="I101" t="n">
@@ -6764,21 +6764,21 @@
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>Pool</t>
+          <t>Contact</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &gt; 250</t>
+          <t>50 - 250</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>2024-01-25 03:00:00</t>
+          <t>2024-01-29 17:00:00</t>
         </is>
       </c>
       <c r="N101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O101" t="n">
         <v>0</v>
@@ -6792,12 +6792,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Q39418205</t>
+          <t>C60248587</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>adress102,102 6 - S  City102, (Province102) 13651</t>
+          <t>adress102,102 9 - H  City102, (Province102) 46470</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -6811,12 +6811,12 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>949353436</v>
+        <v>904170783</v>
       </c>
       <c r="G102" t="inlineStr"/>
       <c r="H102" t="inlineStr">
         <is>
-          <t>G47.8 - Retail sale via stalls and markets</t>
+          <t>K66.1 - Activities auxiliary to financial services, except insurance and pension funding</t>
         </is>
       </c>
       <c r="I102" t="n">
@@ -6832,12 +6832,12 @@
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &gt; 250</t>
+          <t>10 - 50</t>
         </is>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>2024-01-25 08:00:00</t>
+          <t>2024-01-30 02:00:00</t>
         </is>
       </c>
       <c r="N102" t="n">
@@ -6855,12 +6855,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>R39603327</t>
+          <t>W02401403</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>adress103,103 19 - N  City103, (Province103) 55776</t>
+          <t>adress103,103 8 - G  City103, (Province103) 07492</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -6874,12 +6874,12 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>917276320</v>
+        <v>965532594</v>
       </c>
       <c r="G103" t="inlineStr"/>
       <c r="H103" t="inlineStr">
         <is>
-          <t>J61.3.0 - Satellite telecommunications activities</t>
+          <t>C16.2.3 - Manufacture of other builders' carpentry and joinery</t>
         </is>
       </c>
       <c r="I103" t="n">
@@ -6890,21 +6890,21 @@
       </c>
       <c r="K103" t="inlineStr">
         <is>
-          <t>Pool</t>
+          <t>Contact</t>
         </is>
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &gt; 250</t>
+          <t>10 - 50</t>
         </is>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>2024-01-25 10:00:00</t>
+          <t>2024-01-30 08:00:00</t>
         </is>
       </c>
       <c r="N103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O103" t="n">
         <v>0</v>
@@ -6918,12 +6918,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>S37684390</t>
+          <t>U45705656</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>adress104,104 2 - W  City104, (Province104) 60110</t>
+          <t>adress104,104 1 - J  City104, (Province104) 03592</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -6937,12 +6937,12 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>950915650</v>
+        <v>995282703</v>
       </c>
       <c r="G104" t="inlineStr"/>
       <c r="H104" t="inlineStr">
         <is>
-          <t>K66.1.9 - Other activities auxiliary to financial services, except insurance and pension funding</t>
+          <t>H50.3 - Inland passenger water transport</t>
         </is>
       </c>
       <c r="I104" t="n">
@@ -6958,12 +6958,12 @@
       </c>
       <c r="L104" t="inlineStr">
         <is>
-          <t>10 - 50</t>
+          <t xml:space="preserve"> &lt; 10</t>
         </is>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>2024-01-25 17:00:00</t>
+          <t>2024-01-30 11:00:00</t>
         </is>
       </c>
       <c r="N104" t="n">
@@ -6981,12 +6981,12 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>U15392088</t>
+          <t>B04587557</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>adress105,105 11 - J  City105, (Province105) 18256</t>
+          <t>adress105,105 3 - G  City105, (Province105) 02785</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -7000,12 +7000,12 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>997169710</v>
+        <v>985578626</v>
       </c>
       <c r="G105" t="inlineStr"/>
       <c r="H105" t="inlineStr">
         <is>
-          <t>G46.1.9 - Agents involved in the sale of a variety of goods</t>
+          <t>C32.1 - Manufacture of jewellery, bijouterie and related articles</t>
         </is>
       </c>
       <c r="I105" t="n">
@@ -7016,21 +7016,21 @@
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>Contact</t>
+          <t>Pool</t>
         </is>
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt; 10</t>
+          <t>10 - 50</t>
         </is>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>2024-01-25 18:00:00</t>
+          <t>2024-01-30 16:00:00</t>
         </is>
       </c>
       <c r="N105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O105" t="n">
         <v>0</v>
@@ -7044,12 +7044,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>E84943549</t>
+          <t>N89206673</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>adress106,106 1 - H  City106, (Province106) 37333</t>
+          <t>adress106,106 10 - H  City106, (Province106) 52641</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -7063,12 +7063,12 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>914553492</v>
+        <v>953798685</v>
       </c>
       <c r="G106" t="inlineStr"/>
       <c r="H106" t="inlineStr">
         <is>
-          <t>C26.1 - Manufacture of electronic components and boards</t>
+          <t>I56 - Food and beverage service activities</t>
         </is>
       </c>
       <c r="I106" t="n">
@@ -7079,21 +7079,21 @@
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>Pool</t>
+          <t>Contact</t>
         </is>
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &gt; 250</t>
+          <t>50 - 250</t>
         </is>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>2024-01-26 02:00:00</t>
+          <t>2024-01-31 03:00:00</t>
         </is>
       </c>
       <c r="N106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O106" t="n">
         <v>0</v>
@@ -7107,12 +7107,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>E90909464</t>
+          <t>J95458532</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>adress107,107 7 - F  City107, (Province107) 25760</t>
+          <t>adress107,107 6 - A  City107, (Province107) 59073</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -7126,12 +7126,12 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>938624811</v>
+        <v>903815362</v>
       </c>
       <c r="G107" t="inlineStr"/>
       <c r="H107" t="inlineStr">
         <is>
-          <t>R91.0.3 - Operation of historical sites and buildings and similar visitor attractions</t>
+          <t>C14.2.0 - Manufacture of articles of fur</t>
         </is>
       </c>
       <c r="I107" t="n">
@@ -7142,21 +7142,21 @@
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>Pool</t>
+          <t>Contact</t>
         </is>
       </c>
       <c r="L107" t="inlineStr">
         <is>
-          <t>50 - 250</t>
+          <t xml:space="preserve"> &lt; 10</t>
         </is>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>2024-01-26 03:00:00</t>
+          <t>2024-01-31 06:00:00</t>
         </is>
       </c>
       <c r="N107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O107" t="n">
         <v>0</v>
@@ -7170,12 +7170,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>B02801503</t>
+          <t>V84114887</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>adress108,108 5 - J  City108, (Province108) 28849</t>
+          <t>adress108,108 5 - B  City108, (Province108) 06144</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -7189,12 +7189,12 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>911088800</v>
+        <v>904768533</v>
       </c>
       <c r="G108" t="inlineStr"/>
       <c r="H108" t="inlineStr">
         <is>
-          <t>F - Construction</t>
+          <t>G46.1.2 - Agents involved in the sale of fuels, ores, metals and industrial chemicals</t>
         </is>
       </c>
       <c r="I108" t="n">
@@ -7210,12 +7210,12 @@
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>50 - 250</t>
+          <t>10 - 50</t>
         </is>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>2024-01-26 13:00:00</t>
+          <t>2024-01-31 09:00:00</t>
         </is>
       </c>
       <c r="N108" t="n">
@@ -7233,12 +7233,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>G20708537</t>
+          <t>B32166068</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>adress109,109 5 - W  City109, (Province109) 33534</t>
+          <t>adress109,109 4 - Q  City109, (Province109) 40772</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -7252,12 +7252,12 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>967462609</v>
+        <v>950276338</v>
       </c>
       <c r="G109" t="inlineStr"/>
       <c r="H109" t="inlineStr">
         <is>
-          <t>B8.9.2 - Extraction of peat</t>
+          <t>C25.7.2 - Manufacture of locks and hinges</t>
         </is>
       </c>
       <c r="I109" t="n">
@@ -7268,7 +7268,7 @@
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>Contact</t>
+          <t>Pool</t>
         </is>
       </c>
       <c r="L109" t="inlineStr">
@@ -7278,11 +7278,11 @@
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>2024-01-26 21:00:00</t>
+          <t>2024-01-31 16:00:00</t>
         </is>
       </c>
       <c r="N109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O109" t="n">
         <v>0</v>
@@ -7296,12 +7296,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>F51735907</t>
+          <t>N58506165</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>adress110,110 13 - U  City110, (Province110) 32223</t>
+          <t>adress110,110 17 - N  City110, (Province110) 91712</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -7315,12 +7315,12 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>949737071</v>
+        <v>973137819</v>
       </c>
       <c r="G110" t="inlineStr"/>
       <c r="H110" t="inlineStr">
         <is>
-          <t>C23.6.2 - Manufacture of plaster products for construction purposes</t>
+          <t>G47.9.9 - Other retail sale not in stores, stalls or markets</t>
         </is>
       </c>
       <c r="I110" t="n">
@@ -7336,12 +7336,12 @@
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>10 - 50</t>
+          <t>50 - 250</t>
         </is>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>2024-01-27 03:00:00</t>
+          <t>2024-01-31 20:00:00</t>
         </is>
       </c>
       <c r="N110" t="n">
@@ -7359,12 +7359,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>E60540476</t>
+          <t>R35792981</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>adress111,111 15 - B  City111, (Province111) 01350</t>
+          <t>adress111,111 2 - S  City111, (Province111) 01472</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -7378,12 +7378,12 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>907320385</v>
+        <v>986961208</v>
       </c>
       <c r="G111" t="inlineStr"/>
       <c r="H111" t="inlineStr">
         <is>
-          <t>D35.1.3 - Distribution of electricity</t>
+          <t>A1.1.3 - Growing of vegetables and melons, roots and tubers</t>
         </is>
       </c>
       <c r="I111" t="n">
@@ -7394,21 +7394,21 @@
       </c>
       <c r="K111" t="inlineStr">
         <is>
-          <t>Pool</t>
+          <t>Contact</t>
         </is>
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>50 - 250</t>
+          <t xml:space="preserve"> &lt; 10</t>
         </is>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>2024-01-27 06:00:00</t>
+          <t>2024-01-31 21:00:00</t>
         </is>
       </c>
       <c r="N111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O111" t="n">
         <v>0</v>
@@ -7422,12 +7422,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Q03347328</t>
+          <t>E12864524</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>adress112,112 7 - J  City112, (Province112) 48187</t>
+          <t>adress112,112 13 - B  City112, (Province112) 44824</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -7441,12 +7441,12 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>992188981</v>
+        <v>995567728</v>
       </c>
       <c r="G112" t="inlineStr"/>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Q87.9 - Other residential care activities</t>
+          <t>H50.2 - Sea and coastal freight water transport</t>
         </is>
       </c>
       <c r="I112" t="n">
@@ -7462,12 +7462,12 @@
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>10 - 50</t>
+          <t>50 - 250</t>
         </is>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>2024-01-27 10:00:00</t>
+          <t>2024-02-01 07:00:00</t>
         </is>
       </c>
       <c r="N112" t="n">
@@ -7485,12 +7485,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>N34180353</t>
+          <t>N74782219</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>adress113,113 14 - J  City113, (Province113) 19027</t>
+          <t>adress113,113 3 - C  City113, (Province113) 97077</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -7504,12 +7504,12 @@
         </is>
       </c>
       <c r="F113" t="n">
-        <v>945643096</v>
+        <v>928123675</v>
       </c>
       <c r="G113" t="inlineStr"/>
       <c r="H113" t="inlineStr">
         <is>
-          <t>G47.6 - Retail sale of cultural and recreation goods in specialised stores</t>
+          <t>J63.1 - Data processing, hosting and related activities; web portals</t>
         </is>
       </c>
       <c r="I113" t="n">
@@ -7525,12 +7525,12 @@
       </c>
       <c r="L113" t="inlineStr">
         <is>
-          <t>50 - 250</t>
+          <t>10 - 50</t>
         </is>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>2024-01-27 17:00:00</t>
+          <t>2024-02-01 18:00:00</t>
         </is>
       </c>
       <c r="N113" t="n">
@@ -7548,12 +7548,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>R10442909</t>
+          <t>A24102661</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>adress114,114 6 - U  City114, (Province114) 43249</t>
+          <t>adress114,114 20 - F  City114, (Province114) 01528</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -7567,12 +7567,12 @@
         </is>
       </c>
       <c r="F114" t="n">
-        <v>968746048</v>
+        <v>932180886</v>
       </c>
       <c r="G114" t="inlineStr"/>
       <c r="H114" t="inlineStr">
         <is>
-          <t>G46.3.1 - Wholesale of fruit and vegetables</t>
+          <t>S94.1 - Activities of business, employers and professional membership organisations</t>
         </is>
       </c>
       <c r="I114" t="n">
@@ -7588,12 +7588,12 @@
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt; 10</t>
+          <t>50 - 250</t>
         </is>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>2024-01-27 20:00:00</t>
+          <t>2024-02-02 06:00:00</t>
         </is>
       </c>
       <c r="N114" t="n">
@@ -7611,12 +7611,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>S01481569</t>
+          <t>Q70897719</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>adress115,115 13 - W  City115, (Province115) 00235</t>
+          <t>adress115,115 14 - S  City115, (Province115) 48804</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -7630,12 +7630,12 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>925136235</v>
+        <v>954432428</v>
       </c>
       <c r="G115" t="inlineStr"/>
       <c r="H115" t="inlineStr">
         <is>
-          <t>A1.1.3 - Growing of vegetables and melons, roots and tubers</t>
+          <t>Q86.9 - Other human health activities</t>
         </is>
       </c>
       <c r="I115" t="n">
@@ -7651,12 +7651,12 @@
       </c>
       <c r="L115" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt; 10</t>
+          <t>10 - 50</t>
         </is>
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>2024-01-28 02:00:00</t>
+          <t>2024-02-02 11:00:00</t>
         </is>
       </c>
       <c r="N115" t="n">
@@ -7674,12 +7674,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>A10024427</t>
+          <t>N01680477</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>adress116,116 19 - C  City116, (Province116) 76774</t>
+          <t>adress116,116 3 - P  City116, (Province116) 91139</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -7693,12 +7693,12 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>951665970</v>
+        <v>964281390</v>
       </c>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr">
         <is>
-          <t>N82 - Office administrative, office support and other business support activities</t>
+          <t>M74.2.0 - Photographic activities</t>
         </is>
       </c>
       <c r="I116" t="n">
@@ -7709,21 +7709,21 @@
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>Contact</t>
+          <t>Pool</t>
         </is>
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>50 - 250</t>
+          <t xml:space="preserve"> &gt; 250</t>
         </is>
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>2024-01-28 06:00:00</t>
+          <t>2024-02-02 18:00:00</t>
         </is>
       </c>
       <c r="N116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O116" t="n">
         <v>0</v>
@@ -7737,12 +7737,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Q46583914</t>
+          <t>H76627757</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>adress117,117 9 - C  City117, (Province117) 15856</t>
+          <t>adress117,117 14 - V  City117, (Province117) 62101</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -7756,12 +7756,12 @@
         </is>
       </c>
       <c r="F117" t="n">
-        <v>960794894</v>
+        <v>985269636</v>
       </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr">
         <is>
-          <t>A1.1.4 - Growing of sugar cane</t>
+          <t>J62.0.9 - Other information technology and computer service activities</t>
         </is>
       </c>
       <c r="I117" t="n">
@@ -7782,7 +7782,7 @@
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>2024-01-28 13:00:00</t>
+          <t>2024-02-02 21:00:00</t>
         </is>
       </c>
       <c r="N117" t="n">
@@ -7800,12 +7800,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Q65943773</t>
+          <t>W67249067</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>adress118,118 1 - P  City118, (Province118) 43533</t>
+          <t>adress118,118 17 - V  City118, (Province118) 90508</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -7819,12 +7819,12 @@
         </is>
       </c>
       <c r="F118" t="n">
-        <v>900591430</v>
+        <v>999838093</v>
       </c>
       <c r="G118" t="inlineStr"/>
       <c r="H118" t="inlineStr">
         <is>
-          <t>K65.3 - Pension funding</t>
+          <t>J58.1.2 - Publishing of directories and mailing lists</t>
         </is>
       </c>
       <c r="I118" t="n">
@@ -7845,7 +7845,7 @@
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>2024-01-28 14:00:00</t>
+          <t>2024-02-03 02:00:00</t>
         </is>
       </c>
       <c r="N118" t="n">
@@ -7863,12 +7863,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>V51590436</t>
+          <t>G47682718</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>adress119,119 8 - F  City119, (Province119) 24875</t>
+          <t>adress119,119 7 - F  City119, (Province119) 19141</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -7882,12 +7882,12 @@
         </is>
       </c>
       <c r="F119" t="n">
-        <v>923502345</v>
+        <v>938581802</v>
       </c>
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>M74.3.0 - Translation and interpretation activities</t>
+          <t>B - Mining and quarrying</t>
         </is>
       </c>
       <c r="I119" t="n">
@@ -7898,21 +7898,21 @@
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>Pool</t>
+          <t>Contact</t>
         </is>
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &gt; 250</t>
+          <t>50 - 250</t>
         </is>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>2024-01-29 00:00:00</t>
+          <t>2024-02-03 14:00:00</t>
         </is>
       </c>
       <c r="N119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O119" t="n">
         <v>0</v>
@@ -7926,12 +7926,12 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>V10185090</t>
+          <t>F04589612</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>adress120,120 16 - U  City120, (Province120) 52348</t>
+          <t>adress120,120 9 - N  City120, (Province120) 09793</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -7945,12 +7945,12 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>910721933</v>
+        <v>989234678</v>
       </c>
       <c r="G120" t="inlineStr"/>
       <c r="H120" t="inlineStr">
         <is>
-          <t>N78.1.0 - Activities of employment placement agencies</t>
+          <t>C24.5.1 - Casting of iron</t>
         </is>
       </c>
       <c r="I120" t="n">
@@ -7961,21 +7961,21 @@
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>Contact</t>
+          <t>Pool</t>
         </is>
       </c>
       <c r="L120" t="inlineStr">
         <is>
-          <t>50 - 250</t>
+          <t xml:space="preserve"> &gt; 250</t>
         </is>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>2024-01-29 02:00:00</t>
+          <t>2024-02-03 17:00:00</t>
         </is>
       </c>
       <c r="N120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O120" t="n">
         <v>0</v>
@@ -7989,12 +7989,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>C38486349</t>
+          <t>W09179752</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>adress121,121 7 - U  City121, (Province121) 73544</t>
+          <t>adress121,121 12 - N  City121, (Province121) 72036</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -8008,12 +8008,12 @@
         </is>
       </c>
       <c r="F121" t="n">
-        <v>973631224</v>
+        <v>925434923</v>
       </c>
       <c r="G121" t="inlineStr"/>
       <c r="H121" t="inlineStr">
         <is>
-          <t>F42 - Civil engineering</t>
+          <t>C23.4.9 - Manufacture of other ceramic products</t>
         </is>
       </c>
       <c r="I121" t="n">
@@ -8034,7 +8034,7 @@
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>2024-01-29 12:00:00</t>
+          <t>2024-02-04 04:00:00</t>
         </is>
       </c>
       <c r="N121" t="n">
@@ -8052,12 +8052,12 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>E92589723</t>
+          <t>E58972377</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>adress122,122 4 - S  City122, (Province122) 90244</t>
+          <t>adress122,122 19 - R  City122, (Province122) 98704</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -8071,12 +8071,12 @@
         </is>
       </c>
       <c r="F122" t="n">
-        <v>924221559</v>
+        <v>949880582</v>
       </c>
       <c r="G122" t="inlineStr"/>
       <c r="H122" t="inlineStr">
         <is>
-          <t>S95.2.3 - Repair of footwear and leather goods</t>
+          <t>S96.0.3 - Funeral and related activities</t>
         </is>
       </c>
       <c r="I122" t="n">
@@ -8087,21 +8087,21 @@
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>Pool</t>
+          <t>Contact</t>
         </is>
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt; 10</t>
+          <t>10 - 50</t>
         </is>
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>2024-01-29 21:00:00</t>
+          <t>2024-02-04 12:00:00</t>
         </is>
       </c>
       <c r="N122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O122" t="n">
         <v>0</v>
@@ -8115,12 +8115,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>C66907614</t>
+          <t>H98638859</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>adress123,123 9 - P  City123, (Province123) 65296</t>
+          <t>adress123,123 10 - A  City123, (Province123) 51071</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -8134,12 +8134,12 @@
         </is>
       </c>
       <c r="F123" t="n">
-        <v>999068601</v>
+        <v>928371824</v>
       </c>
       <c r="G123" t="inlineStr"/>
       <c r="H123" t="inlineStr">
         <is>
-          <t>C24.1.0 - Manufacture of basic iron and steel and of ferro-alloys</t>
+          <t>A1.7 - Hunting, trapping and related service activities</t>
         </is>
       </c>
       <c r="I123" t="n">
@@ -8150,21 +8150,21 @@
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>Contact</t>
+          <t>Pool</t>
         </is>
       </c>
       <c r="L123" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt; 10</t>
+          <t>10 - 50</t>
         </is>
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>2024-01-30 06:00:00</t>
+          <t>2024-02-04 20:00:00</t>
         </is>
       </c>
       <c r="N123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O123" t="n">
         <v>0</v>
@@ -8178,12 +8178,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>G75205626</t>
+          <t>B46453293</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>adress124,124 7 - V  City124, (Province124) 06989</t>
+          <t>adress124,124 16 - J  City124, (Province124) 83157</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -8197,12 +8197,12 @@
         </is>
       </c>
       <c r="F124" t="n">
-        <v>992544641</v>
+        <v>939394606</v>
       </c>
       <c r="G124" t="inlineStr"/>
       <c r="H124" t="inlineStr">
         <is>
-          <t>H49.1.0 - Passenger rail transport, interurban</t>
+          <t>E38.2.1 - Treatment and disposal of non-hazardous waste</t>
         </is>
       </c>
       <c r="I124" t="n">
@@ -8218,12 +8218,12 @@
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &gt; 250</t>
+          <t>50 - 250</t>
         </is>
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>2024-01-30 17:00:00</t>
+          <t>2024-02-05 06:00:00</t>
         </is>
       </c>
       <c r="N124" t="n">
@@ -8241,12 +8241,12 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>P41368953</t>
+          <t>A92317159</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>adress125,125 3 - H  City125, (Province125) 81723</t>
+          <t>adress125,125 16 - P  City125, (Province125) 49068</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -8260,12 +8260,12 @@
         </is>
       </c>
       <c r="F125" t="n">
-        <v>905109926</v>
+        <v>906291033</v>
       </c>
       <c r="G125" t="inlineStr"/>
       <c r="H125" t="inlineStr">
         <is>
-          <t>F43.9.9 - Other specialised construction activities n.e.c.</t>
+          <t>A1.1.1 - Growing of cereals (except rice), leguminous crops and oil seeds</t>
         </is>
       </c>
       <c r="I125" t="n">
@@ -8276,21 +8276,21 @@
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>Contact</t>
+          <t>Pool</t>
         </is>
       </c>
       <c r="L125" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &gt; 250</t>
+          <t>10 - 50</t>
         </is>
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>2024-01-31 00:00:00</t>
+          <t>2024-02-05 09:00:00</t>
         </is>
       </c>
       <c r="N125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O125" t="n">
         <v>0</v>
@@ -8304,12 +8304,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>U52912132</t>
+          <t>J89243247</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>adress126,126 10 - J  City126, (Province126) 22029</t>
+          <t>adress126,126 5 - J  City126, (Province126) 97941</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -8323,12 +8323,12 @@
         </is>
       </c>
       <c r="F126" t="n">
-        <v>919171053</v>
+        <v>909050427</v>
       </c>
       <c r="G126" t="inlineStr"/>
       <c r="H126" t="inlineStr">
         <is>
-          <t>C28.2.3 - Manufacture of office machinery and equipment (except computers and peripheral equipment)</t>
+          <t>C25.9.4 - Manufacture of fasteners and screw machine products</t>
         </is>
       </c>
       <c r="I126" t="n">
@@ -8344,12 +8344,12 @@
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt; 10</t>
+          <t>50 - 250</t>
         </is>
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>2024-01-31 05:00:00</t>
+          <t>2024-02-05 13:00:00</t>
         </is>
       </c>
       <c r="N126" t="n">
@@ -8367,12 +8367,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Q93958053</t>
+          <t>E91838242</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>adress127,127 9 - C  City127, (Province127) 88854</t>
+          <t>adress127,127 19 - S  City127, (Province127) 51633</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -8386,12 +8386,12 @@
         </is>
       </c>
       <c r="F127" t="n">
-        <v>973847660</v>
+        <v>994567869</v>
       </c>
       <c r="G127" t="inlineStr"/>
       <c r="H127" t="inlineStr">
         <is>
-          <t>H49.4.2 - Removal services</t>
+          <t>N82.9 - Business support service activities n.e.c.</t>
         </is>
       </c>
       <c r="I127" t="n">
@@ -8402,21 +8402,21 @@
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>Pool</t>
+          <t>Contact</t>
         </is>
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>50 - 250</t>
+          <t xml:space="preserve"> &lt; 10</t>
         </is>
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>2024-01-31 06:00:00</t>
+          <t>2024-02-05 14:00:00</t>
         </is>
       </c>
       <c r="N127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O127" t="n">
         <v>0</v>
@@ -8430,12 +8430,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>E08114206</t>
+          <t>U07793910</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>adress128,128 10 - A  City128, (Province128) 31564</t>
+          <t>adress128,128 16 - R  City128, (Province128) 87793</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -8449,12 +8449,12 @@
         </is>
       </c>
       <c r="F128" t="n">
-        <v>916589123</v>
+        <v>924896585</v>
       </c>
       <c r="G128" t="inlineStr"/>
       <c r="H128" t="inlineStr">
         <is>
-          <t>P85.5.9 - Other education n.e.c.</t>
+          <t>E38.1.2 - Collection of hazardous waste</t>
         </is>
       </c>
       <c r="I128" t="n">
@@ -8475,7 +8475,7 @@
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>2024-01-31 15:00:00</t>
+          <t>2024-02-06 02:00:00</t>
         </is>
       </c>
       <c r="N128" t="n">
@@ -8493,12 +8493,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>S38950886</t>
+          <t>C70692232</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>adress129,129 7 - S  City129, (Province129) 65401</t>
+          <t>adress129,129 17 - Q  City129, (Province129) 51793</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -8512,12 +8512,12 @@
         </is>
       </c>
       <c r="F129" t="n">
-        <v>947818196</v>
+        <v>924002371</v>
       </c>
       <c r="G129" t="inlineStr"/>
       <c r="H129" t="inlineStr">
         <is>
-          <t>B6 - Extraction of crude petroleum and natural gas</t>
+          <t>C10.7.1 - Manufacture of bread; manufacture of fresh pastry goods and cakes</t>
         </is>
       </c>
       <c r="I129" t="n">
@@ -8528,21 +8528,21 @@
       </c>
       <c r="K129" t="inlineStr">
         <is>
-          <t>Contact</t>
+          <t>Pool</t>
         </is>
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>50 - 250</t>
+          <t>10 - 50</t>
         </is>
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>2024-01-31 16:00:00</t>
+          <t>2024-02-06 06:00:00</t>
         </is>
       </c>
       <c r="N129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O129" t="n">
         <v>0</v>
@@ -8556,12 +8556,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>J57776744</t>
+          <t>R56499018</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>adress130,130 20 - E  City130, (Province130) 73208</t>
+          <t>adress130,130 1 - B  City130, (Province130) 91243</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -8575,12 +8575,12 @@
         </is>
       </c>
       <c r="F130" t="n">
-        <v>915703360</v>
+        <v>916208628</v>
       </c>
       <c r="G130" t="inlineStr"/>
       <c r="H130" t="inlineStr">
         <is>
-          <t>E39 - Remediation activities and other waste management services</t>
+          <t>G47.7 - Retail sale of other goods in specialised stores</t>
         </is>
       </c>
       <c r="I130" t="n">
@@ -8596,12 +8596,12 @@
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &gt; 250</t>
+          <t>10 - 50</t>
         </is>
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>2024-01-31 22:00:00</t>
+          <t>2024-02-06 18:00:00</t>
         </is>
       </c>
       <c r="N130" t="n">
@@ -8619,12 +8619,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>C77913068</t>
+          <t>H18123176</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>adress131,131 5 - U  City131, (Province131) 16264</t>
+          <t>adress131,131 20 - W  City131, (Province131) 14638</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -8638,12 +8638,12 @@
         </is>
       </c>
       <c r="F131" t="n">
-        <v>914870336</v>
+        <v>965200125</v>
       </c>
       <c r="G131" t="inlineStr"/>
       <c r="H131" t="inlineStr">
         <is>
-          <t>M75.0 - Veterinary activities</t>
+          <t>C21.2 - Manufacture of pharmaceutical preparations</t>
         </is>
       </c>
       <c r="I131" t="n">
@@ -8654,21 +8654,21 @@
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>Pool</t>
+          <t>Contact</t>
         </is>
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>50 - 250</t>
+          <t xml:space="preserve"> &gt; 250</t>
         </is>
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>2024-02-01 07:00:00</t>
+          <t>2024-02-06 21:00:00</t>
         </is>
       </c>
       <c r="N131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O131" t="n">
         <v>0</v>
@@ -8682,12 +8682,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>R59078277</t>
+          <t>C74476679</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>adress132,132 18 - F  City132, (Province132) 68755</t>
+          <t>adress132,132 20 - G  City132, (Province132) 64836</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -8701,12 +8701,12 @@
         </is>
       </c>
       <c r="F132" t="n">
-        <v>915006737</v>
+        <v>907585351</v>
       </c>
       <c r="G132" t="inlineStr"/>
       <c r="H132" t="inlineStr">
         <is>
-          <t>C10.1.1 - Processing and preserving of meat</t>
+          <t>C25.9.3 - Manufacture of wire products, chain and springs</t>
         </is>
       </c>
       <c r="I132" t="n">
@@ -8717,21 +8717,21 @@
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>Pool</t>
+          <t>Contact</t>
         </is>
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &gt; 250</t>
+          <t>10 - 50</t>
         </is>
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>2024-02-01 16:00:00</t>
+          <t>2024-02-07 03:00:00</t>
         </is>
       </c>
       <c r="N132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O132" t="n">
         <v>0</v>
@@ -8745,12 +8745,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>C34799489</t>
+          <t>E72605586</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>adress133,133 10 - P  City133, (Province133) 57000</t>
+          <t>adress133,133 3 - N  City133, (Province133) 29983</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -8764,12 +8764,12 @@
         </is>
       </c>
       <c r="F133" t="n">
-        <v>916377843</v>
+        <v>916738180</v>
       </c>
       <c r="G133" t="inlineStr"/>
       <c r="H133" t="inlineStr">
         <is>
-          <t>C13.9.4 - Manufacture of cordage, rope, twine and netting</t>
+          <t>C18 - Printing and reproduction of recorded media</t>
         </is>
       </c>
       <c r="I133" t="n">
@@ -8785,12 +8785,12 @@
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt; 10</t>
+          <t xml:space="preserve"> &gt; 250</t>
         </is>
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>2024-02-02 04:00:00</t>
+          <t>2024-02-07 14:00:00</t>
         </is>
       </c>
       <c r="N133" t="n">
@@ -8808,12 +8808,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>E43178461</t>
+          <t>P89304734</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>adress134,134 19 - S  City134, (Province134) 56414</t>
+          <t>adress134,134 10 - G  City134, (Province134) 94594</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -8827,12 +8827,12 @@
         </is>
       </c>
       <c r="F134" t="n">
-        <v>944929222</v>
+        <v>925339617</v>
       </c>
       <c r="G134" t="inlineStr"/>
       <c r="H134" t="inlineStr">
         <is>
-          <t>C24.5.1 - Casting of iron</t>
+          <t>Q88.1.0 - Social work activities without accommodation for the elderly and disabled</t>
         </is>
       </c>
       <c r="I134" t="n">
@@ -8843,21 +8843,21 @@
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>Pool</t>
+          <t>Contact</t>
         </is>
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>50 - 250</t>
+          <t xml:space="preserve"> &gt; 250</t>
         </is>
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>2024-02-02 07:00:00</t>
+          <t>2024-02-08 00:00:00</t>
         </is>
       </c>
       <c r="N134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O134" t="n">
         <v>0</v>
@@ -8871,12 +8871,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>A10199912</t>
+          <t>A64300162</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>adress135,135 14 - V  City135, (Province135) 28484</t>
+          <t>adress135,135 17 - Q  City135, (Province135) 07662</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -8890,12 +8890,12 @@
         </is>
       </c>
       <c r="F135" t="n">
-        <v>941257797</v>
+        <v>947810628</v>
       </c>
       <c r="G135" t="inlineStr"/>
       <c r="H135" t="inlineStr">
         <is>
-          <t>C28.3 - Manufacture of agricultural and forestry machinery</t>
+          <t>N80.2.0 - Security systems service activities</t>
         </is>
       </c>
       <c r="I135" t="n">
@@ -8911,12 +8911,12 @@
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &gt; 250</t>
+          <t>50 - 250</t>
         </is>
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>2024-02-02 12:00:00</t>
+          <t>2024-02-08 08:00:00</t>
         </is>
       </c>
       <c r="N135" t="n">
@@ -8934,12 +8934,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>F75291930</t>
+          <t>B78148576</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>adress136,136 13 - H  City136, (Province136) 18519</t>
+          <t>adress136,136 18 - S  City136, (Province136) 35917</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -8953,12 +8953,12 @@
         </is>
       </c>
       <c r="F136" t="n">
-        <v>932054294</v>
+        <v>979360342</v>
       </c>
       <c r="G136" t="inlineStr"/>
       <c r="H136" t="inlineStr">
         <is>
-          <t>M70.1 - Activities of head offices</t>
+          <t>G46.1.1 - Agents involved in the sale of agricultural raw materials, live animals, textile raw materials and semi-finished goods</t>
         </is>
       </c>
       <c r="I136" t="n">
@@ -8979,7 +8979,7 @@
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>2024-02-02 22:00:00</t>
+          <t>2024-02-08 14:00:00</t>
         </is>
       </c>
       <c r="N136" t="n">
@@ -8997,12 +8997,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>A54678362</t>
+          <t>B75085704</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>adress137,137 20 - B  City137, (Province137) 35115</t>
+          <t>adress137,137 3 - C  City137, (Province137) 27609</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -9016,12 +9016,12 @@
         </is>
       </c>
       <c r="F137" t="n">
-        <v>937596757</v>
+        <v>958978424</v>
       </c>
       <c r="G137" t="inlineStr"/>
       <c r="H137" t="inlineStr">
         <is>
-          <t>N82.9.9 - Other business support service activities n.e.c.</t>
+          <t>C31.0.2 - Manufacture of kitchen furniture</t>
         </is>
       </c>
       <c r="I137" t="n">
@@ -9032,21 +9032,21 @@
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>Contact</t>
+          <t>Pool</t>
         </is>
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>50 - 250</t>
+          <t xml:space="preserve"> &gt; 250</t>
         </is>
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>2024-02-03 01:00:00</t>
+          <t>2024-02-08 16:00:00</t>
         </is>
       </c>
       <c r="N137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O137" t="n">
         <v>0</v>
@@ -9060,12 +9060,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>H19121314</t>
+          <t>R24851672</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>adress138,138 7 - F  City138, (Province138) 58851</t>
+          <t>adress138,138 1 - N  City138, (Province138) 55441</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -9079,12 +9079,12 @@
         </is>
       </c>
       <c r="F138" t="n">
-        <v>941369917</v>
+        <v>997782212</v>
       </c>
       <c r="G138" t="inlineStr"/>
       <c r="H138" t="inlineStr">
         <is>
-          <t>J63.9 - Other information service activities</t>
+          <t>H49.3.1 - Urban and suburban passenger land transport</t>
         </is>
       </c>
       <c r="I138" t="n">
@@ -9095,21 +9095,21 @@
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>Contact</t>
+          <t>Pool</t>
         </is>
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>10 - 50</t>
+          <t xml:space="preserve"> &gt; 250</t>
         </is>
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>2024-02-03 04:00:00</t>
+          <t>2024-02-09 03:00:00</t>
         </is>
       </c>
       <c r="N138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O138" t="n">
         <v>0</v>
@@ -9123,12 +9123,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>W12734396</t>
+          <t>F50680951</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>adress139,139 14 - V  City139, (Province139) 78579</t>
+          <t>adress139,139 15 - J  City139, (Province139) 32511</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -9142,12 +9142,12 @@
         </is>
       </c>
       <c r="F139" t="n">
-        <v>985567267</v>
+        <v>950919069</v>
       </c>
       <c r="G139" t="inlineStr"/>
       <c r="H139" t="inlineStr">
         <is>
-          <t>C25.1 - Manufacture of structural metal products</t>
+          <t>G - Wholesale and retail trade; repair of motor vehicles and motorcycles</t>
         </is>
       </c>
       <c r="I139" t="n">
@@ -9158,21 +9158,21 @@
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>Contact</t>
+          <t>Pool</t>
         </is>
       </c>
       <c r="L139" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt; 10</t>
+          <t>10 - 50</t>
         </is>
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>2024-02-03 11:00:00</t>
+          <t>2024-02-09 11:00:00</t>
         </is>
       </c>
       <c r="N139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O139" t="n">
         <v>0</v>
@@ -9186,12 +9186,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Q11908942</t>
+          <t>Q40080325</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>adress140,140 12 - E  City140, (Province140) 20169</t>
+          <t>adress140,140 16 - B  City140, (Province140) 07654</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -9205,12 +9205,12 @@
         </is>
       </c>
       <c r="F140" t="n">
-        <v>944000761</v>
+        <v>927964440</v>
       </c>
       <c r="G140" t="inlineStr"/>
       <c r="H140" t="inlineStr">
         <is>
-          <t>M70.2.1 - Public relations and communication activities</t>
+          <t>G47.7.7 - Retail sale of watches and jewellery in specialised stores</t>
         </is>
       </c>
       <c r="I140" t="n">
@@ -9226,12 +9226,12 @@
       </c>
       <c r="L140" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &gt; 250</t>
+          <t>10 - 50</t>
         </is>
       </c>
       <c r="M140" t="inlineStr">
         <is>
-          <t>2024-02-03 15:00:00</t>
+          <t>2024-02-09 15:00:00</t>
         </is>
       </c>
       <c r="N140" t="n">
@@ -9249,12 +9249,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Q50897134</t>
+          <t>C64322918</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>adress141,141 9 - J  City141, (Province141) 84864</t>
+          <t>adress141,141 12 - S  City141, (Province141) 09237</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -9268,12 +9268,12 @@
         </is>
       </c>
       <c r="F141" t="n">
-        <v>913381901</v>
+        <v>903682051</v>
       </c>
       <c r="G141" t="inlineStr"/>
       <c r="H141" t="inlineStr">
         <is>
-          <t>C28.2.3 - Manufacture of office machinery and equipment (except computers and peripheral equipment)</t>
+          <t>G46.5 - Wholesale of information and communication equipment</t>
         </is>
       </c>
       <c r="I141" t="n">
@@ -9289,12 +9289,12 @@
       </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &gt; 250</t>
+          <t xml:space="preserve"> &lt; 10</t>
         </is>
       </c>
       <c r="M141" t="inlineStr">
         <is>
-          <t>2024-02-04 02:00:00</t>
+          <t>2024-02-10 01:00:00</t>
         </is>
       </c>
       <c r="N141" t="n">
@@ -9312,12 +9312,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>A45343665</t>
+          <t>W14721329</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>adress142,142 19 - P  City142, (Province142) 72604</t>
+          <t>adress142,142 10 - H  City142, (Province142) 59960</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -9331,12 +9331,12 @@
         </is>
       </c>
       <c r="F142" t="n">
-        <v>946624680</v>
+        <v>968683882</v>
       </c>
       <c r="G142" t="inlineStr"/>
       <c r="H142" t="inlineStr">
         <is>
-          <t>T97.0.0 - Activities of households as employers of domestic personnel</t>
+          <t>F41.2 - Construction of residential and non-residential buildings</t>
         </is>
       </c>
       <c r="I142" t="n">
@@ -9352,12 +9352,12 @@
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt; 10</t>
+          <t>10 - 50</t>
         </is>
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>2024-02-04 03:00:00</t>
+          <t>2024-02-10 12:00:00</t>
         </is>
       </c>
       <c r="N142" t="n">
@@ -9375,12 +9375,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>C97545352</t>
+          <t>G23578272</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>adress143,143 16 - W  City143, (Province143) 75982</t>
+          <t>adress143,143 18 - W  City143, (Province143) 00859</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -9394,12 +9394,12 @@
         </is>
       </c>
       <c r="F143" t="n">
-        <v>911147360</v>
+        <v>929427699</v>
       </c>
       <c r="G143" t="inlineStr"/>
       <c r="H143" t="inlineStr">
         <is>
-          <t>G46.6.1 - Wholesale of agricultural machinery, equipment and supplies</t>
+          <t>C13.2.0 - Weaving of textiles</t>
         </is>
       </c>
       <c r="I143" t="n">
@@ -9410,21 +9410,21 @@
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>Pool</t>
+          <t>Contact</t>
         </is>
       </c>
       <c r="L143" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt; 10</t>
+          <t xml:space="preserve"> &gt; 250</t>
         </is>
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>2024-02-04 07:00:00</t>
+          <t>2024-02-10 20:00:00</t>
         </is>
       </c>
       <c r="N143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O143" t="n">
         <v>0</v>
@@ -9438,12 +9438,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>V76086103</t>
+          <t>N75764397</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>adress144,144 12 - A  City144, (Province144) 69944</t>
+          <t>adress144,144 2 - J  City144, (Province144) 64431</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -9457,12 +9457,12 @@
         </is>
       </c>
       <c r="F144" t="n">
-        <v>984490960</v>
+        <v>961356749</v>
       </c>
       <c r="G144" t="inlineStr"/>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Q88.1.0 - Social work activities without accommodation for the elderly and disabled</t>
+          <t>N79.1.1 - Travel agency activities</t>
         </is>
       </c>
       <c r="I144" t="n">
@@ -9473,7 +9473,7 @@
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>Contact</t>
+          <t>Pool</t>
         </is>
       </c>
       <c r="L144" t="inlineStr">
@@ -9483,11 +9483,11 @@
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>2024-02-04 17:00:00</t>
+          <t>2024-02-11 07:00:00</t>
         </is>
       </c>
       <c r="N144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O144" t="n">
         <v>0</v>
@@ -9501,12 +9501,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>E26237825</t>
+          <t>B45107952</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>adress145,145 15 - Q  City145, (Province145) 36262</t>
+          <t>adress145,145 4 - P  City145, (Province145) 47827</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -9520,12 +9520,12 @@
         </is>
       </c>
       <c r="F145" t="n">
-        <v>977388585</v>
+        <v>922017511</v>
       </c>
       <c r="G145" t="inlineStr"/>
       <c r="H145" t="inlineStr">
         <is>
-          <t>C30.3.0 - Manufacture of air and spacecraft and related machinery</t>
+          <t>I56.2.1 - Event catering activities</t>
         </is>
       </c>
       <c r="I145" t="n">
@@ -9536,7 +9536,7 @@
       </c>
       <c r="K145" t="inlineStr">
         <is>
-          <t>Contact</t>
+          <t>Pool</t>
         </is>
       </c>
       <c r="L145" t="inlineStr">
@@ -9546,11 +9546,11 @@
       </c>
       <c r="M145" t="inlineStr">
         <is>
-          <t>2024-02-04 22:00:00</t>
+          <t>2024-02-11 08:00:00</t>
         </is>
       </c>
       <c r="N145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O145" t="n">
         <v>0</v>
@@ -9564,12 +9564,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>R62698310</t>
+          <t>B73165380</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>adress146,146 5 - V  City146, (Province146) 09822</t>
+          <t>adress146,146 8 - B  City146, (Province146) 83101</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -9583,12 +9583,12 @@
         </is>
       </c>
       <c r="F146" t="n">
-        <v>939711804</v>
+        <v>956800597</v>
       </c>
       <c r="G146" t="inlineStr"/>
       <c r="H146" t="inlineStr">
         <is>
-          <t>S95.2.1 - Repair of consumer electronics</t>
+          <t>G45.3 - Sale of motor vehicle parts and accessories</t>
         </is>
       </c>
       <c r="I146" t="n">
@@ -9604,12 +9604,12 @@
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>50 - 250</t>
+          <t>10 - 50</t>
         </is>
       </c>
       <c r="M146" t="inlineStr">
         <is>
-          <t>2024-02-04 23:00:00</t>
+          <t>2024-02-11 09:00:00</t>
         </is>
       </c>
       <c r="N146" t="n">
@@ -9627,12 +9627,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>C89661270</t>
+          <t>E41958509</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>adress147,147 8 - S  City147, (Province147) 96096</t>
+          <t>adress147,147 19 - A  City147, (Province147) 15658</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -9646,12 +9646,12 @@
         </is>
       </c>
       <c r="F147" t="n">
-        <v>935760632</v>
+        <v>969930022</v>
       </c>
       <c r="G147" t="inlineStr"/>
       <c r="H147" t="inlineStr">
         <is>
-          <t>G47.2.6 - Retail sale of tobacco products in specialised stores</t>
+          <t>H49.1 - Passenger rail transport, interurban</t>
         </is>
       </c>
       <c r="I147" t="n">
@@ -9662,21 +9662,21 @@
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>Contact</t>
+          <t>Pool</t>
         </is>
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &gt; 250</t>
+          <t xml:space="preserve"> &lt; 10</t>
         </is>
       </c>
       <c r="M147" t="inlineStr">
         <is>
-          <t>2024-02-05 05:00:00</t>
+          <t>2024-02-11 21:00:00</t>
         </is>
       </c>
       <c r="N147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O147" t="n">
         <v>0</v>
@@ -9690,12 +9690,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>B66648121</t>
+          <t>S59382770</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>adress148,148 9 - B  City148, (Province148) 74419</t>
+          <t>adress148,148 8 - P  City148, (Province148) 72436</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -9709,12 +9709,12 @@
         </is>
       </c>
       <c r="F148" t="n">
-        <v>995851826</v>
+        <v>911828017</v>
       </c>
       <c r="G148" t="inlineStr"/>
       <c r="H148" t="inlineStr">
         <is>
-          <t>C10.8.4 - Manufacture of condiments and seasonings</t>
+          <t>F42.1.2 - Construction of railways and underground railways</t>
         </is>
       </c>
       <c r="I148" t="n">
@@ -9725,21 +9725,21 @@
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>Contact</t>
+          <t>Pool</t>
         </is>
       </c>
       <c r="L148" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt; 10</t>
+          <t>10 - 50</t>
         </is>
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>2024-02-05 17:00:00</t>
+          <t>2024-02-12 05:00:00</t>
         </is>
       </c>
       <c r="N148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O148" t="n">
         <v>0</v>
@@ -9753,12 +9753,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>A40732892</t>
+          <t>W66383576</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>adress149,149 18 - S  City149, (Province149) 58337</t>
+          <t>adress149,149 13 - P  City149, (Province149) 88215</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -9772,12 +9772,12 @@
         </is>
       </c>
       <c r="F149" t="n">
-        <v>993683181</v>
+        <v>947141955</v>
       </c>
       <c r="G149" t="inlineStr"/>
       <c r="H149" t="inlineStr">
         <is>
-          <t>G47.4.3 - Retail sale of audio and video equipment in specialised stores</t>
+          <t>J63.9.9 - Other information service activities n.e.c.</t>
         </is>
       </c>
       <c r="I149" t="n">
@@ -9788,21 +9788,21 @@
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>Pool</t>
+          <t>Contact</t>
         </is>
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt; 10</t>
+          <t xml:space="preserve"> &gt; 250</t>
         </is>
       </c>
       <c r="M149" t="inlineStr">
         <is>
-          <t>2024-02-06 01:00:00</t>
+          <t>2024-02-12 15:00:00</t>
         </is>
       </c>
       <c r="N149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O149" t="n">
         <v>0</v>
@@ -9816,12 +9816,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Q51689404</t>
+          <t>S17166088</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>adress150,150 4 - W  City150, (Province150) 82507</t>
+          <t>adress150,150 18 - H  City150, (Province150) 53004</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -9835,12 +9835,12 @@
         </is>
       </c>
       <c r="F150" t="n">
-        <v>931989378</v>
+        <v>900021639</v>
       </c>
       <c r="G150" t="inlineStr"/>
       <c r="H150" t="inlineStr">
         <is>
-          <t>C23.6 - Manufacture of articles of concrete, cement and plaster</t>
+          <t>C29.3.1 - Manufacture of electrical and electronic equipment for motor vehicles</t>
         </is>
       </c>
       <c r="I150" t="n">
@@ -9851,21 +9851,21 @@
       </c>
       <c r="K150" t="inlineStr">
         <is>
-          <t>Pool</t>
+          <t>Contact</t>
         </is>
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &gt; 250</t>
+          <t xml:space="preserve"> &lt; 10</t>
         </is>
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>2024-02-06 02:00:00</t>
+          <t>2024-02-12 22:00:00</t>
         </is>
       </c>
       <c r="N150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O150" t="n">
         <v>0</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -429,12 +429,12 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>H82210140</t>
+          <t>J80686345</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>adress1,1 9 - H  City1, (Province1) 49080</t>
+          <t>adress1,1 10 - P  City1, (Province1) 53526</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -448,12 +448,12 @@
         </is>
       </c>
       <c r="F1" t="n">
-        <v>962434435</v>
+        <v>960067218</v>
       </c>
       <c r="G1" t="inlineStr"/>
       <c r="H1" t="inlineStr">
         <is>
-          <t>C32.1 - Manufacture of jewellery, bijouterie and related articles</t>
+          <t>M72.1.9 - Other research and experimental development on natural sciences and engineering</t>
         </is>
       </c>
       <c r="I1" t="n">
@@ -464,12 +464,12 @@
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>Contact</t>
+          <t>Pool</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &gt; 250</t>
+          <t>50 - 250</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
@@ -478,7 +478,7 @@
         </is>
       </c>
       <c r="N1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O1" t="n">
         <v>0</v>
@@ -492,12 +492,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>V23783962</t>
+          <t>E47551676</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>adress2,2 17 - P  City2, (Province2) 71497</t>
+          <t>adress2,2 2 - U  City2, (Province2) 62930</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -511,12 +511,12 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>900159135</v>
+        <v>921795336</v>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr">
         <is>
-          <t>N81.2.1 - General cleaning of buildings</t>
+          <t>C26.5.2 - Manufacture of watches and clocks</t>
         </is>
       </c>
       <c r="I2" t="n">
@@ -532,12 +532,12 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>50 - 250</t>
+          <t xml:space="preserve"> &gt; 250</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2024-01-01 10:00:00</t>
+          <t>2024-01-01 14:00:00</t>
         </is>
       </c>
       <c r="N2" t="n">
@@ -555,12 +555,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>P09480763</t>
+          <t>E92520930</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>adress3,3 18 - H  City3, (Province3) 45407</t>
+          <t>adress3,3 7 - E  City3, (Province3) 33566</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -574,12 +574,12 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>979319921</v>
+        <v>994433136</v>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
-          <t>G46.9 - Non-specialised wholesale trade</t>
+          <t>H51.2 - Freight air transport and space transport</t>
         </is>
       </c>
       <c r="I3" t="n">
@@ -595,12 +595,12 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>50 - 250</t>
+          <t xml:space="preserve"> &gt; 250</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2024-01-01 19:00:00</t>
+          <t>2024-01-01 21:00:00</t>
         </is>
       </c>
       <c r="N3" t="n">
@@ -618,12 +618,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>E29067738</t>
+          <t>N29137509</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>adress4,4 16 - V  City4, (Province4) 51983</t>
+          <t>adress4,4 3 - H  City4, (Province4) 85835</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -637,12 +637,12 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>980591314</v>
+        <v>954695334</v>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
-          <t>C30.1.2 - Building of pleasure and sporting boats</t>
+          <t>O84 - Public administration and defence; compulsory social security</t>
         </is>
       </c>
       <c r="I4" t="n">
@@ -653,7 +653,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Pool</t>
+          <t>Contact</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -663,11 +663,11 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2024-01-02 04:00:00</t>
+          <t>2024-01-02 02:00:00</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -681,12 +681,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>R27009196</t>
+          <t>H49865613</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>adress5,5 6 - C  City5, (Province5) 36027</t>
+          <t>adress5,5 6 - U  City5, (Province5) 57321</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -700,12 +700,12 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>974987021</v>
+        <v>951833334</v>
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
-          <t>B8.9.9 - Other mining and quarrying n.e.c.</t>
+          <t>E38.2.1 - Treatment and disposal of non-hazardous waste</t>
         </is>
       </c>
       <c r="I5" t="n">
@@ -721,12 +721,12 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>50 - 250</t>
+          <t xml:space="preserve"> &gt; 250</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2024-01-02 06:00:00</t>
+          <t>2024-01-02 11:00:00</t>
         </is>
       </c>
       <c r="N5" t="n">
@@ -744,12 +744,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>B33678289</t>
+          <t>E41210673</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>adress6,6 20 - Q  City6, (Province6) 99465</t>
+          <t>adress6,6 10 - H  City6, (Province6) 52783</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -763,12 +763,12 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>912038928</v>
+        <v>939538495</v>
       </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
-          <t>C27 - Manufacture of electrical equipment</t>
+          <t>H51.2.1 - Freight air transport</t>
         </is>
       </c>
       <c r="I6" t="n">
@@ -779,21 +779,21 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Contact</t>
+          <t>Pool</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &gt; 250</t>
+          <t xml:space="preserve"> &lt; 10</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>2024-01-02 13:00:00</t>
+          <t>2024-01-02 22:00:00</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -807,12 +807,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>P67917317</t>
+          <t>A05503560</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>adress7,7 14 - R  City7, (Province7) 25500</t>
+          <t>adress7,7 6 - B  City7, (Province7) 65617</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -826,12 +826,12 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>928246427</v>
+        <v>911026233</v>
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
         <is>
-          <t>M70.2 - Management consultancy activities</t>
+          <t>J63.9.1 - News agency activities</t>
         </is>
       </c>
       <c r="I7" t="n">
@@ -852,7 +852,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>2024-01-02 20:00:00</t>
+          <t>2024-01-03 07:00:00</t>
         </is>
       </c>
       <c r="N7" t="n">
@@ -870,12 +870,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>J09127819</t>
+          <t>J26275890</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>adress8,8 8 - Q  City8, (Province8) 87622</t>
+          <t>adress8,8 19 - G  City8, (Province8) 89981</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -889,12 +889,12 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>962327874</v>
+        <v>924433905</v>
       </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Q86.2 - Medical and dental practice activities</t>
+          <t>M74.9 - Other professional, scientific and technical activities n.e.c.</t>
         </is>
       </c>
       <c r="I8" t="n">
@@ -905,21 +905,21 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Contact</t>
+          <t>Pool</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt; 10</t>
+          <t>50 - 250</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>2024-01-03 02:00:00</t>
+          <t>2024-01-03 18:00:00</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -933,12 +933,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>C96118593</t>
+          <t>G81669407</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>adress9,9 6 - S  City9, (Province9) 03617</t>
+          <t>adress9,9 11 - G  City9, (Province9) 30909</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -952,12 +952,12 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>965439663</v>
+        <v>932258310</v>
       </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
-          <t>C17 - Manufacture of paper and paper products</t>
+          <t>C13.9.3 - Manufacture of carpets and rugs</t>
         </is>
       </c>
       <c r="I9" t="n">
@@ -968,21 +968,21 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Pool</t>
+          <t>Contact</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &gt; 250</t>
+          <t>10 - 50</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>2024-01-03 11:00:00</t>
+          <t>2024-01-04 06:00:00</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -996,12 +996,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>E35564512</t>
+          <t>C34470703</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>adress10,10 11 - S  City10, (Province10) 34803</t>
+          <t>adress10,10 9 - S  City10, (Province10) 92308</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1015,12 +1015,12 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>985510387</v>
+        <v>917264426</v>
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
         <is>
-          <t>R93.1 - Sports activities</t>
+          <t>C20.3 - Manufacture of paints, varnishes and similar coatings, printing ink and mastics</t>
         </is>
       </c>
       <c r="I10" t="n">
@@ -1036,12 +1036,12 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>50 - 250</t>
+          <t>10 - 50</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>2024-01-03 15:00:00</t>
+          <t>2024-01-04 09:00:00</t>
         </is>
       </c>
       <c r="N10" t="n">
@@ -1059,12 +1059,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>N71656330</t>
+          <t>V19107902</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>adress11,11 1 - A  City11, (Province11) 05512</t>
+          <t>adress11,11 10 - N  City11, (Province11) 39646</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1078,12 +1078,12 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>915657852</v>
+        <v>937908978</v>
       </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
         <is>
-          <t>C33.1.3 - Repair of electronic and optical equipment</t>
+          <t>B9.1.0 - Support activities for petroleum and natural gas extraction</t>
         </is>
       </c>
       <c r="I11" t="n">
@@ -1094,21 +1094,21 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Contact</t>
+          <t>Pool</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &gt; 250</t>
+          <t>50 - 250</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>2024-01-03 18:00:00</t>
+          <t>2024-01-04 10:00:00</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -1122,12 +1122,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>H52954836</t>
+          <t>P24264173</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>adress12,12 15 - P  City12, (Province12) 63296</t>
+          <t>adress12,12 2 - R  City12, (Province12) 60993</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1141,12 +1141,12 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>947916792</v>
+        <v>910289360</v>
       </c>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
         <is>
-          <t>M71.2.0 - Technical testing and analysis</t>
+          <t>A2.4.0 - Support services to forestry</t>
         </is>
       </c>
       <c r="I12" t="n">
@@ -1167,7 +1167,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2024-01-03 22:00:00</t>
+          <t>2024-01-04 21:00:00</t>
         </is>
       </c>
       <c r="N12" t="n">
@@ -1185,12 +1185,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Q25567106</t>
+          <t>U98059663</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>adress13,13 11 - Q  City13, (Province13) 78029</t>
+          <t>adress13,13 18 - G  City13, (Province13) 99942</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1204,12 +1204,12 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>928994951</v>
+        <v>999001684</v>
       </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr">
         <is>
-          <t>G46.2.3 - Wholesale of live animals</t>
+          <t>H49.2 - Freight rail transport</t>
         </is>
       </c>
       <c r="I13" t="n">
@@ -1225,12 +1225,12 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &gt; 250</t>
+          <t xml:space="preserve"> &lt; 10</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>2024-01-04 01:00:00</t>
+          <t>2024-01-05 07:00:00</t>
         </is>
       </c>
       <c r="N13" t="n">
@@ -1248,12 +1248,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Q98103166</t>
+          <t>A07715441</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>adress14,14 8 - J  City14, (Province14) 11354</t>
+          <t>adress14,14 13 - R  City14, (Province14) 63093</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1267,12 +1267,12 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>943143419</v>
+        <v>994332253</v>
       </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr">
         <is>
-          <t>B6.2 - Extraction of natural gas</t>
+          <t>C13.2.0 - Weaving of textiles</t>
         </is>
       </c>
       <c r="I14" t="n">
@@ -1288,12 +1288,12 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt; 10</t>
+          <t>10 - 50</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>2024-01-04 07:00:00</t>
+          <t>2024-01-05 15:00:00</t>
         </is>
       </c>
       <c r="N14" t="n">
@@ -1311,12 +1311,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>E88831840</t>
+          <t>W97709864</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>adress15,15 19 - F  City15, (Province15) 23347</t>
+          <t>adress15,15 5 - W  City15, (Province15) 52815</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1330,12 +1330,12 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>936214976</v>
+        <v>941000920</v>
       </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr">
         <is>
-          <t>C32.3.0 - Manufacture of sports goods</t>
+          <t>A1.2.7 - Growing of beverage crops</t>
         </is>
       </c>
       <c r="I15" t="n">
@@ -1356,7 +1356,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>2024-01-04 14:00:00</t>
+          <t>2024-01-05 19:00:00</t>
         </is>
       </c>
       <c r="N15" t="n">
@@ -1374,12 +1374,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>W41753235</t>
+          <t>F32302704</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>adress16,16 19 - E  City16, (Province16) 10581</t>
+          <t>adress16,16 17 - F  City16, (Province16) 98695</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1393,12 +1393,12 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>993938647</v>
+        <v>967256629</v>
       </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr">
         <is>
-          <t>O84.1.3 - Regulation of and contribution to more efficient operation of businesses</t>
+          <t>N81.2.2 - Other building and industrial cleaning activities</t>
         </is>
       </c>
       <c r="I16" t="n">
@@ -1414,12 +1414,12 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>50 - 250</t>
+          <t>10 - 50</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>2024-01-04 21:00:00</t>
+          <t>2024-01-06 01:00:00</t>
         </is>
       </c>
       <c r="N16" t="n">
@@ -1437,12 +1437,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>R83272888</t>
+          <t>R06836800</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>adress17,17 15 - E  City17, (Province17) 26254</t>
+          <t>adress17,17 11 - H  City17, (Province17) 48537</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1456,12 +1456,12 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>968152563</v>
+        <v>937805629</v>
       </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
-          <t>E38.2 - Waste treatment and disposal</t>
+          <t>C28.9 - Manufacture of other special-purpose machinery</t>
         </is>
       </c>
       <c r="I17" t="n">
@@ -1472,21 +1472,21 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Contact</t>
+          <t>Pool</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>10 - 50</t>
+          <t xml:space="preserve"> &lt; 10</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>2024-01-05 04:00:00</t>
+          <t>2024-01-06 06:00:00</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -1500,12 +1500,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Q24073929</t>
+          <t>V86373526</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>adress18,18 15 - U  City18, (Province18) 58275</t>
+          <t>adress18,18 4 - Q  City18, (Province18) 98610</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1519,12 +1519,12 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>995987066</v>
+        <v>909524453</v>
       </c>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
         <is>
-          <t>C19.1 - Manufacture of coke oven products</t>
+          <t>C33.1 - Repair of fabricated metal products, machinery and equipment</t>
         </is>
       </c>
       <c r="I18" t="n">
@@ -1535,7 +1535,7 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Contact</t>
+          <t>Pool</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -1545,11 +1545,11 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>2024-01-05 12:00:00</t>
+          <t>2024-01-06 17:00:00</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -1563,12 +1563,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>U21627455</t>
+          <t>Q42449427</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>adress19,19 9 - G  City19, (Province19) 19820</t>
+          <t>adress19,19 14 - P  City19, (Province19) 87476</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1582,12 +1582,12 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>915050955</v>
+        <v>908491285</v>
       </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr">
         <is>
-          <t>R90.0 - Creative, arts and entertainment activities</t>
+          <t>C30.9.9 - Manufacture of other transport equipment n.e.c.</t>
         </is>
       </c>
       <c r="I19" t="n">
@@ -1598,21 +1598,21 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Contact</t>
+          <t>Pool</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt; 10</t>
+          <t>50 - 250</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>2024-01-05 14:00:00</t>
+          <t>2024-01-07 00:00:00</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -1626,12 +1626,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>V03621761</t>
+          <t>S87668137</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>adress20,20 17 - A  City20, (Province20) 78720</t>
+          <t>adress20,20 2 - F  City20, (Province20) 24971</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1645,12 +1645,12 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>951809006</v>
+        <v>914953030</v>
       </c>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
-          <t>C28.9.4 - Manufacture of machinery for textile, apparel and leather production</t>
+          <t>A1.2.3 - Growing of citrus fruits</t>
         </is>
       </c>
       <c r="I20" t="n">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>2024-01-05 15:00:00</t>
+          <t>2024-01-07 08:00:00</t>
         </is>
       </c>
       <c r="N20" t="n">
@@ -1689,12 +1689,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>H57477491</t>
+          <t>B42967236</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>adress21,21 17 - W  City21, (Province21) 09409</t>
+          <t>adress21,21 12 - G  City21, (Province21) 25310</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1708,12 +1708,12 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>956551660</v>
+        <v>961011559</v>
       </c>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr">
         <is>
-          <t>G46.1.9 - Agents involved in the sale of a variety of goods</t>
+          <t>Q86.2.2 - Specialist medical practice activities</t>
         </is>
       </c>
       <c r="I21" t="n">
@@ -1729,12 +1729,12 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>50 - 250</t>
+          <t xml:space="preserve"> &gt; 250</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>2024-01-05 17:00:00</t>
+          <t>2024-01-07 11:00:00</t>
         </is>
       </c>
       <c r="N21" t="n">
@@ -1752,12 +1752,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>V60612194</t>
+          <t>P01181096</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>adress22,22 8 - J  City22, (Province22) 45183</t>
+          <t>adress22,22 13 - W  City22, (Province22) 53490</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1771,12 +1771,12 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>992789974</v>
+        <v>917378389</v>
       </c>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
-          <t>C29.1.0 - Manufacture of motor vehicles</t>
+          <t>I56.3.0 - Beverage serving activities</t>
         </is>
       </c>
       <c r="I22" t="n">
@@ -1792,12 +1792,12 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>10 - 50</t>
+          <t xml:space="preserve"> &gt; 250</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>2024-01-06 01:00:00</t>
+          <t>2024-01-07 12:00:00</t>
         </is>
       </c>
       <c r="N22" t="n">
@@ -1815,12 +1815,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>E28944883</t>
+          <t>C36914472</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>adress23,23 15 - A  City23, (Province23) 24304</t>
+          <t>adress23,23 1 - G  City23, (Province23) 86626</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1834,12 +1834,12 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>954714570</v>
+        <v>973908056</v>
       </c>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr">
         <is>
-          <t>C31.0 - Manufacture of furniture</t>
+          <t>Q88.1 - Social work activities without accommodation for the elderly and disabled</t>
         </is>
       </c>
       <c r="I23" t="n">
@@ -1850,21 +1850,21 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Pool</t>
+          <t>Contact</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &gt; 250</t>
+          <t>50 - 250</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>2024-01-06 02:00:00</t>
+          <t>2024-01-07 14:00:00</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -1878,12 +1878,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>H22560604</t>
+          <t>A48548340</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>adress24,24 11 - A  City24, (Province24) 53941</t>
+          <t>adress24,24 11 - S  City24, (Province24) 47152</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1897,12 +1897,12 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>975962287</v>
+        <v>944433571</v>
       </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
-          <t>G46.7.6 - Wholesale of other intermediate products</t>
+          <t>C25.4 - Manufacture of weapons and ammunition</t>
         </is>
       </c>
       <c r="I24" t="n">
@@ -1913,21 +1913,21 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Contact</t>
+          <t>Pool</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt; 10</t>
+          <t xml:space="preserve"> &gt; 250</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>2024-01-06 14:00:00</t>
+          <t>2024-01-07 16:00:00</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -1941,12 +1941,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>H49099418</t>
+          <t>A73384120</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>adress25,25 5 - A  City25, (Province25) 47636</t>
+          <t>adress25,25 8 - F  City25, (Province25) 03972</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1960,12 +1960,12 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>979174794</v>
+        <v>973189263</v>
       </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr">
         <is>
-          <t>C28.2.4 - Manufacture of power-driven hand tools</t>
+          <t>T - Activities of households as employers; undifferentiated goods - and services - producing activities of households for own use</t>
         </is>
       </c>
       <c r="I25" t="n">
@@ -1976,21 +1976,21 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Contact</t>
+          <t>Pool</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>10 - 50</t>
+          <t>50 - 250</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>2024-01-06 23:00:00</t>
+          <t>2024-01-08 03:00:00</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -2004,12 +2004,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>G29151395</t>
+          <t>H55397195</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>adress26,26 16 - F  City26, (Province26) 77427</t>
+          <t>adress26,26 15 - V  City26, (Province26) 22558</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -2023,12 +2023,12 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>927703145</v>
+        <v>960053599</v>
       </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr">
         <is>
-          <t>C17 - Manufacture of paper and paper products</t>
+          <t>C13 - Manufacture of textiles</t>
         </is>
       </c>
       <c r="I26" t="n">
@@ -2039,21 +2039,21 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Pool</t>
+          <t>Contact</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt; 10</t>
+          <t>10 - 50</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>2024-01-07 07:00:00</t>
+          <t>2024-01-08 15:00:00</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -2067,12 +2067,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>V73126397</t>
+          <t>C02979531</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>adress27,27 19 - C  City27, (Province27) 75934</t>
+          <t>adress27,27 19 - A  City27, (Province27) 56231</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -2086,12 +2086,12 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>929192850</v>
+        <v>915421143</v>
       </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
         <is>
-          <t>J62.0 - Computer programming, consultancy and related activities</t>
+          <t>N81.1 - Combined facilities support activities</t>
         </is>
       </c>
       <c r="I27" t="n">
@@ -2102,21 +2102,21 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Contact</t>
+          <t>Pool</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>50 - 250</t>
+          <t xml:space="preserve"> &lt; 10</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>2024-01-07 16:00:00</t>
+          <t>2024-01-08 18:00:00</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -2130,12 +2130,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>A65224837</t>
+          <t>P28685325</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>adress28,28 3 - C  City28, (Province28) 28291</t>
+          <t>adress28,28 13 - C  City28, (Province28) 70648</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -2149,12 +2149,12 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>985761602</v>
+        <v>998981087</v>
       </c>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
         <is>
-          <t>C29.1.0 - Manufacture of motor vehicles</t>
+          <t>C17.2.1 - Manufacture of corrugated paper and paperboard and of containers of paper and paperboard</t>
         </is>
       </c>
       <c r="I28" t="n">
@@ -2165,7 +2165,7 @@
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Contact</t>
+          <t>Pool</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2175,11 +2175,11 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>2024-01-07 17:00:00</t>
+          <t>2024-01-09 03:00:00</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -2193,12 +2193,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>B43916064</t>
+          <t>H56116670</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>adress29,29 18 - R  City29, (Province29) 82617</t>
+          <t>adress29,29 13 - F  City29, (Province29) 48924</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -2212,12 +2212,12 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>999291189</v>
+        <v>985435081</v>
       </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr">
         <is>
-          <t>C28.2.2 - Manufacture of lifting and handling equipment</t>
+          <t>P85.5.1 - Sports and recreation education</t>
         </is>
       </c>
       <c r="I29" t="n">
@@ -2233,12 +2233,12 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &gt; 250</t>
+          <t xml:space="preserve"> &lt; 10</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>2024-01-08 05:00:00</t>
+          <t>2024-01-09 14:00:00</t>
         </is>
       </c>
       <c r="N29" t="n">
@@ -2256,12 +2256,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>N26764652</t>
+          <t>H11686834</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>adress30,30 9 - F  City30, (Province30) 55280</t>
+          <t>adress30,30 6 - J  City30, (Province30) 47602</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -2275,12 +2275,12 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>936044539</v>
+        <v>980220888</v>
       </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr">
         <is>
-          <t>J61.2 - Wireless telecommunications activities</t>
+          <t>C33.1 - Repair of fabricated metal products, machinery and equipment</t>
         </is>
       </c>
       <c r="I30" t="n">
@@ -2296,12 +2296,12 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>10 - 50</t>
+          <t xml:space="preserve"> &gt; 250</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>2024-01-08 14:00:00</t>
+          <t>2024-01-10 00:00:00</t>
         </is>
       </c>
       <c r="N30" t="n">
@@ -2319,12 +2319,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>F87003783</t>
+          <t>J84935397</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>adress31,31 2 - J  City31, (Province31) 21856</t>
+          <t>adress31,31 9 - G  City31, (Province31) 53512</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -2338,12 +2338,12 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>964939937</v>
+        <v>974977306</v>
       </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr">
         <is>
-          <t>J58.1.2 - Publishing of directories and mailing lists</t>
+          <t>C13.3.0 - Finishing of textiles</t>
         </is>
       </c>
       <c r="I31" t="n">
@@ -2359,12 +2359,12 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>50 - 250</t>
+          <t xml:space="preserve"> &gt; 250</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>2024-01-08 17:00:00</t>
+          <t>2024-01-10 02:00:00</t>
         </is>
       </c>
       <c r="N31" t="n">
@@ -2382,12 +2382,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>S31245217</t>
+          <t>W84258604</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>adress32,32 13 - B  City32, (Province32) 21005</t>
+          <t>adress32,32 4 - Q  City32, (Province32) 69904</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -2401,12 +2401,12 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>908288288</v>
+        <v>905846091</v>
       </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr">
         <is>
-          <t>M69.1.0 - Legal activities</t>
+          <t>Q86.9.0 - Other human health activities</t>
         </is>
       </c>
       <c r="I32" t="n">
@@ -2417,7 +2417,7 @@
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Contact</t>
+          <t>Pool</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
@@ -2427,11 +2427,11 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>2024-01-08 22:00:00</t>
+          <t>2024-01-10 08:00:00</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -2445,12 +2445,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>B85902081</t>
+          <t>E58881592</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>adress33,33 16 - Q  City33, (Province33) 33521</t>
+          <t>adress33,33 20 - G  City33, (Province33) 41045</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -2464,12 +2464,12 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>994931693</v>
+        <v>938017642</v>
       </c>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr">
         <is>
-          <t>C20.5.2 - Manufacture of glues</t>
+          <t>C25.7.3 - Manufacture of tools</t>
         </is>
       </c>
       <c r="I33" t="n">
@@ -2485,12 +2485,12 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt; 10</t>
+          <t>10 - 50</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>2024-01-09 00:00:00</t>
+          <t>2024-01-10 15:00:00</t>
         </is>
       </c>
       <c r="N33" t="n">
@@ -2508,12 +2508,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>V34165113</t>
+          <t>U83107079</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>adress34,34 2 - W  City34, (Province34) 75305</t>
+          <t>adress34,34 11 - C  City34, (Province34) 45798</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -2527,12 +2527,12 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>913298472</v>
+        <v>907418166</v>
       </c>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr">
         <is>
-          <t>G45.2 - Maintenance and repair of motor vehicles</t>
+          <t>N78.1.0 - Activities of employment placement agencies</t>
         </is>
       </c>
       <c r="I34" t="n">
@@ -2548,12 +2548,12 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>50 - 250</t>
+          <t xml:space="preserve"> &gt; 250</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>2024-01-09 02:00:00</t>
+          <t>2024-01-10 16:00:00</t>
         </is>
       </c>
       <c r="N34" t="n">
@@ -2571,12 +2571,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>U23968633</t>
+          <t>B47647978</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>adress35,35 10 - P  City35, (Province35) 99559</t>
+          <t>adress35,35 1 - R  City35, (Province35) 99382</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2590,12 +2590,12 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>970945335</v>
+        <v>979558018</v>
       </c>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr">
         <is>
-          <t>C10.8.9 - Manufacture of other food products n.e.c.</t>
+          <t>N80.2.0 - Security systems service activities</t>
         </is>
       </c>
       <c r="I35" t="n">
@@ -2611,12 +2611,12 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &gt; 250</t>
+          <t xml:space="preserve"> &lt; 10</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>2024-01-09 03:00:00</t>
+          <t>2024-01-10 23:00:00</t>
         </is>
       </c>
       <c r="N35" t="n">
@@ -2634,12 +2634,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>P22262905</t>
+          <t>E05961230</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>adress36,36 4 - U  City36, (Province36) 63428</t>
+          <t>adress36,36 7 - F  City36, (Province36) 75794</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2653,12 +2653,12 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>926290919</v>
+        <v>900704965</v>
       </c>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr">
         <is>
-          <t>M74.9.0 - Other professional, scientific and technical activities n.e.c.</t>
+          <t>A1.4.2 - Raising of other cattle and buffaloes</t>
         </is>
       </c>
       <c r="I36" t="n">
@@ -2669,21 +2669,21 @@
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Contact</t>
+          <t>Pool</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt; 10</t>
+          <t xml:space="preserve"> &gt; 250</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>2024-01-09 13:00:00</t>
+          <t>2024-01-11 11:00:00</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -2697,12 +2697,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>V18148625</t>
+          <t>C86186349</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>adress37,37 11 - F  City37, (Province37) 57831</t>
+          <t>adress37,37 7 - U  City37, (Province37) 67720</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2716,12 +2716,12 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>945371982</v>
+        <v>914211418</v>
       </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr">
         <is>
-          <t>C10.8.2 - Manufacture of cocoa, chocolate and sugar confectionery</t>
+          <t>F42.2.2 - Construction of utility projects for electricity and telecommunications</t>
         </is>
       </c>
       <c r="I37" t="n">
@@ -2737,12 +2737,12 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &gt; 250</t>
+          <t xml:space="preserve"> &lt; 10</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>2024-01-09 16:00:00</t>
+          <t>2024-01-11 23:00:00</t>
         </is>
       </c>
       <c r="N37" t="n">
@@ -2760,12 +2760,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>R63414124</t>
+          <t>U73978290</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>adress38,38 1 - G  City38, (Province38) 59467</t>
+          <t>adress38,38 15 - J  City38, (Province38) 51927</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2779,12 +2779,12 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>997195948</v>
+        <v>937859942</v>
       </c>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr">
         <is>
-          <t>G47.2.1 - Retail sale of fruit and vegetables in specialised stores</t>
+          <t>L68.2.0 - Renting and operating of own or leased real estate</t>
         </is>
       </c>
       <c r="I38" t="n">
@@ -2800,12 +2800,12 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>50 - 250</t>
+          <t xml:space="preserve"> &lt; 10</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>2024-01-09 18:00:00</t>
+          <t>2024-01-12 04:00:00</t>
         </is>
       </c>
       <c r="N38" t="n">
@@ -2823,12 +2823,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>A10280534</t>
+          <t>W93511847</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>adress39,39 15 - R  City39, (Province39) 05854</t>
+          <t>adress39,39 10 - F  City39, (Province39) 62412</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -2842,12 +2842,12 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>998787178</v>
+        <v>984372883</v>
       </c>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Q87.3 - Residential care activities for the elderly and disabled</t>
+          <t>R90.0.4 - Operation of arts facilities</t>
         </is>
       </c>
       <c r="I39" t="n">
@@ -2858,7 +2858,7 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Pool</t>
+          <t>Contact</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
@@ -2868,11 +2868,11 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>2024-01-09 23:00:00</t>
+          <t>2024-01-12 07:00:00</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -2886,12 +2886,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>P39668273</t>
+          <t>N09477544</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>adress40,40 8 - Q  City40, (Province40) 68761</t>
+          <t>adress40,40 11 - A  City40, (Province40) 72493</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2905,12 +2905,12 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>921012760</v>
+        <v>985451058</v>
       </c>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr">
         <is>
-          <t>L68.2 - Renting and operating of own or leased real estate</t>
+          <t>P85.3.2 - Technical and vocational secondary education</t>
         </is>
       </c>
       <c r="I40" t="n">
@@ -2921,21 +2921,21 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Contact</t>
+          <t>Pool</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &gt; 250</t>
+          <t>10 - 50</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>2024-01-10 06:00:00</t>
+          <t>2024-01-12 17:00:00</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -2949,12 +2949,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>H30370627</t>
+          <t>F44878619</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>adress41,41 3 - G  City41, (Province41) 84856</t>
+          <t>adress41,41 1 - C  City41, (Province41) 83196</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2968,12 +2968,12 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>988412821</v>
+        <v>919761459</v>
       </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr">
         <is>
-          <t>F43.3.1 - Plastering</t>
+          <t>C15.1 - Tanning and dressing of leather; manufacture of luggage, handbags, saddlery and harness; dressing and dyeing of fur</t>
         </is>
       </c>
       <c r="I41" t="n">
@@ -2989,12 +2989,12 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>10 - 50</t>
+          <t xml:space="preserve"> &lt; 10</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>2024-01-10 15:00:00</t>
+          <t>2024-01-13 04:00:00</t>
         </is>
       </c>
       <c r="N41" t="n">
@@ -3012,12 +3012,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>C52921522</t>
+          <t>J39913320</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>adress42,42 20 - H  City42, (Province42) 99659</t>
+          <t>adress42,42 12 - V  City42, (Province42) 53293</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -3031,12 +3031,12 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>995949098</v>
+        <v>952674035</v>
       </c>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr">
         <is>
-          <t>G46.4.9 - Wholesale of other household goods</t>
+          <t>C26.2 - Manufacture of computers and peripheral equipment</t>
         </is>
       </c>
       <c r="I42" t="n">
@@ -3047,21 +3047,21 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Contact</t>
+          <t>Pool</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>50 - 250</t>
+          <t xml:space="preserve"> &gt; 250</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>2024-01-10 23:00:00</t>
+          <t>2024-01-13 10:00:00</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -3075,12 +3075,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>N78303148</t>
+          <t>A08472508</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>adress43,43 13 - H  City43, (Province43) 10840</t>
+          <t>adress43,43 9 - R  City43, (Province43) 77695</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -3094,12 +3094,12 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>914423025</v>
+        <v>951088099</v>
       </c>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr">
         <is>
-          <t>E37.0.0 - Sewerage</t>
+          <t>C20.3.0 - Manufacture of paints, varnishes and similar coatings, printing ink and mastics</t>
         </is>
       </c>
       <c r="I43" t="n">
@@ -3120,7 +3120,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>2024-01-11 02:00:00</t>
+          <t>2024-01-13 21:00:00</t>
         </is>
       </c>
       <c r="N43" t="n">
@@ -3138,12 +3138,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>H61837340</t>
+          <t>J81314882</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>adress44,44 8 - C  City44, (Province44) 89252</t>
+          <t>adress44,44 13 - H  City44, (Province44) 78259</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -3157,12 +3157,12 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>907309224</v>
+        <v>969674484</v>
       </c>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr">
         <is>
-          <t>H50.4 - Inland freight water transport</t>
+          <t>G47.3 - Retail sale of automotive fuel in specialised stores</t>
         </is>
       </c>
       <c r="I44" t="n">
@@ -3173,21 +3173,21 @@
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Pool</t>
+          <t>Contact</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>10 - 50</t>
+          <t xml:space="preserve"> &lt; 10</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>2024-01-11 08:00:00</t>
+          <t>2024-01-14 03:00:00</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -3201,12 +3201,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>N50208546</t>
+          <t>G51685706</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>adress45,45 15 - C  City45, (Province45) 60478</t>
+          <t>adress45,45 5 - F  City45, (Province45) 12632</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -3220,12 +3220,12 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>944740243</v>
+        <v>915136821</v>
       </c>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr">
         <is>
-          <t>C30.9.2 - Manufacture of bicycles and invalid carriages</t>
+          <t>J58.1.2 - Publishing of directories and mailing lists</t>
         </is>
       </c>
       <c r="I45" t="n">
@@ -3236,7 +3236,7 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Contact</t>
+          <t>Pool</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -3246,11 +3246,11 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>2024-01-11 17:00:00</t>
+          <t>2024-01-14 07:00:00</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -3264,12 +3264,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>R70679933</t>
+          <t>W82078871</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>adress46,46 11 - W  City46, (Province46) 27347</t>
+          <t>adress46,46 16 - U  City46, (Province46) 79062</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -3283,12 +3283,12 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>976545241</v>
+        <v>916287521</v>
       </c>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr">
         <is>
-          <t>C24.3 - Manufacture of other products of first processing of steel</t>
+          <t>C33.1.1 - Repair of fabricated metal products</t>
         </is>
       </c>
       <c r="I46" t="n">
@@ -3299,7 +3299,7 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Pool</t>
+          <t>Contact</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
@@ -3309,11 +3309,11 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>2024-01-12 00:00:00</t>
+          <t>2024-01-14 15:00:00</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O46" t="n">
         <v>0</v>
@@ -3327,12 +3327,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>G11119963</t>
+          <t>S40159215</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>adress47,47 9 - P  City47, (Province47) 78016</t>
+          <t>adress47,47 12 - H  City47, (Province47) 14914</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -3346,12 +3346,12 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>948609171</v>
+        <v>972538258</v>
       </c>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr">
         <is>
-          <t>P85.6 - Educational support activities</t>
+          <t>K66 - Activities auxiliary to financial services and insurance activities</t>
         </is>
       </c>
       <c r="I47" t="n">
@@ -3367,12 +3367,12 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt; 10</t>
+          <t xml:space="preserve"> &gt; 250</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>2024-01-12 01:00:00</t>
+          <t>2024-01-14 20:00:00</t>
         </is>
       </c>
       <c r="N47" t="n">
@@ -3390,12 +3390,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Q03505969</t>
+          <t>C40819828</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>adress48,48 1 - C  City48, (Province48) 85194</t>
+          <t>adress48,48 16 - E  City48, (Province48) 35147</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -3409,12 +3409,12 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>995054616</v>
+        <v>908152039</v>
       </c>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr">
         <is>
-          <t>N77.3 - Renting and leasing of other machinery, equipment and tangible goods</t>
+          <t>J62.0 - Computer programming, consultancy and related activities</t>
         </is>
       </c>
       <c r="I48" t="n">
@@ -3430,12 +3430,12 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>10 - 50</t>
+          <t xml:space="preserve"> &lt; 10</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>2024-01-12 06:00:00</t>
+          <t>2024-01-15 03:00:00</t>
         </is>
       </c>
       <c r="N48" t="n">
@@ -3453,12 +3453,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>U75019576</t>
+          <t>A34933111</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>adress49,49 16 - G  City49, (Province49) 30913</t>
+          <t>adress49,49 15 - R  City49, (Province49) 15711</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -3472,12 +3472,12 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>988374787</v>
+        <v>921488740</v>
       </c>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr">
         <is>
-          <t>H - Transporting and storage</t>
+          <t>C26.6 - Manufacture of irradiation, electromedical and electrotherapeutic equipment</t>
         </is>
       </c>
       <c r="I49" t="n">
@@ -3488,21 +3488,21 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Pool</t>
+          <t>Contact</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &gt; 250</t>
+          <t>10 - 50</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>2024-01-12 10:00:00</t>
+          <t>2024-01-15 14:00:00</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O49" t="n">
         <v>0</v>
@@ -3516,12 +3516,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>F55439588</t>
+          <t>B72556308</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>adress50,50 13 - F  City50, (Province50) 30942</t>
+          <t>adress50,50 15 - U  City50, (Province50) 74748</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -3535,12 +3535,12 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>908838718</v>
+        <v>969157344</v>
       </c>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr">
         <is>
-          <t>C24.4.6 - Processing of nuclear fuel</t>
+          <t>G45 - Wholesale and retail trade and repair of motor vehicles and motorcycles</t>
         </is>
       </c>
       <c r="I50" t="n">
@@ -3561,7 +3561,7 @@
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>2024-01-12 21:00:00</t>
+          <t>2024-01-15 22:00:00</t>
         </is>
       </c>
       <c r="N50" t="n">
@@ -3579,12 +3579,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>B65133592</t>
+          <t>E14112721</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>adress51,51 6 - U  City51, (Province51) 65988</t>
+          <t>adress51,51 13 - B  City51, (Province51) 97616</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -3598,12 +3598,12 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>980814494</v>
+        <v>912275791</v>
       </c>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr">
         <is>
-          <t>S - Other services activities</t>
+          <t>C15.1.2 - Manufacture of luggage, handbags and the like, saddlery and harness</t>
         </is>
       </c>
       <c r="I51" t="n">
@@ -3614,21 +3614,21 @@
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Contact</t>
+          <t>Pool</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>50 - 250</t>
+          <t xml:space="preserve"> &gt; 250</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>2024-01-13 09:00:00</t>
+          <t>2024-01-16 00:00:00</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O51" t="n">
         <v>0</v>
@@ -3642,12 +3642,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>H21966408</t>
+          <t>W37158227</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>adress52,52 12 - A  City52, (Province52) 27565</t>
+          <t>adress52,52 2 - N  City52, (Province52) 76349</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -3661,12 +3661,12 @@
         </is>
       </c>
       <c r="F52" t="n">
-        <v>910501188</v>
+        <v>957437622</v>
       </c>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr">
         <is>
-          <t>C18 - Printing and reproduction of recorded media</t>
+          <t>F42.9.1 - Construction of water projects</t>
         </is>
       </c>
       <c r="I52" t="n">
@@ -3687,7 +3687,7 @@
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>2024-01-13 11:00:00</t>
+          <t>2024-01-16 10:00:00</t>
         </is>
       </c>
       <c r="N52" t="n">
@@ -3705,12 +3705,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>F89030071</t>
+          <t>W82410326</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>adress53,53 8 - C  City53, (Province53) 82703</t>
+          <t>adress53,53 11 - H  City53, (Province53) 65640</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -3724,12 +3724,12 @@
         </is>
       </c>
       <c r="F53" t="n">
-        <v>901601509</v>
+        <v>985424296</v>
       </c>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr">
         <is>
-          <t>C28.1.3 - Manufacture of other pumps and compressors</t>
+          <t>I55.9.0 - Other accommodation</t>
         </is>
       </c>
       <c r="I53" t="n">
@@ -3740,21 +3740,21 @@
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Pool</t>
+          <t>Contact</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>50 - 250</t>
+          <t xml:space="preserve"> &lt; 10</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>2024-01-13 19:00:00</t>
+          <t>2024-01-16 13:00:00</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O53" t="n">
         <v>0</v>
@@ -3768,12 +3768,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>V08637565</t>
+          <t>C31254493</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>adress54,54 4 - B  City54, (Province54) 53998</t>
+          <t>adress54,54 13 - C  City54, (Province54) 68398</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -3787,12 +3787,12 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>929966911</v>
+        <v>950645322</v>
       </c>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr">
         <is>
-          <t>G46.2 - Wholesale of agricultural raw materials and live animals</t>
+          <t>S95.2.2 - Repair of household appliances and home and garden equipment</t>
         </is>
       </c>
       <c r="I54" t="n">
@@ -3803,21 +3803,21 @@
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Pool</t>
+          <t>Contact</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &gt; 250</t>
+          <t>10 - 50</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>2024-01-14 05:00:00</t>
+          <t>2024-01-16 19:00:00</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O54" t="n">
         <v>0</v>
@@ -3831,12 +3831,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>S10186475</t>
+          <t>G09253306</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>adress55,55 2 - H  City55, (Province55) 69363</t>
+          <t>adress55,55 14 - U  City55, (Province55) 91339</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -3850,12 +3850,12 @@
         </is>
       </c>
       <c r="F55" t="n">
-        <v>982733180</v>
+        <v>957076072</v>
       </c>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr">
         <is>
-          <t>J61.3 - Satellite telecommunications activities</t>
+          <t>N81 - Services to buildings and landscape activities</t>
         </is>
       </c>
       <c r="I55" t="n">
@@ -3866,21 +3866,21 @@
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Pool</t>
+          <t>Contact</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &gt; 250</t>
+          <t>10 - 50</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>2024-01-14 15:00:00</t>
+          <t>2024-01-17 00:00:00</t>
         </is>
       </c>
       <c r="N55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O55" t="n">
         <v>0</v>
@@ -3894,12 +3894,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>P55252146</t>
+          <t>G20856890</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>adress56,56 9 - C  City56, (Province56) 89706</t>
+          <t>adress56,56 12 - H  City56, (Province56) 83162</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -3913,12 +3913,12 @@
         </is>
       </c>
       <c r="F56" t="n">
-        <v>908640201</v>
+        <v>921316212</v>
       </c>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr">
         <is>
-          <t>C25.4.0 - Manufacture of weapons and ammunition</t>
+          <t>M73.2.0 - Market research and public opinion polling</t>
         </is>
       </c>
       <c r="I56" t="n">
@@ -3934,12 +3934,12 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>50 - 250</t>
+          <t>10 - 50</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>2024-01-14 16:00:00</t>
+          <t>2024-01-17 03:00:00</t>
         </is>
       </c>
       <c r="N56" t="n">
@@ -3957,12 +3957,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>G05556013</t>
+          <t>R42785401</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>adress57,57 10 - U  City57, (Province57) 40046</t>
+          <t>adress57,57 3 - U  City57, (Province57) 15098</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -3976,12 +3976,12 @@
         </is>
       </c>
       <c r="F57" t="n">
-        <v>980711853</v>
+        <v>933691864</v>
       </c>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr">
         <is>
-          <t>C21.2 - Manufacture of pharmaceutical preparations</t>
+          <t>C24.3.1 - Cold drawing of bars</t>
         </is>
       </c>
       <c r="I57" t="n">
@@ -3997,12 +3997,12 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt; 10</t>
+          <t xml:space="preserve"> &gt; 250</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>2024-01-15 03:00:00</t>
+          <t>2024-01-17 14:00:00</t>
         </is>
       </c>
       <c r="N57" t="n">
@@ -4020,12 +4020,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>J47118020</t>
+          <t>V80934219</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>adress58,58 6 - B  City58, (Province58) 55624</t>
+          <t>adress58,58 12 - P  City58, (Province58) 21036</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -4039,12 +4039,12 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>993007027</v>
+        <v>971305446</v>
       </c>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr">
         <is>
-          <t>C17.2 - Manufacture of articles of paper and paperboard</t>
+          <t>C23.1 - Manufacture of glass and glass products</t>
         </is>
       </c>
       <c r="I58" t="n">
@@ -4060,12 +4060,12 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt; 10</t>
+          <t xml:space="preserve"> &gt; 250</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>2024-01-15 15:00:00</t>
+          <t>2024-01-18 02:00:00</t>
         </is>
       </c>
       <c r="N58" t="n">
@@ -4083,12 +4083,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>U14126257</t>
+          <t>E54585270</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>adress59,59 4 - S  City59, (Province59) 29147</t>
+          <t>adress59,59 9 - F  City59, (Province59) 77056</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -4102,12 +4102,12 @@
         </is>
       </c>
       <c r="F59" t="n">
-        <v>916211503</v>
+        <v>991305200</v>
       </c>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr">
         <is>
-          <t>D35.1.4 - Trade of electricity</t>
+          <t>C23.6.1 - Manufacture of concrete products for construction purposes</t>
         </is>
       </c>
       <c r="I59" t="n">
@@ -4118,21 +4118,21 @@
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Contact</t>
+          <t>Pool</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>10 - 50</t>
+          <t xml:space="preserve"> &lt; 10</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>2024-01-15 23:00:00</t>
+          <t>2024-01-18 13:00:00</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O59" t="n">
         <v>0</v>
@@ -4146,12 +4146,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>B11136489</t>
+          <t>S47825792</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>adress60,60 17 - N  City60, (Province60) 18382</t>
+          <t>adress60,60 19 - H  City60, (Province60) 81510</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -4165,12 +4165,12 @@
         </is>
       </c>
       <c r="F60" t="n">
-        <v>936843151</v>
+        <v>956666607</v>
       </c>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr">
         <is>
-          <t>H49.4 - Freight transport by road and removal services</t>
+          <t>H49.5.0 - Transport via pipeline</t>
         </is>
       </c>
       <c r="I60" t="n">
@@ -4181,21 +4181,21 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Pool</t>
+          <t>Contact</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &gt; 250</t>
+          <t>50 - 250</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>2024-01-16 03:00:00</t>
+          <t>2024-01-18 18:00:00</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O60" t="n">
         <v>0</v>
@@ -4209,12 +4209,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>A05524527</t>
+          <t>S03887866</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>adress61,61 20 - B  City61, (Province61) 80513</t>
+          <t>adress61,61 2 - V  City61, (Province61) 68759</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -4228,12 +4228,12 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>911447470</v>
+        <v>932978969</v>
       </c>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr">
         <is>
-          <t>C33.1.3 - Repair of electronic and optical equipment</t>
+          <t>G47.2.6 - Retail sale of tobacco products in specialised stores</t>
         </is>
       </c>
       <c r="I61" t="n">
@@ -4244,21 +4244,21 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Contact</t>
+          <t>Pool</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &gt; 250</t>
+          <t>50 - 250</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>2024-01-16 05:00:00</t>
+          <t>2024-01-19 05:00:00</t>
         </is>
       </c>
       <c r="N61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O61" t="n">
         <v>0</v>
@@ -4272,12 +4272,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>G11726116</t>
+          <t>A80230458</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>adress62,62 16 - F  City62, (Province62) 16798</t>
+          <t>adress62,62 12 - U  City62, (Province62) 11247</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -4291,12 +4291,12 @@
         </is>
       </c>
       <c r="F62" t="n">
-        <v>935995418</v>
+        <v>926115175</v>
       </c>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr">
         <is>
-          <t>C33.1.2 - Repair of machinery</t>
+          <t>C10.7.1 - Manufacture of bread; manufacture of fresh pastry goods and cakes</t>
         </is>
       </c>
       <c r="I62" t="n">
@@ -4312,12 +4312,12 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>50 - 250</t>
+          <t xml:space="preserve"> &gt; 250</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>2024-01-16 11:00:00</t>
+          <t>2024-01-19 08:00:00</t>
         </is>
       </c>
       <c r="N62" t="n">
@@ -4335,12 +4335,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>P35365678</t>
+          <t>W60219508</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>adress63,63 6 - C  City63, (Province63) 45877</t>
+          <t>adress63,63 17 - F  City63, (Province63) 87406</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -4354,12 +4354,12 @@
         </is>
       </c>
       <c r="F63" t="n">
-        <v>915393437</v>
+        <v>967824254</v>
       </c>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr">
         <is>
-          <t>R91 - Libraries, archives, museums and other cultural activities</t>
+          <t>C26.4.0 - Manufacture of consumer electronics</t>
         </is>
       </c>
       <c r="I63" t="n">
@@ -4370,7 +4370,7 @@
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Contact</t>
+          <t>Pool</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
@@ -4380,11 +4380,11 @@
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>2024-01-16 16:00:00</t>
+          <t>2024-01-19 18:00:00</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O63" t="n">
         <v>0</v>
@@ -4398,12 +4398,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>B08441854</t>
+          <t>A31378907</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>adress64,64 17 - E  City64, (Province64) 81458</t>
+          <t>adress64,64 15 - V  City64, (Province64) 65175</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -4417,12 +4417,12 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>954385916</v>
+        <v>980920693</v>
       </c>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr">
         <is>
-          <t>R93.1.9 - Other sports activities</t>
+          <t>G46.1.1 - Agents involved in the sale of agricultural raw materials, live animals, textile raw materials and semi-finished goods</t>
         </is>
       </c>
       <c r="I64" t="n">
@@ -4438,12 +4438,12 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt; 10</t>
+          <t xml:space="preserve"> &gt; 250</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>2024-01-17 04:00:00</t>
+          <t>2024-01-19 22:00:00</t>
         </is>
       </c>
       <c r="N64" t="n">
@@ -4461,12 +4461,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>E57386095</t>
+          <t>Q27537144</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>adress65,65 13 - C  City65, (Province65) 34897</t>
+          <t>adress65,65 1 - A  City65, (Province65) 40039</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -4480,12 +4480,12 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>993479760</v>
+        <v>974276077</v>
       </c>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr">
         <is>
-          <t>C14.1.4 - Manufacture of underwear</t>
+          <t>A3.2.2 - Freshwater aquaculture</t>
         </is>
       </c>
       <c r="I65" t="n">
@@ -4501,12 +4501,12 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &gt; 250</t>
+          <t xml:space="preserve"> &lt; 10</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>2024-01-17 10:00:00</t>
+          <t>2024-01-20 04:00:00</t>
         </is>
       </c>
       <c r="N65" t="n">
@@ -4524,12 +4524,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>U50590699</t>
+          <t>U08466061</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>adress66,66 17 - W  City66, (Province66) 99924</t>
+          <t>adress66,66 16 - F  City66, (Province66) 99094</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -4543,12 +4543,12 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>958718259</v>
+        <v>912613747</v>
       </c>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr">
         <is>
-          <t>C28.2 - Manufacture of other general-purpose machinery</t>
+          <t>C15.2.0 - Manufacture of footwear</t>
         </is>
       </c>
       <c r="I66" t="n">
@@ -4569,7 +4569,7 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>2024-01-17 13:00:00</t>
+          <t>2024-01-20 09:00:00</t>
         </is>
       </c>
       <c r="N66" t="n">
@@ -4587,12 +4587,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>W38752346</t>
+          <t>G63692403</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>adress67,67 11 - V  City67, (Province67) 57579</t>
+          <t>adress67,67 20 - F  City67, (Province67) 19724</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -4606,12 +4606,12 @@
         </is>
       </c>
       <c r="F67" t="n">
-        <v>964852262</v>
+        <v>991015482</v>
       </c>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr">
         <is>
-          <t>C33.2.0 - Installation of industrial machinery and equipment</t>
+          <t>C23.7.0 - Cutting, shaping and finishing of stone</t>
         </is>
       </c>
       <c r="I67" t="n">
@@ -4627,12 +4627,12 @@
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>50 - 250</t>
+          <t xml:space="preserve"> &lt; 10</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>2024-01-17 14:00:00</t>
+          <t>2024-01-20 21:00:00</t>
         </is>
       </c>
       <c r="N67" t="n">
@@ -4650,12 +4650,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>N94980805</t>
+          <t>V08390949</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>adress68,68 20 - F  City68, (Province68) 80787</t>
+          <t>adress68,68 18 - V  City68, (Province68) 37465</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -4669,12 +4669,12 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>936379256</v>
+        <v>941567489</v>
       </c>
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr">
         <is>
-          <t>S - Other services activities</t>
+          <t>N77.4.0 - Leasing of intellectual property and similar products, except copyrighted works</t>
         </is>
       </c>
       <c r="I68" t="n">
@@ -4690,12 +4690,12 @@
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt; 10</t>
+          <t>50 - 250</t>
         </is>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>2024-01-17 17:00:00</t>
+          <t>2024-01-20 23:00:00</t>
         </is>
       </c>
       <c r="N68" t="n">
@@ -4713,12 +4713,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>C45852737</t>
+          <t>S07570474</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>adress69,69 1 - Q  City69, (Province69) 77059</t>
+          <t>adress69,69 2 - V  City69, (Province69) 39534</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -4732,12 +4732,12 @@
         </is>
       </c>
       <c r="F69" t="n">
-        <v>947442755</v>
+        <v>969260161</v>
       </c>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr">
         <is>
-          <t>D - Electricity, gas, steam and air conditioning supply</t>
+          <t>M75.0.0 - Veterinary activities</t>
         </is>
       </c>
       <c r="I69" t="n">
@@ -4748,21 +4748,21 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Pool</t>
+          <t>Contact</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>50 - 250</t>
+          <t xml:space="preserve"> &lt; 10</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>2024-01-17 18:00:00</t>
+          <t>2024-01-21 03:00:00</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O69" t="n">
         <v>0</v>
@@ -4776,12 +4776,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>H71261028</t>
+          <t>H86667547</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>adress70,70 5 - H  City70, (Province70) 78184</t>
+          <t>adress70,70 10 - P  City70, (Province70) 27195</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -4795,12 +4795,12 @@
         </is>
       </c>
       <c r="F70" t="n">
-        <v>975232551</v>
+        <v>953485538</v>
       </c>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr">
         <is>
-          <t>H51.1.0 - Passenger air transport</t>
+          <t>C30.2 - Manufacture of railway locomotives and rolling stock</t>
         </is>
       </c>
       <c r="I70" t="n">
@@ -4816,12 +4816,12 @@
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>10 - 50</t>
+          <t xml:space="preserve"> &gt; 250</t>
         </is>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>2024-01-18 05:00:00</t>
+          <t>2024-01-21 12:00:00</t>
         </is>
       </c>
       <c r="N70" t="n">
@@ -4839,12 +4839,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Q48350570</t>
+          <t>P62815694</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>adress71,71 17 - F  City71, (Province71) 60701</t>
+          <t>adress71,71 12 - E  City71, (Province71) 51801</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -4858,12 +4858,12 @@
         </is>
       </c>
       <c r="F71" t="n">
-        <v>935541610</v>
+        <v>908267925</v>
       </c>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr">
         <is>
-          <t>J63.1 - Data processing, hosting and related activities; web portals</t>
+          <t>T98.2 - Undifferentiated service-producing activities of private households for own use</t>
         </is>
       </c>
       <c r="I71" t="n">
@@ -4879,12 +4879,12 @@
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt; 10</t>
+          <t>10 - 50</t>
         </is>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>2024-01-18 09:00:00</t>
+          <t>2024-01-21 13:00:00</t>
         </is>
       </c>
       <c r="N71" t="n">
@@ -4902,12 +4902,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>J55382534</t>
+          <t>F34497366</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>adress72,72 14 - H  City72, (Province72) 84444</t>
+          <t>adress72,72 14 - B  City72, (Province72) 32023</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -4921,12 +4921,12 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>988857805</v>
+        <v>998027851</v>
       </c>
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="inlineStr">
         <is>
-          <t>G46.4.1 - Wholesale of textiles</t>
+          <t>C11.0.5 - Manufacture of beer</t>
         </is>
       </c>
       <c r="I72" t="n">
@@ -4937,21 +4937,21 @@
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Pool</t>
+          <t>Contact</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &gt; 250</t>
+          <t>10 - 50</t>
         </is>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>2024-01-18 10:00:00</t>
+          <t>2024-01-21 22:00:00</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O72" t="n">
         <v>0</v>
@@ -4965,12 +4965,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>V84473798</t>
+          <t>R53426600</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>adress73,73 15 - G  City73, (Province73) 83649</t>
+          <t>adress73,73 4 - A  City73, (Province73) 74103</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -4984,12 +4984,12 @@
         </is>
       </c>
       <c r="F73" t="n">
-        <v>935691326</v>
+        <v>999392086</v>
       </c>
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr">
         <is>
-          <t>C26.4 - Manufacture of consumer electronics</t>
+          <t>C22.2.3 - Manufacture of builders’ ware of plastic</t>
         </is>
       </c>
       <c r="I73" t="n">
@@ -5000,7 +5000,7 @@
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Pool</t>
+          <t>Contact</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
@@ -5010,11 +5010,11 @@
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>2024-01-18 12:00:00</t>
+          <t>2024-01-22 10:00:00</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O73" t="n">
         <v>0</v>
@@ -5028,12 +5028,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Q29405020</t>
+          <t>S97466840</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>adress74,74 1 - W  City74, (Province74) 51598</t>
+          <t>adress74,74 12 - B  City74, (Province74) 89699</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -5047,12 +5047,12 @@
         </is>
       </c>
       <c r="F74" t="n">
-        <v>991416292</v>
+        <v>947421746</v>
       </c>
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr">
         <is>
-          <t>U99.0.0 - Activities of extraterritorial organisations and bodies</t>
+          <t>M69 - Legal and accounting activities</t>
         </is>
       </c>
       <c r="I74" t="n">
@@ -5068,12 +5068,12 @@
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt; 10</t>
+          <t>50 - 250</t>
         </is>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>2024-01-18 22:00:00</t>
+          <t>2024-01-22 15:00:00</t>
         </is>
       </c>
       <c r="N74" t="n">
@@ -5091,12 +5091,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>C15186682</t>
+          <t>Q18772927</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>adress75,75 4 - U  City75, (Province75) 61911</t>
+          <t>adress75,75 16 - S  City75, (Province75) 63676</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -5110,12 +5110,12 @@
         </is>
       </c>
       <c r="F75" t="n">
-        <v>993882994</v>
+        <v>949662600</v>
       </c>
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr">
         <is>
-          <t>C20.5.2 - Manufacture of glues</t>
+          <t>C26.8.0 - Manufacture of magnetic and optical media</t>
         </is>
       </c>
       <c r="I75" t="n">
@@ -5131,12 +5131,12 @@
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &gt; 250</t>
+          <t xml:space="preserve"> &lt; 10</t>
         </is>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>2024-01-19 02:00:00</t>
+          <t>2024-01-23 00:00:00</t>
         </is>
       </c>
       <c r="N75" t="n">
@@ -5154,12 +5154,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>V58037216</t>
+          <t>W26293336</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>adress76,76 1 - C  City76, (Province76) 92754</t>
+          <t>adress76,76 19 - V  City76, (Province76) 26916</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -5173,12 +5173,12 @@
         </is>
       </c>
       <c r="F76" t="n">
-        <v>949646818</v>
+        <v>913842156</v>
       </c>
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr">
         <is>
-          <t>C24.5.1 - Casting of iron</t>
+          <t>J59.1.2 - Motion picture, video and television programme post-production activities</t>
         </is>
       </c>
       <c r="I76" t="n">
@@ -5189,21 +5189,21 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>Pool</t>
+          <t>Contact</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>10 - 50</t>
+          <t xml:space="preserve"> &lt; 10</t>
         </is>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>2024-01-19 10:00:00</t>
+          <t>2024-01-23 09:00:00</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O76" t="n">
         <v>0</v>
@@ -5217,12 +5217,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>A51414534</t>
+          <t>V53925178</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>adress77,77 20 - C  City77, (Province77) 78523</t>
+          <t>adress77,77 7 - E  City77, (Province77) 29430</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -5236,12 +5236,12 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>999595303</v>
+        <v>963017675</v>
       </c>
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr">
         <is>
-          <t>C11.0 - Manufacture of beverages</t>
+          <t>C18.1.2 - Other printing</t>
         </is>
       </c>
       <c r="I77" t="n">
@@ -5252,7 +5252,7 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Contact</t>
+          <t>Pool</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
@@ -5262,11 +5262,11 @@
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>2024-01-19 19:00:00</t>
+          <t>2024-01-23 21:00:00</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O77" t="n">
         <v>0</v>
@@ -5280,12 +5280,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>R15038653</t>
+          <t>S90232355</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>adress78,78 19 - A  City78, (Province78) 45011</t>
+          <t>adress78,78 8 - B  City78, (Province78) 61644</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -5299,12 +5299,12 @@
         </is>
       </c>
       <c r="F78" t="n">
-        <v>908148349</v>
+        <v>953419991</v>
       </c>
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="inlineStr">
         <is>
-          <t>R91 - Libraries, archives, museums and other cultural activities</t>
+          <t>C20.5.2 - Manufacture of glues</t>
         </is>
       </c>
       <c r="I78" t="n">
@@ -5315,21 +5315,21 @@
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Contact</t>
+          <t>Pool</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt; 10</t>
+          <t>10 - 50</t>
         </is>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>2024-01-19 20:00:00</t>
+          <t>2024-01-24 09:00:00</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O78" t="n">
         <v>0</v>
@@ -5343,12 +5343,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>C81333639</t>
+          <t>B62139228</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>adress79,79 18 - N  City79, (Province79) 84534</t>
+          <t>adress79,79 3 - V  City79, (Province79) 75020</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -5362,12 +5362,12 @@
         </is>
       </c>
       <c r="F79" t="n">
-        <v>946140690</v>
+        <v>984840089</v>
       </c>
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr">
         <is>
-          <t>J59.1.4 - Motion picture projection activities</t>
+          <t>A1.5.0 - Mixed farming</t>
         </is>
       </c>
       <c r="I79" t="n">
@@ -5378,21 +5378,21 @@
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Pool</t>
+          <t>Contact</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt; 10</t>
+          <t xml:space="preserve"> &gt; 250</t>
         </is>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>2024-01-19 23:00:00</t>
+          <t>2024-01-24 18:00:00</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O79" t="n">
         <v>0</v>
@@ -5406,12 +5406,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>J96933449</t>
+          <t>F27265634</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>adress80,80 18 - B  City80, (Province80) 32311</t>
+          <t>adress80,80 20 - V  City80, (Province80) 93855</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -5425,12 +5425,12 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>954017511</v>
+        <v>937293888</v>
       </c>
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr">
         <is>
-          <t>C33.1.5 - Repair and maintenance of ships and boats</t>
+          <t>J59.1 - Motion picture, video and television programme activities</t>
         </is>
       </c>
       <c r="I80" t="n">
@@ -5446,12 +5446,12 @@
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>10 - 50</t>
+          <t>50 - 250</t>
         </is>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>2024-01-20 08:00:00</t>
+          <t>2024-01-24 23:00:00</t>
         </is>
       </c>
       <c r="N80" t="n">
@@ -5469,12 +5469,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>B78358972</t>
+          <t>J75021853</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>adress81,81 7 - B  City81, (Province81) 51118</t>
+          <t>adress81,81 7 - B  City81, (Province81) 05317</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -5488,12 +5488,12 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>904134969</v>
+        <v>973856426</v>
       </c>
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr">
         <is>
-          <t>O84.2 - Provision of services to the community as a whole</t>
+          <t>G47.7.8 - Other retail sale of new goods in specialised stores</t>
         </is>
       </c>
       <c r="I81" t="n">
@@ -5504,21 +5504,21 @@
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Contact</t>
+          <t>Pool</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>50 - 250</t>
+          <t xml:space="preserve"> &lt; 10</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>2024-01-20 11:00:00</t>
+          <t>2024-01-25 01:00:00</t>
         </is>
       </c>
       <c r="N81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O81" t="n">
         <v>0</v>
@@ -5532,12 +5532,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>H78958455</t>
+          <t>U64752952</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>adress82,82 4 - F  City82, (Province82) 18108</t>
+          <t>adress82,82 4 - N  City82, (Province82) 15787</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -5551,12 +5551,12 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>979212732</v>
+        <v>991519286</v>
       </c>
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="inlineStr">
         <is>
-          <t>C23.1.2 - Shaping and processing of flat glass</t>
+          <t>A1.1.6 - Growing of fibre crops</t>
         </is>
       </c>
       <c r="I82" t="n">
@@ -5572,12 +5572,12 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &gt; 250</t>
+          <t>50 - 250</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>2024-01-20 13:00:00</t>
+          <t>2024-01-25 04:00:00</t>
         </is>
       </c>
       <c r="N82" t="n">
@@ -5595,12 +5595,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>C29005430</t>
+          <t>C86966047</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>adress83,83 15 - R  City83, (Province83) 08104</t>
+          <t>adress83,83 11 - V  City83, (Province83) 06942</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -5614,12 +5614,12 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>965764022</v>
+        <v>990753720</v>
       </c>
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr">
         <is>
-          <t>C20.5.3 - Manufacture of essential oils</t>
+          <t>B7 - Mining of metal ores</t>
         </is>
       </c>
       <c r="I83" t="n">
@@ -5635,12 +5635,12 @@
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>50 - 250</t>
+          <t>10 - 50</t>
         </is>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>2024-01-21 01:00:00</t>
+          <t>2024-01-25 07:00:00</t>
         </is>
       </c>
       <c r="N83" t="n">
@@ -5658,12 +5658,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>R78342158</t>
+          <t>B43806010</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>adress84,84 19 - E  City84, (Province84) 28843</t>
+          <t>adress84,84 12 - N  City84, (Province84) 79219</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -5677,12 +5677,12 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>976909742</v>
+        <v>949631406</v>
       </c>
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="inlineStr">
         <is>
-          <t>C20.5.2 - Manufacture of glues</t>
+          <t>A1.6.4 - Seed processing for propagation</t>
         </is>
       </c>
       <c r="I84" t="n">
@@ -5703,7 +5703,7 @@
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>2024-01-21 04:00:00</t>
+          <t>2024-01-25 17:00:00</t>
         </is>
       </c>
       <c r="N84" t="n">
@@ -5721,12 +5721,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>V67694622</t>
+          <t>H99658088</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>adress85,85 12 - B  City85, (Province85) 98919</t>
+          <t>adress85,85 8 - A  City85, (Province85) 90659</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -5740,12 +5740,12 @@
         </is>
       </c>
       <c r="F85" t="n">
-        <v>928769067</v>
+        <v>935867684</v>
       </c>
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr">
         <is>
-          <t>J59.1 - Motion picture, video and television programme activities</t>
+          <t>H - Transporting and storage</t>
         </is>
       </c>
       <c r="I85" t="n">
@@ -5756,21 +5756,21 @@
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>Pool</t>
+          <t>Contact</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt; 10</t>
+          <t>50 - 250</t>
         </is>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>2024-01-21 05:00:00</t>
+          <t>2024-01-25 22:00:00</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O85" t="n">
         <v>0</v>
@@ -5784,12 +5784,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>P56524938</t>
+          <t>G76904741</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>adress86,86 15 - F  City86, (Province86) 29568</t>
+          <t>adress86,86 4 - V  City86, (Province86) 69453</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -5803,12 +5803,12 @@
         </is>
       </c>
       <c r="F86" t="n">
-        <v>947536487</v>
+        <v>991266093</v>
       </c>
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr">
         <is>
-          <t>C22.1 - Manufacture of rubber products</t>
+          <t>H49.5.0 - Transport via pipeline</t>
         </is>
       </c>
       <c r="I86" t="n">
@@ -5819,21 +5819,21 @@
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>Contact</t>
+          <t>Pool</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt; 10</t>
+          <t xml:space="preserve"> &gt; 250</t>
         </is>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>2024-01-21 13:00:00</t>
+          <t>2024-01-25 23:00:00</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O86" t="n">
         <v>0</v>
@@ -5847,12 +5847,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>N66365975</t>
+          <t>Q81641654</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>adress87,87 6 - C  City87, (Province87) 57038</t>
+          <t>adress87,87 5 - U  City87, (Province87) 54861</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -5866,12 +5866,12 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>914438618</v>
+        <v>955073324</v>
       </c>
       <c r="G87" t="inlineStr"/>
       <c r="H87" t="inlineStr">
         <is>
-          <t>J59.2.0 - Sound recording and music publishing activities</t>
+          <t>H49.1.0 - Passenger rail transport, interurban</t>
         </is>
       </c>
       <c r="I87" t="n">
@@ -5882,21 +5882,21 @@
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>Pool</t>
+          <t>Contact</t>
         </is>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &gt; 250</t>
+          <t>50 - 250</t>
         </is>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>2024-01-22 00:00:00</t>
+          <t>2024-01-26 04:00:00</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O87" t="n">
         <v>0</v>
@@ -5910,12 +5910,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>A14659385</t>
+          <t>J86428355</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>adress88,88 13 - U  City88, (Province88) 36740</t>
+          <t>adress88,88 6 - P  City88, (Province88) 46682</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -5929,12 +5929,12 @@
         </is>
       </c>
       <c r="F88" t="n">
-        <v>916746103</v>
+        <v>983678409</v>
       </c>
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="inlineStr">
         <is>
-          <t>C33.2.0 - Installation of industrial machinery and equipment</t>
+          <t>C20.1 - Manufacture of basic chemicals, fertilisers and nitrogen compounds, plastics and synthetic rubber in primary forms</t>
         </is>
       </c>
       <c r="I88" t="n">
@@ -5950,12 +5950,12 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>10 - 50</t>
+          <t>50 - 250</t>
         </is>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>2024-01-22 05:00:00</t>
+          <t>2024-01-26 07:00:00</t>
         </is>
       </c>
       <c r="N88" t="n">
@@ -5973,12 +5973,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>V02261350</t>
+          <t>W22466465</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>adress89,89 5 - A  City89, (Province89) 45392</t>
+          <t>adress89,89 10 - A  City89, (Province89) 23544</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -5992,12 +5992,12 @@
         </is>
       </c>
       <c r="F89" t="n">
-        <v>957933447</v>
+        <v>951665653</v>
       </c>
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="inlineStr">
         <is>
-          <t>H53.1.0 - Postal activities under universal service obligation</t>
+          <t>H49.3.1 - Urban and suburban passenger land transport</t>
         </is>
       </c>
       <c r="I89" t="n">
@@ -6008,21 +6008,21 @@
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>Pool</t>
+          <t>Contact</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>50 - 250</t>
+          <t xml:space="preserve"> &gt; 250</t>
         </is>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>2024-01-22 11:00:00</t>
+          <t>2024-01-26 17:00:00</t>
         </is>
       </c>
       <c r="N89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O89" t="n">
         <v>0</v>
@@ -6036,12 +6036,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>F37047531</t>
+          <t>N08963349</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>adress90,90 1 - B  City90, (Province90) 34377</t>
+          <t>adress90,90 4 - F  City90, (Province90) 34210</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -6055,12 +6055,12 @@
         </is>
       </c>
       <c r="F90" t="n">
-        <v>917685876</v>
+        <v>901973714</v>
       </c>
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr">
         <is>
-          <t>K66 - Activities auxiliary to financial services and insurance activities</t>
+          <t>C25.1.2 - Manufacture of doors and windows of metal</t>
         </is>
       </c>
       <c r="I90" t="n">
@@ -6076,12 +6076,12 @@
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>10 - 50</t>
+          <t xml:space="preserve"> &lt; 10</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>2024-01-22 14:00:00</t>
+          <t>2024-01-27 00:00:00</t>
         </is>
       </c>
       <c r="N90" t="n">
@@ -6099,12 +6099,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>H21217774</t>
+          <t>U25934093</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>adress91,91 20 - V  City91, (Province91) 14168</t>
+          <t>adress91,91 10 - C  City91, (Province91) 96355</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -6118,12 +6118,12 @@
         </is>
       </c>
       <c r="F91" t="n">
-        <v>962145433</v>
+        <v>932780522</v>
       </c>
       <c r="G91" t="inlineStr"/>
       <c r="H91" t="inlineStr">
         <is>
-          <t>N77.3.5 - Renting and leasing of air transport equipment</t>
+          <t>A1.3 - Plant propagation</t>
         </is>
       </c>
       <c r="I91" t="n">
@@ -6139,12 +6139,12 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &gt; 250</t>
+          <t xml:space="preserve"> &lt; 10</t>
         </is>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>2024-01-22 22:00:00</t>
+          <t>2024-01-27 05:00:00</t>
         </is>
       </c>
       <c r="N91" t="n">
@@ -6162,12 +6162,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>S65483406</t>
+          <t>N44057673</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>adress92,92 3 - G  City92, (Province92) 85608</t>
+          <t>adress92,92 16 - H  City92, (Province92) 99736</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -6181,12 +6181,12 @@
         </is>
       </c>
       <c r="F92" t="n">
-        <v>986809442</v>
+        <v>950054731</v>
       </c>
       <c r="G92" t="inlineStr"/>
       <c r="H92" t="inlineStr">
         <is>
-          <t>M74.3.0 - Translation and interpretation activities</t>
+          <t>S95.1.1 - Repair of computers and peripheral equipment</t>
         </is>
       </c>
       <c r="I92" t="n">
@@ -6202,12 +6202,12 @@
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &gt; 250</t>
+          <t xml:space="preserve"> &lt; 10</t>
         </is>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>2024-01-23 02:00:00</t>
+          <t>2024-01-27 07:00:00</t>
         </is>
       </c>
       <c r="N92" t="n">
@@ -6225,12 +6225,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>U58210747</t>
+          <t>S46261426</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>adress93,93 8 - B  City93, (Province93) 26424</t>
+          <t>adress93,93 7 - V  City93, (Province93) 05793</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -6244,12 +6244,12 @@
         </is>
       </c>
       <c r="F93" t="n">
-        <v>903786175</v>
+        <v>981590821</v>
       </c>
       <c r="G93" t="inlineStr"/>
       <c r="H93" t="inlineStr">
         <is>
-          <t>G46.1.9 - Agents involved in the sale of a variety of goods</t>
+          <t>M71 - Architectural and engineering activities; technical testing and analysis</t>
         </is>
       </c>
       <c r="I93" t="n">
@@ -6260,21 +6260,21 @@
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>Contact</t>
+          <t>Pool</t>
         </is>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>10 - 50</t>
+          <t>50 - 250</t>
         </is>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>2024-01-23 10:00:00</t>
+          <t>2024-01-27 09:00:00</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O93" t="n">
         <v>0</v>
@@ -6288,12 +6288,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>A85059596</t>
+          <t>A62372131</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>adress94,94 19 - J  City94, (Province94) 44365</t>
+          <t>adress94,94 8 - J  City94, (Province94) 68888</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -6307,12 +6307,12 @@
         </is>
       </c>
       <c r="F94" t="n">
-        <v>954832023</v>
+        <v>992643826</v>
       </c>
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="inlineStr">
         <is>
-          <t>B7 - Mining of metal ores</t>
+          <t>C28.3 - Manufacture of agricultural and forestry machinery</t>
         </is>
       </c>
       <c r="I94" t="n">
@@ -6328,12 +6328,12 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>50 - 250</t>
+          <t>10 - 50</t>
         </is>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>2024-01-23 12:00:00</t>
+          <t>2024-01-27 20:00:00</t>
         </is>
       </c>
       <c r="N94" t="n">
@@ -6351,12 +6351,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>E55096077</t>
+          <t>U18967205</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>adress95,95 2 - W  City95, (Province95) 39308</t>
+          <t>adress95,95 6 - E  City95, (Province95) 17568</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -6370,12 +6370,12 @@
         </is>
       </c>
       <c r="F95" t="n">
-        <v>989278062</v>
+        <v>931548480</v>
       </c>
       <c r="G95" t="inlineStr"/>
       <c r="H95" t="inlineStr">
         <is>
-          <t>F42.2.1 - Construction of utility projects for fluids</t>
+          <t>C25.5.0 - Forging, pressing, stamping and roll-forming of metal; powder metallurgy</t>
         </is>
       </c>
       <c r="I95" t="n">
@@ -6396,7 +6396,7 @@
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>2024-01-23 16:00:00</t>
+          <t>2024-01-27 23:00:00</t>
         </is>
       </c>
       <c r="N95" t="n">
@@ -6414,12 +6414,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>J80128062</t>
+          <t>U00656888</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>adress96,96 13 - V  City96, (Province96) 44016</t>
+          <t>adress96,96 12 - P  City96, (Province96) 37059</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -6433,12 +6433,12 @@
         </is>
       </c>
       <c r="F96" t="n">
-        <v>921893358</v>
+        <v>916132300</v>
       </c>
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="inlineStr">
         <is>
-          <t>C30.2.0 - Manufacture of railway locomotives and rolling stock</t>
+          <t>H49.5 - Transport via pipeline</t>
         </is>
       </c>
       <c r="I96" t="n">
@@ -6449,21 +6449,21 @@
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>Contact</t>
+          <t>Pool</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &gt; 250</t>
+          <t>50 - 250</t>
         </is>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>2024-01-23 19:00:00</t>
+          <t>2024-01-28 09:00:00</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O96" t="n">
         <v>0</v>
@@ -6477,12 +6477,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>H28423386</t>
+          <t>H84498321</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>adress97,97 6 - F  City97, (Province97) 16449</t>
+          <t>adress97,97 20 - C  City97, (Province97) 27562</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -6496,12 +6496,12 @@
         </is>
       </c>
       <c r="F97" t="n">
-        <v>952835675</v>
+        <v>957296125</v>
       </c>
       <c r="G97" t="inlineStr"/>
       <c r="H97" t="inlineStr">
         <is>
-          <t>N80.1 - Private security activities</t>
+          <t>J58.2.9 - Other software publishing</t>
         </is>
       </c>
       <c r="I97" t="n">
@@ -6517,12 +6517,12 @@
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt; 10</t>
+          <t xml:space="preserve"> &gt; 250</t>
         </is>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>2024-01-24 00:00:00</t>
+          <t>2024-01-28 17:00:00</t>
         </is>
       </c>
       <c r="N97" t="n">
@@ -6540,12 +6540,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>E51088668</t>
+          <t>P61005822</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>adress98,98 14 - E  City98, (Province98) 24729</t>
+          <t>adress98,98 20 - W  City98, (Province98) 39962</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -6559,12 +6559,12 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>927203886</v>
+        <v>976414524</v>
       </c>
       <c r="G98" t="inlineStr"/>
       <c r="H98" t="inlineStr">
         <is>
-          <t>R91 - Libraries, archives, museums and other cultural activities</t>
+          <t>J60.2.0 - Television programming and broadcasting activities</t>
         </is>
       </c>
       <c r="I98" t="n">
@@ -6580,12 +6580,12 @@
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt; 10</t>
+          <t>10 - 50</t>
         </is>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>2024-01-24 08:00:00</t>
+          <t>2024-01-29 00:00:00</t>
         </is>
       </c>
       <c r="N98" t="n">
@@ -6603,12 +6603,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>R89807303</t>
+          <t>C09710925</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>adress99,99 2 - C  City99, (Province99) 71999</t>
+          <t>adress99,99 19 - N  City99, (Province99) 70757</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -6622,12 +6622,12 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>922305358</v>
+        <v>968355087</v>
       </c>
       <c r="G99" t="inlineStr"/>
       <c r="H99" t="inlineStr">
         <is>
-          <t>N77.1 - Renting and leasing of motor vehicles</t>
+          <t>S95 - Repair of computers and personal and household goods</t>
         </is>
       </c>
       <c r="I99" t="n">
@@ -6638,21 +6638,21 @@
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>Pool</t>
+          <t>Contact</t>
         </is>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>50 - 250</t>
+          <t>10 - 50</t>
         </is>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>2024-01-24 15:00:00</t>
+          <t>2024-01-29 10:00:00</t>
         </is>
       </c>
       <c r="N99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O99" t="n">
         <v>0</v>
@@ -6666,12 +6666,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>J87309862</t>
+          <t>V87307253</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>adress100,100 20 - A  City100, (Province100) 40668</t>
+          <t>adress100,100 5 - P  City100, (Province100) 70935</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -6685,12 +6685,12 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>902742182</v>
+        <v>913127002</v>
       </c>
       <c r="G100" t="inlineStr"/>
       <c r="H100" t="inlineStr">
         <is>
-          <t>C27.5.2 - Manufacture of non-electric domestic appliances</t>
+          <t>C20.1.4 - Manufacture of other organic basic chemicals</t>
         </is>
       </c>
       <c r="I100" t="n">
@@ -6706,12 +6706,12 @@
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>10 - 50</t>
+          <t xml:space="preserve"> &gt; 250</t>
         </is>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>2024-01-25 01:00:00</t>
+          <t>2024-01-29 22:00:00</t>
         </is>
       </c>
       <c r="N100" t="n">
@@ -6729,12 +6729,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>V85165153</t>
+          <t>J41927813</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>adress101,101 1 - A  City101, (Province101) 16496</t>
+          <t>adress101,101 13 - N  City101, (Province101) 61272</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -6748,12 +6748,12 @@
         </is>
       </c>
       <c r="F101" t="n">
-        <v>989087530</v>
+        <v>938519093</v>
       </c>
       <c r="G101" t="inlineStr"/>
       <c r="H101" t="inlineStr">
         <is>
-          <t>C27.3.3 - Manufacture of wiring devices</t>
+          <t>E38.1 - Waste collection</t>
         </is>
       </c>
       <c r="I101" t="n">
@@ -6764,21 +6764,21 @@
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>Pool</t>
+          <t>Contact</t>
         </is>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &gt; 250</t>
+          <t xml:space="preserve"> &lt; 10</t>
         </is>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>2024-01-25 03:00:00</t>
+          <t>2024-01-30 08:00:00</t>
         </is>
       </c>
       <c r="N101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O101" t="n">
         <v>0</v>
@@ -6792,12 +6792,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Q39418205</t>
+          <t>A60394975</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>adress102,102 6 - S  City102, (Province102) 13651</t>
+          <t>adress102,102 13 - H  City102, (Province102) 95029</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -6811,12 +6811,12 @@
         </is>
       </c>
       <c r="F102" t="n">
-        <v>949353436</v>
+        <v>923113804</v>
       </c>
       <c r="G102" t="inlineStr"/>
       <c r="H102" t="inlineStr">
         <is>
-          <t>G47.8 - Retail sale via stalls and markets</t>
+          <t>A1.4.6 - Raising of swine/pigs</t>
         </is>
       </c>
       <c r="I102" t="n">
@@ -6827,21 +6827,21 @@
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>Contact</t>
+          <t>Pool</t>
         </is>
       </c>
       <c r="L102" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &gt; 250</t>
+          <t xml:space="preserve"> &lt; 10</t>
         </is>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>2024-01-25 08:00:00</t>
+          <t>2024-01-30 17:00:00</t>
         </is>
       </c>
       <c r="N102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O102" t="n">
         <v>0</v>
@@ -6855,12 +6855,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>R39603327</t>
+          <t>S24086624</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>adress103,103 19 - N  City103, (Province103) 55776</t>
+          <t>adress103,103 15 - P  City103, (Province103) 08124</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -6874,12 +6874,12 @@
         </is>
       </c>
       <c r="F103" t="n">
-        <v>917276320</v>
+        <v>966388782</v>
       </c>
       <c r="G103" t="inlineStr"/>
       <c r="H103" t="inlineStr">
         <is>
-          <t>J61.3.0 - Satellite telecommunications activities</t>
+          <t>C23.4.9 - Manufacture of other ceramic products</t>
         </is>
       </c>
       <c r="I103" t="n">
@@ -6895,12 +6895,12 @@
       </c>
       <c r="L103" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &gt; 250</t>
+          <t>50 - 250</t>
         </is>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>2024-01-25 10:00:00</t>
+          <t>2024-01-31 00:00:00</t>
         </is>
       </c>
       <c r="N103" t="n">
@@ -6918,12 +6918,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>S37684390</t>
+          <t>H97365982</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>adress104,104 2 - W  City104, (Province104) 60110</t>
+          <t>adress104,104 8 - E  City104, (Province104) 70707</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -6937,12 +6937,12 @@
         </is>
       </c>
       <c r="F104" t="n">
-        <v>950915650</v>
+        <v>910371566</v>
       </c>
       <c r="G104" t="inlineStr"/>
       <c r="H104" t="inlineStr">
         <is>
-          <t>K66.1.9 - Other activities auxiliary to financial services, except insurance and pension funding</t>
+          <t>T97 - Activities of households as employers of domestic personnel</t>
         </is>
       </c>
       <c r="I104" t="n">
@@ -6953,7 +6953,7 @@
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>Contact</t>
+          <t>Pool</t>
         </is>
       </c>
       <c r="L104" t="inlineStr">
@@ -6963,11 +6963,11 @@
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>2024-01-25 17:00:00</t>
+          <t>2024-01-31 03:00:00</t>
         </is>
       </c>
       <c r="N104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O104" t="n">
         <v>0</v>
@@ -6981,12 +6981,12 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>U15392088</t>
+          <t>R81233962</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>adress105,105 11 - J  City105, (Province105) 18256</t>
+          <t>adress105,105 17 - H  City105, (Province105) 87157</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -7000,12 +7000,12 @@
         </is>
       </c>
       <c r="F105" t="n">
-        <v>997169710</v>
+        <v>934251543</v>
       </c>
       <c r="G105" t="inlineStr"/>
       <c r="H105" t="inlineStr">
         <is>
-          <t>G46.1.9 - Agents involved in the sale of a variety of goods</t>
+          <t>Q86.1.0 - Hospital activities</t>
         </is>
       </c>
       <c r="I105" t="n">
@@ -7021,12 +7021,12 @@
       </c>
       <c r="L105" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt; 10</t>
+          <t>10 - 50</t>
         </is>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>2024-01-25 18:00:00</t>
+          <t>2024-01-31 10:00:00</t>
         </is>
       </c>
       <c r="N105" t="n">
@@ -7044,12 +7044,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>E84943549</t>
+          <t>N18885520</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>adress106,106 1 - H  City106, (Province106) 37333</t>
+          <t>adress106,106 14 - F  City106, (Province106) 30142</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -7063,12 +7063,12 @@
         </is>
       </c>
       <c r="F106" t="n">
-        <v>914553492</v>
+        <v>949495819</v>
       </c>
       <c r="G106" t="inlineStr"/>
       <c r="H106" t="inlineStr">
         <is>
-          <t>C26.1 - Manufacture of electronic components and boards</t>
+          <t>D35.3.0 - Steam and air conditioning supply</t>
         </is>
       </c>
       <c r="I106" t="n">
@@ -7084,12 +7084,12 @@
       </c>
       <c r="L106" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &gt; 250</t>
+          <t>50 - 250</t>
         </is>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>2024-01-26 02:00:00</t>
+          <t>2024-01-31 14:00:00</t>
         </is>
       </c>
       <c r="N106" t="n">
@@ -7107,12 +7107,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>E90909464</t>
+          <t>U69206298</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>adress107,107 7 - F  City107, (Province107) 25760</t>
+          <t>adress107,107 11 - V  City107, (Province107) 17683</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -7126,12 +7126,12 @@
         </is>
       </c>
       <c r="F107" t="n">
-        <v>938624811</v>
+        <v>950639746</v>
       </c>
       <c r="G107" t="inlineStr"/>
       <c r="H107" t="inlineStr">
         <is>
-          <t>R91.0.3 - Operation of historical sites and buildings and similar visitor attractions</t>
+          <t>O84.1.3 - Regulation of and contribution to more efficient operation of businesses</t>
         </is>
       </c>
       <c r="I107" t="n">
@@ -7152,7 +7152,7 @@
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>2024-01-26 03:00:00</t>
+          <t>2024-01-31 22:00:00</t>
         </is>
       </c>
       <c r="N107" t="n">
@@ -7170,12 +7170,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>B02801503</t>
+          <t>V20945242</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>adress108,108 5 - J  City108, (Province108) 28849</t>
+          <t>adress108,108 12 - Q  City108, (Province108) 13342</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -7189,12 +7189,12 @@
         </is>
       </c>
       <c r="F108" t="n">
-        <v>911088800</v>
+        <v>940892717</v>
       </c>
       <c r="G108" t="inlineStr"/>
       <c r="H108" t="inlineStr">
         <is>
-          <t>F - Construction</t>
+          <t>B7.2 - Mining of non-ferrous metal ores</t>
         </is>
       </c>
       <c r="I108" t="n">
@@ -7205,21 +7205,21 @@
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>Pool</t>
+          <t>Contact</t>
         </is>
       </c>
       <c r="L108" t="inlineStr">
         <is>
-          <t>50 - 250</t>
+          <t xml:space="preserve"> &lt; 10</t>
         </is>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>2024-01-26 13:00:00</t>
+          <t>2024-02-01 08:00:00</t>
         </is>
       </c>
       <c r="N108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O108" t="n">
         <v>0</v>
@@ -7233,12 +7233,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>G20708537</t>
+          <t>S87503462</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>adress109,109 5 - W  City109, (Province109) 33534</t>
+          <t>adress109,109 20 - V  City109, (Province109) 07206</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -7252,12 +7252,12 @@
         </is>
       </c>
       <c r="F109" t="n">
-        <v>967462609</v>
+        <v>901174203</v>
       </c>
       <c r="G109" t="inlineStr"/>
       <c r="H109" t="inlineStr">
         <is>
-          <t>B8.9.2 - Extraction of peat</t>
+          <t>C14.1.4 - Manufacture of underwear</t>
         </is>
       </c>
       <c r="I109" t="n">
@@ -7268,21 +7268,21 @@
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>Contact</t>
+          <t>Pool</t>
         </is>
       </c>
       <c r="L109" t="inlineStr">
         <is>
-          <t>10 - 50</t>
+          <t xml:space="preserve"> &gt; 250</t>
         </is>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>2024-01-26 21:00:00</t>
+          <t>2024-02-01 19:00:00</t>
         </is>
       </c>
       <c r="N109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O109" t="n">
         <v>0</v>
@@ -7296,12 +7296,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>F51735907</t>
+          <t>P00757619</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>adress110,110 13 - U  City110, (Province110) 32223</t>
+          <t>adress110,110 3 - E  City110, (Province110) 52673</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -7315,12 +7315,12 @@
         </is>
       </c>
       <c r="F110" t="n">
-        <v>949737071</v>
+        <v>964023310</v>
       </c>
       <c r="G110" t="inlineStr"/>
       <c r="H110" t="inlineStr">
         <is>
-          <t>C23.6.2 - Manufacture of plaster products for construction purposes</t>
+          <t>C22.2.2 - Manufacture of plastic packing goods</t>
         </is>
       </c>
       <c r="I110" t="n">
@@ -7331,21 +7331,21 @@
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>Pool</t>
+          <t>Contact</t>
         </is>
       </c>
       <c r="L110" t="inlineStr">
         <is>
-          <t>10 - 50</t>
+          <t>50 - 250</t>
         </is>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>2024-01-27 03:00:00</t>
+          <t>2024-02-02 00:00:00</t>
         </is>
       </c>
       <c r="N110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O110" t="n">
         <v>0</v>
@@ -7359,12 +7359,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>E60540476</t>
+          <t>G08473492</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>adress111,111 15 - B  City111, (Province111) 01350</t>
+          <t>adress111,111 16 - F  City111, (Province111) 43545</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -7378,12 +7378,12 @@
         </is>
       </c>
       <c r="F111" t="n">
-        <v>907320385</v>
+        <v>984389569</v>
       </c>
       <c r="G111" t="inlineStr"/>
       <c r="H111" t="inlineStr">
         <is>
-          <t>D35.1.3 - Distribution of electricity</t>
+          <t>C25.7 - Manufacture of cutlery, tools and general hardware</t>
         </is>
       </c>
       <c r="I111" t="n">
@@ -7399,12 +7399,12 @@
       </c>
       <c r="L111" t="inlineStr">
         <is>
-          <t>50 - 250</t>
+          <t>10 - 50</t>
         </is>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>2024-01-27 06:00:00</t>
+          <t>2024-02-02 11:00:00</t>
         </is>
       </c>
       <c r="N111" t="n">
@@ -7422,12 +7422,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Q03347328</t>
+          <t>A73455478</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>adress112,112 7 - J  City112, (Province112) 48187</t>
+          <t>adress112,112 18 - Q  City112, (Province112) 37078</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -7441,12 +7441,12 @@
         </is>
       </c>
       <c r="F112" t="n">
-        <v>992188981</v>
+        <v>965307840</v>
       </c>
       <c r="G112" t="inlineStr"/>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Q87.9 - Other residential care activities</t>
+          <t>C10.6.1 - Manufacture of grain mill products</t>
         </is>
       </c>
       <c r="I112" t="n">
@@ -7462,12 +7462,12 @@
       </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>10 - 50</t>
+          <t xml:space="preserve"> &lt; 10</t>
         </is>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>2024-01-27 10:00:00</t>
+          <t>2024-02-02 16:00:00</t>
         </is>
       </c>
       <c r="N112" t="n">
@@ -7485,12 +7485,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>N34180353</t>
+          <t>P02194630</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>adress113,113 14 - J  City113, (Province113) 19027</t>
+          <t>adress113,113 8 - H  City113, (Province113) 85634</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -7504,12 +7504,12 @@
         </is>
       </c>
       <c r="F113" t="n">
-        <v>945643096</v>
+        <v>997887505</v>
       </c>
       <c r="G113" t="inlineStr"/>
       <c r="H113" t="inlineStr">
         <is>
-          <t>G47.6 - Retail sale of cultural and recreation goods in specialised stores</t>
+          <t>I55 - Accommodation</t>
         </is>
       </c>
       <c r="I113" t="n">
@@ -7530,7 +7530,7 @@
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>2024-01-27 17:00:00</t>
+          <t>2024-02-02 20:00:00</t>
         </is>
       </c>
       <c r="N113" t="n">
@@ -7548,12 +7548,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>R10442909</t>
+          <t>V37227111</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>adress114,114 6 - U  City114, (Province114) 43249</t>
+          <t>adress114,114 7 - G  City114, (Province114) 64704</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -7567,12 +7567,12 @@
         </is>
       </c>
       <c r="F114" t="n">
-        <v>968746048</v>
+        <v>971128963</v>
       </c>
       <c r="G114" t="inlineStr"/>
       <c r="H114" t="inlineStr">
         <is>
-          <t>G46.3.1 - Wholesale of fruit and vegetables</t>
+          <t>O84.2.1 - Foreign affairs</t>
         </is>
       </c>
       <c r="I114" t="n">
@@ -7583,21 +7583,21 @@
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>Pool</t>
+          <t>Contact</t>
         </is>
       </c>
       <c r="L114" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt; 10</t>
+          <t xml:space="preserve"> &gt; 250</t>
         </is>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>2024-01-27 20:00:00</t>
+          <t>2024-02-03 05:00:00</t>
         </is>
       </c>
       <c r="N114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O114" t="n">
         <v>0</v>
@@ -7611,12 +7611,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>S01481569</t>
+          <t>G23557867</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>adress115,115 13 - W  City115, (Province115) 00235</t>
+          <t>adress115,115 11 - F  City115, (Province115) 45974</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -7630,12 +7630,12 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>925136235</v>
+        <v>932073108</v>
       </c>
       <c r="G115" t="inlineStr"/>
       <c r="H115" t="inlineStr">
         <is>
-          <t>A1.1.3 - Growing of vegetables and melons, roots and tubers</t>
+          <t>F43.1.2 - Site preparation</t>
         </is>
       </c>
       <c r="I115" t="n">
@@ -7656,7 +7656,7 @@
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>2024-01-28 02:00:00</t>
+          <t>2024-02-03 09:00:00</t>
         </is>
       </c>
       <c r="N115" t="n">
@@ -7674,12 +7674,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>A10024427</t>
+          <t>R46042436</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>adress116,116 19 - C  City116, (Province116) 76774</t>
+          <t>adress116,116 13 - P  City116, (Province116) 09182</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -7693,12 +7693,12 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>951665970</v>
+        <v>924814537</v>
       </c>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="inlineStr">
         <is>
-          <t>N82 - Office administrative, office support and other business support activities</t>
+          <t>B5 - Mining of coal and lignite</t>
         </is>
       </c>
       <c r="I116" t="n">
@@ -7714,12 +7714,12 @@
       </c>
       <c r="L116" t="inlineStr">
         <is>
-          <t>50 - 250</t>
+          <t xml:space="preserve"> &gt; 250</t>
         </is>
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>2024-01-28 06:00:00</t>
+          <t>2024-02-03 16:00:00</t>
         </is>
       </c>
       <c r="N116" t="n">
@@ -7737,12 +7737,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Q46583914</t>
+          <t>U72217455</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>adress117,117 9 - C  City117, (Province117) 15856</t>
+          <t>adress117,117 9 - N  City117, (Province117) 86460</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -7756,12 +7756,12 @@
         </is>
       </c>
       <c r="F117" t="n">
-        <v>960794894</v>
+        <v>978344386</v>
       </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr">
         <is>
-          <t>A1.1.4 - Growing of sugar cane</t>
+          <t>G45.2 - Maintenance and repair of motor vehicles</t>
         </is>
       </c>
       <c r="I117" t="n">
@@ -7772,7 +7772,7 @@
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>Pool</t>
+          <t>Contact</t>
         </is>
       </c>
       <c r="L117" t="inlineStr">
@@ -7782,11 +7782,11 @@
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>2024-01-28 13:00:00</t>
+          <t>2024-02-03 20:00:00</t>
         </is>
       </c>
       <c r="N117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O117" t="n">
         <v>0</v>
@@ -7800,12 +7800,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Q65943773</t>
+          <t>J13849442</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>adress118,118 1 - P  City118, (Province118) 43533</t>
+          <t>adress118,118 18 - C  City118, (Province118) 01555</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -7819,12 +7819,12 @@
         </is>
       </c>
       <c r="F118" t="n">
-        <v>900591430</v>
+        <v>921027224</v>
       </c>
       <c r="G118" t="inlineStr"/>
       <c r="H118" t="inlineStr">
         <is>
-          <t>K65.3 - Pension funding</t>
+          <t>C24.4.4 - Copper production</t>
         </is>
       </c>
       <c r="I118" t="n">
@@ -7835,21 +7835,21 @@
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>Pool</t>
+          <t>Contact</t>
         </is>
       </c>
       <c r="L118" t="inlineStr">
         <is>
-          <t>10 - 50</t>
+          <t xml:space="preserve"> &lt; 10</t>
         </is>
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>2024-01-28 14:00:00</t>
+          <t>2024-02-04 02:00:00</t>
         </is>
       </c>
       <c r="N118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O118" t="n">
         <v>0</v>
@@ -7863,12 +7863,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>V51590436</t>
+          <t>B43435546</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>adress119,119 8 - F  City119, (Province119) 24875</t>
+          <t>adress119,119 13 - B  City119, (Province119) 39447</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -7882,12 +7882,12 @@
         </is>
       </c>
       <c r="F119" t="n">
-        <v>923502345</v>
+        <v>977951430</v>
       </c>
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>M74.3.0 - Translation and interpretation activities</t>
+          <t>B8 - Other mining and quarrying</t>
         </is>
       </c>
       <c r="I119" t="n">
@@ -7903,12 +7903,12 @@
       </c>
       <c r="L119" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &gt; 250</t>
+          <t xml:space="preserve"> &lt; 10</t>
         </is>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>2024-01-29 00:00:00</t>
+          <t>2024-02-04 11:00:00</t>
         </is>
       </c>
       <c r="N119" t="n">
@@ -7926,12 +7926,12 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>V10185090</t>
+          <t>S82367641</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>adress120,120 16 - U  City120, (Province120) 52348</t>
+          <t>adress120,120 10 - C  City120, (Province120) 05964</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -7945,12 +7945,12 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>910721933</v>
+        <v>999477540</v>
       </c>
       <c r="G120" t="inlineStr"/>
       <c r="H120" t="inlineStr">
         <is>
-          <t>N78.1.0 - Activities of employment placement agencies</t>
+          <t>C27.2.0 - Manufacture of batteries and accumulators</t>
         </is>
       </c>
       <c r="I120" t="n">
@@ -7971,7 +7971,7 @@
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>2024-01-29 02:00:00</t>
+          <t>2024-02-04 18:00:00</t>
         </is>
       </c>
       <c r="N120" t="n">
@@ -7989,12 +7989,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>C38486349</t>
+          <t>R66636918</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>adress121,121 7 - U  City121, (Province121) 73544</t>
+          <t>adress121,121 14 - U  City121, (Province121) 31706</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -8008,12 +8008,12 @@
         </is>
       </c>
       <c r="F121" t="n">
-        <v>973631224</v>
+        <v>933980898</v>
       </c>
       <c r="G121" t="inlineStr"/>
       <c r="H121" t="inlineStr">
         <is>
-          <t>F42 - Civil engineering</t>
+          <t>C22.2.3 - Manufacture of builders’ ware of plastic</t>
         </is>
       </c>
       <c r="I121" t="n">
@@ -8024,21 +8024,21 @@
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>Contact</t>
+          <t>Pool</t>
         </is>
       </c>
       <c r="L121" t="inlineStr">
         <is>
-          <t>10 - 50</t>
+          <t>50 - 250</t>
         </is>
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>2024-01-29 12:00:00</t>
+          <t>2024-02-05 01:00:00</t>
         </is>
       </c>
       <c r="N121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O121" t="n">
         <v>0</v>
@@ -8052,12 +8052,12 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>E92589723</t>
+          <t>U39174993</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>adress122,122 4 - S  City122, (Province122) 90244</t>
+          <t>adress122,122 12 - N  City122, (Province122) 25720</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -8071,12 +8071,12 @@
         </is>
       </c>
       <c r="F122" t="n">
-        <v>924221559</v>
+        <v>908352800</v>
       </c>
       <c r="G122" t="inlineStr"/>
       <c r="H122" t="inlineStr">
         <is>
-          <t>S95.2.3 - Repair of footwear and leather goods</t>
+          <t>D35.1.2 - Transmission of electricity</t>
         </is>
       </c>
       <c r="I122" t="n">
@@ -8087,21 +8087,21 @@
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>Pool</t>
+          <t>Contact</t>
         </is>
       </c>
       <c r="L122" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt; 10</t>
+          <t xml:space="preserve"> &gt; 250</t>
         </is>
       </c>
       <c r="M122" t="inlineStr">
         <is>
-          <t>2024-01-29 21:00:00</t>
+          <t>2024-02-05 13:00:00</t>
         </is>
       </c>
       <c r="N122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O122" t="n">
         <v>0</v>
@@ -8115,12 +8115,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>C66907614</t>
+          <t>B58144464</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>adress123,123 9 - P  City123, (Province123) 65296</t>
+          <t>adress123,123 14 - J  City123, (Province123) 28142</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -8134,12 +8134,12 @@
         </is>
       </c>
       <c r="F123" t="n">
-        <v>999068601</v>
+        <v>953249402</v>
       </c>
       <c r="G123" t="inlineStr"/>
       <c r="H123" t="inlineStr">
         <is>
-          <t>C24.1.0 - Manufacture of basic iron and steel and of ferro-alloys</t>
+          <t>C24.5.1 - Casting of iron</t>
         </is>
       </c>
       <c r="I123" t="n">
@@ -8160,7 +8160,7 @@
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>2024-01-30 06:00:00</t>
+          <t>2024-02-06 00:00:00</t>
         </is>
       </c>
       <c r="N123" t="n">
@@ -8178,12 +8178,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>G75205626</t>
+          <t>A12613414</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>adress124,124 7 - V  City124, (Province124) 06989</t>
+          <t>adress124,124 17 - V  City124, (Province124) 34706</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -8197,12 +8197,12 @@
         </is>
       </c>
       <c r="F124" t="n">
-        <v>992544641</v>
+        <v>977819056</v>
       </c>
       <c r="G124" t="inlineStr"/>
       <c r="H124" t="inlineStr">
         <is>
-          <t>H49.1.0 - Passenger rail transport, interurban</t>
+          <t>C23.3.2 - Manufacture of bricks, tiles and construction products, in baked clay</t>
         </is>
       </c>
       <c r="I124" t="n">
@@ -8213,21 +8213,21 @@
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>Pool</t>
+          <t>Contact</t>
         </is>
       </c>
       <c r="L124" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &gt; 250</t>
+          <t>10 - 50</t>
         </is>
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>2024-01-30 17:00:00</t>
+          <t>2024-02-06 02:00:00</t>
         </is>
       </c>
       <c r="N124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O124" t="n">
         <v>0</v>
@@ -8241,12 +8241,12 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>P41368953</t>
+          <t>W30001744</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>adress125,125 3 - H  City125, (Province125) 81723</t>
+          <t>adress125,125 6 - Q  City125, (Province125) 24255</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -8260,12 +8260,12 @@
         </is>
       </c>
       <c r="F125" t="n">
-        <v>905109926</v>
+        <v>926222982</v>
       </c>
       <c r="G125" t="inlineStr"/>
       <c r="H125" t="inlineStr">
         <is>
-          <t>F43.9.9 - Other specialised construction activities n.e.c.</t>
+          <t>J58.1.2 - Publishing of directories and mailing lists</t>
         </is>
       </c>
       <c r="I125" t="n">
@@ -8286,7 +8286,7 @@
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>2024-01-31 00:00:00</t>
+          <t>2024-02-06 09:00:00</t>
         </is>
       </c>
       <c r="N125" t="n">
@@ -8304,12 +8304,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>U52912132</t>
+          <t>R96710004</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>adress126,126 10 - J  City126, (Province126) 22029</t>
+          <t>adress126,126 7 - P  City126, (Province126) 31562</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -8323,12 +8323,12 @@
         </is>
       </c>
       <c r="F126" t="n">
-        <v>919171053</v>
+        <v>915433846</v>
       </c>
       <c r="G126" t="inlineStr"/>
       <c r="H126" t="inlineStr">
         <is>
-          <t>C28.2.3 - Manufacture of office machinery and equipment (except computers and peripheral equipment)</t>
+          <t>C23.3 - Manufacture of clay building materials</t>
         </is>
       </c>
       <c r="I126" t="n">
@@ -8339,21 +8339,21 @@
       </c>
       <c r="K126" t="inlineStr">
         <is>
-          <t>Contact</t>
+          <t>Pool</t>
         </is>
       </c>
       <c r="L126" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt; 10</t>
+          <t>10 - 50</t>
         </is>
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>2024-01-31 05:00:00</t>
+          <t>2024-02-06 15:00:00</t>
         </is>
       </c>
       <c r="N126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O126" t="n">
         <v>0</v>
@@ -8367,12 +8367,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Q93958053</t>
+          <t>E76912743</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>adress127,127 9 - C  City127, (Province127) 88854</t>
+          <t>adress127,127 18 - U  City127, (Province127) 67657</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -8386,12 +8386,12 @@
         </is>
       </c>
       <c r="F127" t="n">
-        <v>973847660</v>
+        <v>969336756</v>
       </c>
       <c r="G127" t="inlineStr"/>
       <c r="H127" t="inlineStr">
         <is>
-          <t>H49.4.2 - Removal services</t>
+          <t>C25.6.2 - Machining</t>
         </is>
       </c>
       <c r="I127" t="n">
@@ -8402,21 +8402,21 @@
       </c>
       <c r="K127" t="inlineStr">
         <is>
-          <t>Pool</t>
+          <t>Contact</t>
         </is>
       </c>
       <c r="L127" t="inlineStr">
         <is>
-          <t>50 - 250</t>
+          <t xml:space="preserve"> &lt; 10</t>
         </is>
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>2024-01-31 06:00:00</t>
+          <t>2024-02-07 00:00:00</t>
         </is>
       </c>
       <c r="N127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O127" t="n">
         <v>0</v>
@@ -8430,12 +8430,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>E08114206</t>
+          <t>N10842099</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>adress128,128 10 - A  City128, (Province128) 31564</t>
+          <t>adress128,128 4 - J  City128, (Province128) 83512</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -8449,12 +8449,12 @@
         </is>
       </c>
       <c r="F128" t="n">
-        <v>916589123</v>
+        <v>911543331</v>
       </c>
       <c r="G128" t="inlineStr"/>
       <c r="H128" t="inlineStr">
         <is>
-          <t>P85.5.9 - Other education n.e.c.</t>
+          <t>F43.3 - Building completion and finishing</t>
         </is>
       </c>
       <c r="I128" t="n">
@@ -8470,12 +8470,12 @@
       </c>
       <c r="L128" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &gt; 250</t>
+          <t>10 - 50</t>
         </is>
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>2024-01-31 15:00:00</t>
+          <t>2024-02-07 11:00:00</t>
         </is>
       </c>
       <c r="N128" t="n">
@@ -8493,12 +8493,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>S38950886</t>
+          <t>P30351157</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>adress129,129 7 - S  City129, (Province129) 65401</t>
+          <t>adress129,129 19 - B  City129, (Province129) 60317</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -8512,12 +8512,12 @@
         </is>
       </c>
       <c r="F129" t="n">
-        <v>947818196</v>
+        <v>995500436</v>
       </c>
       <c r="G129" t="inlineStr"/>
       <c r="H129" t="inlineStr">
         <is>
-          <t>B6 - Extraction of crude petroleum and natural gas</t>
+          <t>M69.1.0 - Legal activities</t>
         </is>
       </c>
       <c r="I129" t="n">
@@ -8533,12 +8533,12 @@
       </c>
       <c r="L129" t="inlineStr">
         <is>
-          <t>50 - 250</t>
+          <t xml:space="preserve"> &gt; 250</t>
         </is>
       </c>
       <c r="M129" t="inlineStr">
         <is>
-          <t>2024-01-31 16:00:00</t>
+          <t>2024-02-07 16:00:00</t>
         </is>
       </c>
       <c r="N129" t="n">
@@ -8556,12 +8556,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>J57776744</t>
+          <t>E33474991</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>adress130,130 20 - E  City130, (Province130) 73208</t>
+          <t>adress130,130 20 - W  City130, (Province130) 47708</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -8575,12 +8575,12 @@
         </is>
       </c>
       <c r="F130" t="n">
-        <v>915703360</v>
+        <v>983955419</v>
       </c>
       <c r="G130" t="inlineStr"/>
       <c r="H130" t="inlineStr">
         <is>
-          <t>E39 - Remediation activities and other waste management services</t>
+          <t>J61.2.0 - Wireless telecommunications activities</t>
         </is>
       </c>
       <c r="I130" t="n">
@@ -8596,12 +8596,12 @@
       </c>
       <c r="L130" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &gt; 250</t>
+          <t>10 - 50</t>
         </is>
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>2024-01-31 22:00:00</t>
+          <t>2024-02-07 17:00:00</t>
         </is>
       </c>
       <c r="N130" t="n">
@@ -8619,12 +8619,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>C77913068</t>
+          <t>S81968775</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>adress131,131 5 - U  City131, (Province131) 16264</t>
+          <t>adress131,131 14 - Q  City131, (Province131) 41003</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -8638,12 +8638,12 @@
         </is>
       </c>
       <c r="F131" t="n">
-        <v>914870336</v>
+        <v>901378248</v>
       </c>
       <c r="G131" t="inlineStr"/>
       <c r="H131" t="inlineStr">
         <is>
-          <t>M75.0 - Veterinary activities</t>
+          <t>S95 - Repair of computers and personal and household goods</t>
         </is>
       </c>
       <c r="I131" t="n">
@@ -8659,12 +8659,12 @@
       </c>
       <c r="L131" t="inlineStr">
         <is>
-          <t>50 - 250</t>
+          <t xml:space="preserve"> &gt; 250</t>
         </is>
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>2024-02-01 07:00:00</t>
+          <t>2024-02-07 23:00:00</t>
         </is>
       </c>
       <c r="N131" t="n">
@@ -8682,12 +8682,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>R59078277</t>
+          <t>N55537934</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>adress132,132 18 - F  City132, (Province132) 68755</t>
+          <t>adress132,132 3 - U  City132, (Province132) 82494</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -8701,12 +8701,12 @@
         </is>
       </c>
       <c r="F132" t="n">
-        <v>915006737</v>
+        <v>968719649</v>
       </c>
       <c r="G132" t="inlineStr"/>
       <c r="H132" t="inlineStr">
         <is>
-          <t>C10.1.1 - Processing and preserving of meat</t>
+          <t>J61.1 - Wired telecommunications activities</t>
         </is>
       </c>
       <c r="I132" t="n">
@@ -8717,21 +8717,21 @@
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>Pool</t>
+          <t>Contact</t>
         </is>
       </c>
       <c r="L132" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &gt; 250</t>
+          <t>50 - 250</t>
         </is>
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>2024-02-01 16:00:00</t>
+          <t>2024-02-08 11:00:00</t>
         </is>
       </c>
       <c r="N132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O132" t="n">
         <v>0</v>
@@ -8745,12 +8745,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>C34799489</t>
+          <t>A02381760</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>adress133,133 10 - P  City133, (Province133) 57000</t>
+          <t>adress133,133 19 - U  City133, (Province133) 33666</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -8764,12 +8764,12 @@
         </is>
       </c>
       <c r="F133" t="n">
-        <v>916377843</v>
+        <v>907692452</v>
       </c>
       <c r="G133" t="inlineStr"/>
       <c r="H133" t="inlineStr">
         <is>
-          <t>C13.9.4 - Manufacture of cordage, rope, twine and netting</t>
+          <t>G47.7.7 - Retail sale of watches and jewellery in specialised stores</t>
         </is>
       </c>
       <c r="I133" t="n">
@@ -8780,21 +8780,21 @@
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>Pool</t>
+          <t>Contact</t>
         </is>
       </c>
       <c r="L133" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt; 10</t>
+          <t xml:space="preserve"> &gt; 250</t>
         </is>
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>2024-02-02 04:00:00</t>
+          <t>2024-02-08 19:00:00</t>
         </is>
       </c>
       <c r="N133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O133" t="n">
         <v>0</v>
@@ -8808,12 +8808,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>E43178461</t>
+          <t>P43448476</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>adress134,134 19 - S  City134, (Province134) 56414</t>
+          <t>adress134,134 3 - Q  City134, (Province134) 31903</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -8827,12 +8827,12 @@
         </is>
       </c>
       <c r="F134" t="n">
-        <v>944929222</v>
+        <v>959453854</v>
       </c>
       <c r="G134" t="inlineStr"/>
       <c r="H134" t="inlineStr">
         <is>
-          <t>C24.5.1 - Casting of iron</t>
+          <t>C13.3.0 - Finishing of textiles</t>
         </is>
       </c>
       <c r="I134" t="n">
@@ -8843,21 +8843,21 @@
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>Pool</t>
+          <t>Contact</t>
         </is>
       </c>
       <c r="L134" t="inlineStr">
         <is>
-          <t>50 - 250</t>
+          <t xml:space="preserve"> &gt; 250</t>
         </is>
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>2024-02-02 07:00:00</t>
+          <t>2024-02-09 00:00:00</t>
         </is>
       </c>
       <c r="N134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O134" t="n">
         <v>0</v>
@@ -8871,12 +8871,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>A10199912</t>
+          <t>W93285384</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>adress135,135 14 - V  City135, (Province135) 28484</t>
+          <t>adress135,135 16 - R  City135, (Province135) 20987</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -8890,12 +8890,12 @@
         </is>
       </c>
       <c r="F135" t="n">
-        <v>941257797</v>
+        <v>980605803</v>
       </c>
       <c r="G135" t="inlineStr"/>
       <c r="H135" t="inlineStr">
         <is>
-          <t>C28.3 - Manufacture of agricultural and forestry machinery</t>
+          <t>C25.6.2 - Machining</t>
         </is>
       </c>
       <c r="I135" t="n">
@@ -8911,12 +8911,12 @@
       </c>
       <c r="L135" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &gt; 250</t>
+          <t>10 - 50</t>
         </is>
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>2024-02-02 12:00:00</t>
+          <t>2024-02-09 06:00:00</t>
         </is>
       </c>
       <c r="N135" t="n">
@@ -8934,12 +8934,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>F75291930</t>
+          <t>G67711490</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>adress136,136 13 - H  City136, (Province136) 18519</t>
+          <t>adress136,136 20 - A  City136, (Province136) 56230</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -8953,12 +8953,12 @@
         </is>
       </c>
       <c r="F136" t="n">
-        <v>932054294</v>
+        <v>957746997</v>
       </c>
       <c r="G136" t="inlineStr"/>
       <c r="H136" t="inlineStr">
         <is>
-          <t>M70.1 - Activities of head offices</t>
+          <t>R93 - Sports activities and amusement and recreation activities</t>
         </is>
       </c>
       <c r="I136" t="n">
@@ -8974,12 +8974,12 @@
       </c>
       <c r="L136" t="inlineStr">
         <is>
-          <t>10 - 50</t>
+          <t>50 - 250</t>
         </is>
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>2024-02-02 22:00:00</t>
+          <t>2024-02-09 08:00:00</t>
         </is>
       </c>
       <c r="N136" t="n">
@@ -8997,12 +8997,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>A54678362</t>
+          <t>N45559785</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>adress137,137 20 - B  City137, (Province137) 35115</t>
+          <t>adress137,137 10 - V  City137, (Province137) 29283</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -9016,12 +9016,12 @@
         </is>
       </c>
       <c r="F137" t="n">
-        <v>937596757</v>
+        <v>951350458</v>
       </c>
       <c r="G137" t="inlineStr"/>
       <c r="H137" t="inlineStr">
         <is>
-          <t>N82.9.9 - Other business support service activities n.e.c.</t>
+          <t>C19.1.0 - Manufacture of coke oven products</t>
         </is>
       </c>
       <c r="I137" t="n">
@@ -9037,12 +9037,12 @@
       </c>
       <c r="L137" t="inlineStr">
         <is>
-          <t>50 - 250</t>
+          <t xml:space="preserve"> &gt; 250</t>
         </is>
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>2024-02-03 01:00:00</t>
+          <t>2024-02-09 14:00:00</t>
         </is>
       </c>
       <c r="N137" t="n">
@@ -9060,12 +9060,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>H19121314</t>
+          <t>S70953374</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>adress138,138 7 - F  City138, (Province138) 58851</t>
+          <t>adress138,138 17 - G  City138, (Province138) 66718</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -9079,12 +9079,12 @@
         </is>
       </c>
       <c r="F138" t="n">
-        <v>941369917</v>
+        <v>926835270</v>
       </c>
       <c r="G138" t="inlineStr"/>
       <c r="H138" t="inlineStr">
         <is>
-          <t>J63.9 - Other information service activities</t>
+          <t>C11.0.3 - Manufacture of cider and other fruit wines</t>
         </is>
       </c>
       <c r="I138" t="n">
@@ -9095,21 +9095,21 @@
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>Contact</t>
+          <t>Pool</t>
         </is>
       </c>
       <c r="L138" t="inlineStr">
         <is>
-          <t>10 - 50</t>
+          <t xml:space="preserve"> &gt; 250</t>
         </is>
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>2024-02-03 04:00:00</t>
+          <t>2024-02-10 00:00:00</t>
         </is>
       </c>
       <c r="N138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O138" t="n">
         <v>0</v>
@@ -9123,12 +9123,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>W12734396</t>
+          <t>Q64501557</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>adress139,139 14 - V  City139, (Province139) 78579</t>
+          <t>adress139,139 3 - C  City139, (Province139) 32124</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -9142,12 +9142,12 @@
         </is>
       </c>
       <c r="F139" t="n">
-        <v>985567267</v>
+        <v>925870533</v>
       </c>
       <c r="G139" t="inlineStr"/>
       <c r="H139" t="inlineStr">
         <is>
-          <t>C25.1 - Manufacture of structural metal products</t>
+          <t>N82.1.1 - Combined office administrative service activities</t>
         </is>
       </c>
       <c r="I139" t="n">
@@ -9158,7 +9158,7 @@
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>Contact</t>
+          <t>Pool</t>
         </is>
       </c>
       <c r="L139" t="inlineStr">
@@ -9168,11 +9168,11 @@
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>2024-02-03 11:00:00</t>
+          <t>2024-02-10 02:00:00</t>
         </is>
       </c>
       <c r="N139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O139" t="n">
         <v>0</v>
@@ -9186,12 +9186,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Q11908942</t>
+          <t>C22076966</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>adress140,140 12 - E  City140, (Province140) 20169</t>
+          <t>adress140,140 3 - W  City140, (Province140) 28748</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -9205,12 +9205,12 @@
         </is>
       </c>
       <c r="F140" t="n">
-        <v>944000761</v>
+        <v>986395258</v>
       </c>
       <c r="G140" t="inlineStr"/>
       <c r="H140" t="inlineStr">
         <is>
-          <t>M70.2.1 - Public relations and communication activities</t>
+          <t>C20.6 - Manufacture of man-made fibres</t>
         </is>
       </c>
       <c r="I140" t="n">
@@ -9231,7 +9231,7 @@
       </c>
       <c r="M140" t="inlineStr">
         <is>
-          <t>2024-02-03 15:00:00</t>
+          <t>2024-02-10 09:00:00</t>
         </is>
       </c>
       <c r="N140" t="n">
@@ -9249,12 +9249,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Q50897134</t>
+          <t>R88002865</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>adress141,141 9 - J  City141, (Province141) 84864</t>
+          <t>adress141,141 12 - P  City141, (Province141) 59153</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -9268,12 +9268,12 @@
         </is>
       </c>
       <c r="F141" t="n">
-        <v>913381901</v>
+        <v>925715906</v>
       </c>
       <c r="G141" t="inlineStr"/>
       <c r="H141" t="inlineStr">
         <is>
-          <t>C28.2.3 - Manufacture of office machinery and equipment (except computers and peripheral equipment)</t>
+          <t>C20.6.0 - Manufacture of man-made fibres</t>
         </is>
       </c>
       <c r="I141" t="n">
@@ -9289,12 +9289,12 @@
       </c>
       <c r="L141" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &gt; 250</t>
+          <t>10 - 50</t>
         </is>
       </c>
       <c r="M141" t="inlineStr">
         <is>
-          <t>2024-02-04 02:00:00</t>
+          <t>2024-02-10 13:00:00</t>
         </is>
       </c>
       <c r="N141" t="n">
@@ -9312,12 +9312,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>A45343665</t>
+          <t>N89133236</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>adress142,142 19 - P  City142, (Province142) 72604</t>
+          <t>adress142,142 14 - B  City142, (Province142) 81469</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -9331,12 +9331,12 @@
         </is>
       </c>
       <c r="F142" t="n">
-        <v>946624680</v>
+        <v>917548736</v>
       </c>
       <c r="G142" t="inlineStr"/>
       <c r="H142" t="inlineStr">
         <is>
-          <t>T97.0.0 - Activities of households as employers of domestic personnel</t>
+          <t>S95.1.1 - Repair of computers and peripheral equipment</t>
         </is>
       </c>
       <c r="I142" t="n">
@@ -9352,12 +9352,12 @@
       </c>
       <c r="L142" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt; 10</t>
+          <t>50 - 250</t>
         </is>
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>2024-02-04 03:00:00</t>
+          <t>2024-02-10 22:00:00</t>
         </is>
       </c>
       <c r="N142" t="n">
@@ -9375,12 +9375,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>C97545352</t>
+          <t>F41132059</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>adress143,143 16 - W  City143, (Province143) 75982</t>
+          <t>adress143,143 10 - N  City143, (Province143) 60719</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -9394,12 +9394,12 @@
         </is>
       </c>
       <c r="F143" t="n">
-        <v>911147360</v>
+        <v>941573816</v>
       </c>
       <c r="G143" t="inlineStr"/>
       <c r="H143" t="inlineStr">
         <is>
-          <t>G46.6.1 - Wholesale of agricultural machinery, equipment and supplies</t>
+          <t>G47.9.1 - Retail sale via mail order houses or via Internet</t>
         </is>
       </c>
       <c r="I143" t="n">
@@ -9410,7 +9410,7 @@
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>Pool</t>
+          <t>Contact</t>
         </is>
       </c>
       <c r="L143" t="inlineStr">
@@ -9420,11 +9420,11 @@
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>2024-02-04 07:00:00</t>
+          <t>2024-02-10 23:00:00</t>
         </is>
       </c>
       <c r="N143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O143" t="n">
         <v>0</v>
@@ -9438,12 +9438,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>V76086103</t>
+          <t>U45611570</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>adress144,144 12 - A  City144, (Province144) 69944</t>
+          <t>adress144,144 6 - U  City144, (Province144) 51873</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -9457,12 +9457,12 @@
         </is>
       </c>
       <c r="F144" t="n">
-        <v>984490960</v>
+        <v>938347483</v>
       </c>
       <c r="G144" t="inlineStr"/>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Q88.1.0 - Social work activities without accommodation for the elderly and disabled</t>
+          <t>C23.4.3 - Manufacture of ceramic insulators and insulating fittings</t>
         </is>
       </c>
       <c r="I144" t="n">
@@ -9483,7 +9483,7 @@
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>2024-02-04 17:00:00</t>
+          <t>2024-02-11 06:00:00</t>
         </is>
       </c>
       <c r="N144" t="n">
@@ -9501,12 +9501,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>E26237825</t>
+          <t>V56989301</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>adress145,145 15 - Q  City145, (Province145) 36262</t>
+          <t>adress145,145 13 - F  City145, (Province145) 15007</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -9520,12 +9520,12 @@
         </is>
       </c>
       <c r="F145" t="n">
-        <v>977388585</v>
+        <v>908735296</v>
       </c>
       <c r="G145" t="inlineStr"/>
       <c r="H145" t="inlineStr">
         <is>
-          <t>C30.3.0 - Manufacture of air and spacecraft and related machinery</t>
+          <t>F41.2.0 - Construction of residential and non-residential buildings</t>
         </is>
       </c>
       <c r="I145" t="n">
@@ -9541,12 +9541,12 @@
       </c>
       <c r="L145" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt; 10</t>
+          <t xml:space="preserve"> &gt; 250</t>
         </is>
       </c>
       <c r="M145" t="inlineStr">
         <is>
-          <t>2024-02-04 22:00:00</t>
+          <t>2024-02-11 13:00:00</t>
         </is>
       </c>
       <c r="N145" t="n">
@@ -9564,12 +9564,12 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>R62698310</t>
+          <t>R82426005</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>adress146,146 5 - V  City146, (Province146) 09822</t>
+          <t>adress146,146 18 - J  City146, (Province146) 87582</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -9583,12 +9583,12 @@
         </is>
       </c>
       <c r="F146" t="n">
-        <v>939711804</v>
+        <v>981242000</v>
       </c>
       <c r="G146" t="inlineStr"/>
       <c r="H146" t="inlineStr">
         <is>
-          <t>S95.2.1 - Repair of consumer electronics</t>
+          <t>C10 - Manufacture of food products</t>
         </is>
       </c>
       <c r="I146" t="n">
@@ -9599,21 +9599,21 @@
       </c>
       <c r="K146" t="inlineStr">
         <is>
-          <t>Pool</t>
+          <t>Contact</t>
         </is>
       </c>
       <c r="L146" t="inlineStr">
         <is>
-          <t>50 - 250</t>
+          <t xml:space="preserve"> &gt; 250</t>
         </is>
       </c>
       <c r="M146" t="inlineStr">
         <is>
-          <t>2024-02-04 23:00:00</t>
+          <t>2024-02-11 18:00:00</t>
         </is>
       </c>
       <c r="N146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O146" t="n">
         <v>0</v>
@@ -9627,12 +9627,12 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>C89661270</t>
+          <t>H04190788</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>adress147,147 8 - S  City147, (Province147) 96096</t>
+          <t>adress147,147 1 - E  City147, (Province147) 08348</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -9646,12 +9646,12 @@
         </is>
       </c>
       <c r="F147" t="n">
-        <v>935760632</v>
+        <v>926318639</v>
       </c>
       <c r="G147" t="inlineStr"/>
       <c r="H147" t="inlineStr">
         <is>
-          <t>G47.2.6 - Retail sale of tobacco products in specialised stores</t>
+          <t>C25.9 - Manufacture of other fabricated metal products</t>
         </is>
       </c>
       <c r="I147" t="n">
@@ -9667,12 +9667,12 @@
       </c>
       <c r="L147" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &gt; 250</t>
+          <t>50 - 250</t>
         </is>
       </c>
       <c r="M147" t="inlineStr">
         <is>
-          <t>2024-02-05 05:00:00</t>
+          <t>2024-02-12 04:00:00</t>
         </is>
       </c>
       <c r="N147" t="n">
@@ -9690,12 +9690,12 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>B66648121</t>
+          <t>B71793820</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>adress148,148 9 - B  City148, (Province148) 74419</t>
+          <t>adress148,148 13 - P  City148, (Province148) 09225</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -9709,12 +9709,12 @@
         </is>
       </c>
       <c r="F148" t="n">
-        <v>995851826</v>
+        <v>926620368</v>
       </c>
       <c r="G148" t="inlineStr"/>
       <c r="H148" t="inlineStr">
         <is>
-          <t>C10.8.4 - Manufacture of condiments and seasonings</t>
+          <t>M75 - Veterinary activities</t>
         </is>
       </c>
       <c r="I148" t="n">
@@ -9735,7 +9735,7 @@
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>2024-02-05 17:00:00</t>
+          <t>2024-02-12 14:00:00</t>
         </is>
       </c>
       <c r="N148" t="n">
@@ -9753,12 +9753,12 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>A40732892</t>
+          <t>P64908114</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>adress149,149 18 - S  City149, (Province149) 58337</t>
+          <t>adress149,149 15 - S  City149, (Province149) 68512</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -9772,12 +9772,12 @@
         </is>
       </c>
       <c r="F149" t="n">
-        <v>993683181</v>
+        <v>902338509</v>
       </c>
       <c r="G149" t="inlineStr"/>
       <c r="H149" t="inlineStr">
         <is>
-          <t>G47.4.3 - Retail sale of audio and video equipment in specialised stores</t>
+          <t>R93.1 - Sports activities</t>
         </is>
       </c>
       <c r="I149" t="n">
@@ -9788,21 +9788,21 @@
       </c>
       <c r="K149" t="inlineStr">
         <is>
-          <t>Pool</t>
+          <t>Contact</t>
         </is>
       </c>
       <c r="L149" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &lt; 10</t>
+          <t xml:space="preserve"> &gt; 250</t>
         </is>
       </c>
       <c r="M149" t="inlineStr">
         <is>
-          <t>2024-02-06 01:00:00</t>
+          <t>2024-02-12 20:00:00</t>
         </is>
       </c>
       <c r="N149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O149" t="n">
         <v>0</v>
@@ -9816,12 +9816,12 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Q51689404</t>
+          <t>A64094030</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>adress150,150 4 - W  City150, (Province150) 82507</t>
+          <t>adress150,150 3 - R  City150, (Province150) 12261</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -9835,12 +9835,12 @@
         </is>
       </c>
       <c r="F150" t="n">
-        <v>931989378</v>
+        <v>982576892</v>
       </c>
       <c r="G150" t="inlineStr"/>
       <c r="H150" t="inlineStr">
         <is>
-          <t>C23.6 - Manufacture of articles of concrete, cement and plaster</t>
+          <t>C20.4 - Manufacture of soap and detergents, cleaning and polishing preparations, perfumes and toilet preparations</t>
         </is>
       </c>
       <c r="I150" t="n">
@@ -9856,12 +9856,12 @@
       </c>
       <c r="L150" t="inlineStr">
         <is>
-          <t xml:space="preserve"> &gt; 250</t>
+          <t xml:space="preserve"> &lt; 10</t>
         </is>
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>2024-02-06 02:00:00</t>
+          <t>2024-02-13 04:00:00</t>
         </is>
       </c>
       <c r="N150" t="n">
